--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C81323-3C77-4F8C-B42D-4FAE09CE8EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7EB48-3544-45D9-826D-6BBB306E4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -282,13 +282,28 @@
   <si>
     <t>Excess NFA</t>
   </si>
+  <si>
+    <t>GDP$Millions</t>
+  </si>
+  <si>
+    <t>FDI inflows$millions</t>
+  </si>
+  <si>
+    <t>FDI Stock$millions</t>
+  </si>
+  <si>
+    <t>ExcessNFA$millions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -342,13 +357,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{217EDFFB-1B0A-47F0-86B6-022F845F20DE}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10271,7 +10307,7 @@
         <v>-1000000</v>
       </c>
       <c r="G33">
-        <f>ABS(F33/1000000)</f>
+        <f t="shared" ref="G33:G63" si="6">ABS(F33/1000000)</f>
         <v>1</v>
       </c>
       <c r="H33">
@@ -10318,7 +10354,7 @@
         <v>-3000000</v>
       </c>
       <c r="G34">
-        <f>ABS(F34/1000000)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="H34">
@@ -10365,7 +10401,7 @@
         <v>-54600000</v>
       </c>
       <c r="G35">
-        <f>ABS(F35/1000000)</f>
+        <f t="shared" si="6"/>
         <v>54.6</v>
       </c>
       <c r="H35">
@@ -10412,7 +10448,7 @@
         <v>-88200000</v>
       </c>
       <c r="G36">
-        <f>ABS(F36/1000000)</f>
+        <f t="shared" si="6"/>
         <v>88.2</v>
       </c>
       <c r="H36">
@@ -10459,7 +10495,7 @@
         <v>-121200000</v>
       </c>
       <c r="G37">
-        <f>ABS(F37/1000000)</f>
+        <f t="shared" si="6"/>
         <v>121.2</v>
       </c>
       <c r="H37">
@@ -10506,7 +10542,7 @@
         <v>-121000000</v>
       </c>
       <c r="G38">
-        <f>ABS(F38/1000000)</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="H38">
@@ -10553,7 +10589,7 @@
         <v>-175000000</v>
       </c>
       <c r="G39">
-        <f>ABS(F39/1000000)</f>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="H39">
@@ -10600,7 +10636,7 @@
         <v>-210000000</v>
       </c>
       <c r="G40">
-        <f>ABS(F40/1000000)</f>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="H40">
@@ -10647,7 +10683,7 @@
         <v>-140200000</v>
       </c>
       <c r="G41">
-        <f>ABS(F41/1000000)</f>
+        <f t="shared" si="6"/>
         <v>140.19999999999999</v>
       </c>
       <c r="H41">
@@ -10694,7 +10730,7 @@
         <v>-160700000</v>
       </c>
       <c r="G42">
-        <f>ABS(F42/1000000)</f>
+        <f t="shared" si="6"/>
         <v>160.69999999999999</v>
       </c>
       <c r="H42">
@@ -10741,7 +10777,7 @@
         <v>-151496150.65192699</v>
       </c>
       <c r="G43">
-        <f>ABS(F43/1000000)</f>
+        <f t="shared" si="6"/>
         <v>151.496150651927</v>
       </c>
       <c r="H43">
@@ -10788,7 +10824,7 @@
         <v>-184648059.19749999</v>
       </c>
       <c r="G44">
-        <f>ABS(F44/1000000)</f>
+        <f t="shared" si="6"/>
         <v>184.6480591975</v>
       </c>
       <c r="H44">
@@ -10835,7 +10871,7 @@
         <v>-202192593.61849999</v>
       </c>
       <c r="G45">
-        <f>ABS(F45/1000000)</f>
+        <f t="shared" si="6"/>
         <v>202.19259361849998</v>
       </c>
       <c r="H45">
@@ -10882,7 +10918,7 @@
         <v>-295416479.80069202</v>
       </c>
       <c r="G46">
-        <f>ABS(F46/1000000)</f>
+        <f t="shared" si="6"/>
         <v>295.416479800692</v>
       </c>
       <c r="H46">
@@ -10929,7 +10965,7 @@
         <v>-379808340.66706097</v>
       </c>
       <c r="G47">
-        <f>ABS(F47/1000000)</f>
+        <f t="shared" si="6"/>
         <v>379.80834066706097</v>
       </c>
       <c r="H47">
@@ -10976,7 +11012,7 @@
         <v>-644262499.94651198</v>
       </c>
       <c r="G48">
-        <f>ABS(F48/1000000)</f>
+        <f t="shared" si="6"/>
         <v>644.26249994651198</v>
       </c>
       <c r="H48">
@@ -11023,7 +11059,7 @@
         <v>-792305780.89124405</v>
       </c>
       <c r="G49">
-        <f>ABS(F49/1000000)</f>
+        <f t="shared" si="6"/>
         <v>792.30578089124401</v>
       </c>
       <c r="H49">
@@ -11070,7 +11106,7 @@
         <v>-728860900.652408</v>
       </c>
       <c r="G50">
-        <f>ABS(F50/1000000)</f>
+        <f t="shared" si="6"/>
         <v>728.86090065240796</v>
       </c>
       <c r="H50">
@@ -11117,7 +11153,7 @@
         <v>-812720321.69957602</v>
       </c>
       <c r="G51">
-        <f>ABS(F51/1000000)</f>
+        <f t="shared" si="6"/>
         <v>812.72032169957606</v>
       </c>
       <c r="H51">
@@ -11164,7 +11200,7 @@
         <v>-506658423.45964003</v>
       </c>
       <c r="G52">
-        <f>ABS(F52/1000000)</f>
+        <f t="shared" si="6"/>
         <v>506.65842345964001</v>
       </c>
       <c r="H52">
@@ -11211,7 +11247,7 @@
         <v>-906140427.58727598</v>
       </c>
       <c r="G53">
-        <f>ABS(F53/1000000)</f>
+        <f t="shared" si="6"/>
         <v>906.14042758727601</v>
       </c>
       <c r="H53">
@@ -11258,7 +11294,7 @@
         <v>-1159051459.72053</v>
       </c>
       <c r="G54">
-        <f>ABS(F54/1000000)</f>
+        <f t="shared" si="6"/>
         <v>1159.0514597205299</v>
       </c>
       <c r="H54">
@@ -11305,7 +11341,7 @@
         <v>-1051622922.49344</v>
       </c>
       <c r="G55">
-        <f>ABS(F55/1000000)</f>
+        <f t="shared" si="6"/>
         <v>1051.62292249344</v>
       </c>
       <c r="H55">
@@ -11352,7 +11388,7 @@
         <v>-1031546242.99492</v>
       </c>
       <c r="G56">
-        <f>ABS(F56/1000000)</f>
+        <f t="shared" si="6"/>
         <v>1031.54624299492</v>
       </c>
       <c r="H56">
@@ -11399,7 +11435,7 @@
         <v>-737369521.05303395</v>
       </c>
       <c r="G57">
-        <f>ABS(F57/1000000)</f>
+        <f t="shared" si="6"/>
         <v>737.36952105303396</v>
       </c>
       <c r="H57">
@@ -11446,7 +11482,7 @@
         <v>-625558964.16211998</v>
       </c>
       <c r="G58">
-        <f>ABS(F58/1000000)</f>
+        <f t="shared" si="6"/>
         <v>625.55896416211999</v>
       </c>
       <c r="H58">
@@ -11493,7 +11529,7 @@
         <v>-802400008.75549996</v>
       </c>
       <c r="G59">
-        <f>ABS(F59/1000000)</f>
+        <f t="shared" si="6"/>
         <v>802.40000875549993</v>
       </c>
       <c r="H59">
@@ -11540,7 +11576,7 @@
         <v>-1055031706.52842</v>
       </c>
       <c r="G60">
-        <f>ABS(F60/1000000)</f>
+        <f t="shared" si="6"/>
         <v>1055.03170652842</v>
       </c>
       <c r="H60">
@@ -11587,7 +11623,7 @@
         <v>-1273559949.03929</v>
       </c>
       <c r="G61">
-        <f>ABS(F61/1000000)</f>
+        <f t="shared" si="6"/>
         <v>1273.5599490392899</v>
       </c>
       <c r="H61">
@@ -11634,7 +11670,7 @@
         <v>-873468225.23084199</v>
       </c>
       <c r="G62">
-        <f>ABS(F62/1000000)</f>
+        <f t="shared" si="6"/>
         <v>873.46822523084199</v>
       </c>
       <c r="H62">
@@ -11675,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f>ABS(F63/1000000)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H63">
@@ -11705,1270 +11741,1467 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>42.30083857442348</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>-42.30083857442348</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>44.152410901467505</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>-44.152410901467505</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>44.901257861635223</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>-44.901257861635223</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>51.614779874213838</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>-51.614779874213838</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>58.905660377358494</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>-58.905660377358494</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>88.487394957983184</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>-88.487394957983184</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>92.577030812324921</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>-62.337635630468554</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>96.764705882352942</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>-59.566751278643714</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>103.78151260504201</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>-55.006727549518878</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>116.90476190476188</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>-56.997354712814328</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>126.00840336134453</v>
-      </c>
-      <c r="C12">
-        <v>4.2</v>
       </c>
       <c r="D12">
         <v>4.2</v>
       </c>
       <c r="E12">
+        <v>4.2</v>
+      </c>
+      <c r="F12">
         <v>-61.257605442055009</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>141.77871148459383</v>
-      </c>
-      <c r="C13">
-        <v>1.2</v>
       </c>
       <c r="D13">
         <v>1.2</v>
       </c>
       <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
         <v>-122.62218651284857</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>149.15966386554621</v>
-      </c>
-      <c r="C14">
-        <v>11.9</v>
       </c>
       <c r="D14">
         <v>11.9</v>
       </c>
       <c r="E14">
+        <v>11.9</v>
+      </c>
+      <c r="F14">
         <v>-128.70141802759881</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>170.25210084033614</v>
-      </c>
-      <c r="C15">
-        <v>5.2</v>
       </c>
       <c r="D15">
         <v>5.2</v>
       </c>
       <c r="E15">
+        <v>5.2</v>
+      </c>
+      <c r="F15">
         <v>-157.04574033071117</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>210.01426533523539</v>
-      </c>
-      <c r="C16">
-        <v>1.7</v>
       </c>
       <c r="D16">
         <v>1.7</v>
       </c>
       <c r="E16">
+        <v>1.7</v>
+      </c>
+      <c r="F16">
         <v>-205.42956371259169</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>235.95555555555558</v>
-      </c>
-      <c r="C17">
-        <v>2.1</v>
       </c>
       <c r="D17">
         <v>2.1</v>
       </c>
       <c r="E17">
+        <v>2.1</v>
+      </c>
+      <c r="F17">
         <v>-225.97333206044573</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>244.73</v>
-      </c>
-      <c r="C18">
-        <v>2.0499999</v>
       </c>
       <c r="D18">
         <v>2.0499999</v>
       </c>
       <c r="E18">
+        <v>2.0499999</v>
+      </c>
+      <c r="F18">
         <v>-231.45913140663848</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>293.64705882352939</v>
-      </c>
-      <c r="C19">
-        <v>0.8</v>
       </c>
       <c r="D19">
         <v>0.8</v>
       </c>
       <c r="E19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
         <v>-272.99794832058399</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>242.02608695652174</v>
-      </c>
-      <c r="C20">
-        <v>1.97</v>
       </c>
       <c r="D20">
         <v>1.97</v>
       </c>
       <c r="E20">
+        <v>1.97</v>
+      </c>
+      <c r="F20">
         <v>-208.34709112157037</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>213.9025</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>-196.61647884443153</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>124.461</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
         <v>-37.324276848304081</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>133.72999999999999</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>208.58830259454444</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1565.2162708415501</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>217.75</v>
-      </c>
-      <c r="C24">
-        <v>2.02</v>
       </c>
       <c r="D24">
         <v>2.02</v>
       </c>
       <c r="E24">
+        <v>2.02</v>
+      </c>
+      <c r="F24">
         <v>46.154135107221691</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>543.26640510304696</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>224.03333333333336</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>173.51649716174347</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>429.77464486072699</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>361.56474770543372</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>12.92539543393076</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>293.63133617189402</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>351.96663385245415</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
         <v>216.27077542096731</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>384.63216488538097</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>392.32321221278397</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>-179.13169343278398</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>401.52703667273499</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>626.95116146623457</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>-626.95116146623457</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>511.28822370242102</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>650.89316516666668</v>
-      </c>
-      <c r="C30">
-        <v>4.7</v>
       </c>
       <c r="D30">
         <v>4.7</v>
       </c>
       <c r="E30">
+        <v>4.7</v>
+      </c>
+      <c r="F30">
         <v>-650.89316516666668</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>470.09228354012299</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>527.64809859993659</v>
-      </c>
-      <c r="C31">
-        <v>1.76</v>
       </c>
       <c r="D31">
         <v>1.76</v>
       </c>
       <c r="E31">
+        <v>1.76</v>
+      </c>
+      <c r="F31">
         <v>-527.64809859993659</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>384.99517293613701</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>430.439886588268</v>
-      </c>
-      <c r="C32">
-        <v>5.91</v>
       </c>
       <c r="D32">
         <v>5.91</v>
       </c>
       <c r="E32">
+        <v>5.91</v>
+      </c>
+      <c r="F32">
         <v>-430.439886588268</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>244.39075838208399</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>332.17290571221542</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>-332.17290571221542</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>179.474769912619</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>285.74578600508755</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
         <v>-71.390964379176268</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>120.252259985827</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>322.04390441894867</v>
-      </c>
-      <c r="C35">
-        <v>54.6</v>
       </c>
       <c r="D35">
         <v>54.6</v>
       </c>
       <c r="E35">
+        <v>54.6</v>
+      </c>
+      <c r="F35">
         <v>-234.62134982143192</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>118.786060581379</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>399.04304467121597</v>
-      </c>
-      <c r="C36">
-        <v>88.2</v>
       </c>
       <c r="D36">
         <v>88.2</v>
       </c>
       <c r="E36">
+        <v>88.2</v>
+      </c>
+      <c r="F36">
         <v>-333.74990899275576</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>148.49891681729699</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>575.58189474212497</v>
-      </c>
-      <c r="C37">
-        <v>121.2</v>
       </c>
       <c r="D37">
         <v>121.2</v>
       </c>
       <c r="E37">
+        <v>121.2</v>
+      </c>
+      <c r="F37">
         <v>-393.25689135142682</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>145.151216117594</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>604.45853269380007</v>
-      </c>
-      <c r="C38">
-        <v>121</v>
       </c>
       <c r="D38">
         <v>121</v>
       </c>
       <c r="E38">
+        <v>121</v>
+      </c>
+      <c r="F38">
         <v>-363.24556083330401</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>145.534630500829</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>626.93333131710835</v>
-      </c>
-      <c r="C39">
-        <v>175</v>
       </c>
       <c r="D39">
         <v>175</v>
       </c>
       <c r="E39">
+        <v>175</v>
+      </c>
+      <c r="F39">
         <v>-265.30839155189</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>152.516808731092</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>658.48158465275378</v>
-      </c>
-      <c r="C40">
-        <v>210</v>
       </c>
       <c r="D40">
         <v>210</v>
       </c>
       <c r="E40">
+        <v>210</v>
+      </c>
+      <c r="F40">
         <v>-130.64011205405677</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>135.617944882106</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>599.85632579465891</v>
-      </c>
-      <c r="C41">
-        <v>140.19999999999999</v>
       </c>
       <c r="D41">
         <v>140.19999999999999</v>
       </c>
       <c r="E41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F41">
         <v>-56.713906355499148</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>123.43242395845</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>619.32468370968729</v>
-      </c>
-      <c r="C42">
-        <v>160.69999999999999</v>
       </c>
       <c r="D42">
         <v>160.69999999999999</v>
       </c>
       <c r="E42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="F42">
         <v>108.34913323242097</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>117.002584885845</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>584.05038685724548</v>
-      </c>
-      <c r="C43">
-        <v>151.496150651927</v>
       </c>
       <c r="D43">
         <v>151.496150651927</v>
       </c>
       <c r="E43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="F43">
         <v>235.94725715903053</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>114.128259060837</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>617.85635908925371</v>
-      </c>
-      <c r="C44">
-        <v>184.6480591975</v>
       </c>
       <c r="D44">
         <v>184.6480591975</v>
       </c>
       <c r="E44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="F44">
         <v>201.17006801667731</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>109.21191184217101</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>660.68843907801886</v>
-      </c>
-      <c r="C45">
-        <v>202.19259361849998</v>
       </c>
       <c r="D45">
         <v>202.19259361849998</v>
       </c>
       <c r="E45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="F45">
         <v>468.97337212392938</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>95.845581597459301</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>793.94874738631825</v>
-      </c>
-      <c r="C46">
-        <v>295.416479800692</v>
       </c>
       <c r="D46">
         <v>295.416479800692</v>
       </c>
       <c r="E46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="F46">
         <v>592.7103272756101</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>99.447858634069306</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>923.92218585583873</v>
-      </c>
-      <c r="C47">
-        <v>379.80834066706097</v>
       </c>
       <c r="D47">
         <v>379.80834066706097</v>
       </c>
       <c r="E47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="F47">
         <v>580.91762229240112</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>104.161592504748</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>997.76476446995264</v>
-      </c>
-      <c r="C48">
-        <v>644.26249994651198</v>
       </c>
       <c r="D48">
         <v>644.26249994651198</v>
       </c>
       <c r="E48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="F48">
         <v>1068.897791475551</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>104.377585567366</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1190.2564401323843</v>
-      </c>
-      <c r="C49">
-        <v>792.30578089124401</v>
       </c>
       <c r="D49">
         <v>792.30578089124401</v>
       </c>
       <c r="E49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="F49">
         <v>1677.4219135928251</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>107.96589537320899</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1444.0404021488146</v>
-      </c>
-      <c r="C50">
-        <v>728.86090065240796</v>
       </c>
       <c r="D50">
         <v>728.86090065240796</v>
       </c>
       <c r="E50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="F50">
         <v>1470.5614459428223</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>111.311992506636</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2512.7805566451116</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>841.57080274763598</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>812.72032169957606</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>56.111982776657442</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>108.319176300047</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>2667.3441667281536</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>543.87272727272796</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>506.65842345964001</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>166.70339234882567</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>2787.1725205571438</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>894.293858</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>906.14042758727601</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-285.0118475571976</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>93.066503735108299</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>2730.5915761291758</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>1205.3884877937401</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1159.0514597205299</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>645.02714536483609</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>103.581529116697</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>2891.5786996551833</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1096</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1051.62292249344</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>398.08720973481604</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>104.487341700489</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>3261.2397758457892</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>1058.56454034685</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1031.54624299492</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>56.925398460893121</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>106.106235195211</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>3238.7183844669862</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>737.65214015142794</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>737.36952105303396</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>-74.069725709489376</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>100.98705396656</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>2920.3988814897266</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>625.70436186706809</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>625.55896416211999</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>622.06287846039913</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>96.130690827214494</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>3074.4473911531209</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>802.70414100856806</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>802.40000875549993</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>754.03964403867303</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>93.678152818193894</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>3292.7025573429642</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1055.3533526303299</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1055.03170652842</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>447.56604216772257</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>90.086175339845695</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>3535.306063420217</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>1273.8855862508599</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1273.5599490392899</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>264.76882550326991</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>93.296236571518506</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>3760.036818093995</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>873.79283455531709</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>873.46822523084199</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>544.73543406991757</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>94.995621691551804</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>4043.4701516952782</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A63">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" Financial Year">
+      <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
+    </cfRule>
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A63" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D7EB48-3544-45D9-826D-6BBB306E4476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D35158-44E3-462F-8232-47412FF8F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" activeTab="2" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -302,8 +303,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -350,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -358,12 +360,35 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{217EDFFB-1B0A-47F0-86B6-022F845F20DE}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6669,16 +6694,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6706,15 +6731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6741,16 +6766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6778,15 +6803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7113,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86548ECB-474C-4C82-AFCD-DCE8D6396C69}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8770,7 +8795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8508772-BEF4-4C79-A19E-591393B8EA5B}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="F57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M62"/>
     </sheetView>
   </sheetViews>
@@ -11743,20 +11768,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -11779,8 +11807,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="8">
+        <v>22098</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11789,21 +11817,22 @@
         <v>42.30083857442348</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>E2</f>
+        <v>19.768089800000002</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19.768089800000002</v>
       </c>
       <c r="F2">
-        <v>-42.30083857442348</v>
+        <v>-42.300838574423501</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>69.06119799999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="8">
+        <v>22463</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -11812,21 +11841,22 @@
         <v>44.152410901467505</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f t="shared" ref="D3:D10" si="0">E3</f>
+        <v>5.2824671999999993</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.2824671999999993</v>
       </c>
       <c r="F3">
         <v>-44.152410901467505</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>17.147871999999992</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="A4" s="8">
+        <v>22828</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -11835,21 +11865,22 @@
         <v>44.901257861635223</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-4.3430757999999869</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-4.3430757999999869</v>
       </c>
       <c r="F4">
         <v>-44.901257861635223</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-35.039658000000017</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="8">
+        <v>23193</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -11858,21 +11889,22 @@
         <v>51.614779874213838</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-9.9870591999999974</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-9.9870591999999974</v>
       </c>
       <c r="F5">
         <v>-51.614779874213838</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-88.144592000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
+      <c r="A6" s="8">
+        <v>23559</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11881,21 +11913,22 @@
         <v>58.905660377358494</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-12.445875000000008</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-12.445875000000008</v>
       </c>
       <c r="F6">
         <v>-58.905660377358494</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-143.01124999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
+      <c r="A7" s="8">
+        <v>23924</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -11904,21 +11937,22 @@
         <v>88.487394957983184</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-12.43549119999998</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-12.43549119999998</v>
       </c>
       <c r="F7">
         <v>-88.487394957983184</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-200.65411200000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
+      <c r="A8" s="8">
+        <v>24289</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -11927,21 +11961,22 @@
         <v>92.577030812324921</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-10.593299799999976</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-10.593299799999976</v>
       </c>
       <c r="F8">
         <v>-62.337635630468554</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-262.228298</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
+      <c r="A9" s="8">
+        <v>24654</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -11950,21 +11985,22 @@
         <v>96.764705882352942</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-7.4801088000000036</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-7.4801088000000036</v>
       </c>
       <c r="F9">
         <v>-59.566751278643714</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-329.00148799999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
+      <c r="A10" s="8">
+        <v>25020</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -11973,21 +12009,22 @@
         <v>103.78151260504201</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-3.5822782000000117</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-3.5822782000000117</v>
       </c>
       <c r="F10">
         <v>-55.006727549518878</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-402.32728199999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
+      <c r="A11" s="8">
+        <v>25385</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -11996,21 +12033,22 @@
         <v>116.90476190476188</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f>E11</f>
+        <v>0.68600000000001415</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.68600000000001415</v>
       </c>
       <c r="F11">
         <v>-56.997354712814328</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-483.62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
+      <c r="A12" s="8">
+        <v>25750</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -12028,12 +12066,12 @@
         <v>-61.257605442055009</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-574.33092199999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
+      <c r="A13" s="8">
+        <v>26115</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -12051,12 +12089,12 @@
         <v>-122.62218651284857</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-675.92596800000013</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
+      <c r="A14" s="8">
+        <v>26481</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -12074,12 +12112,12 @@
         <v>-128.70141802759881</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-789.86481800000013</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
+      <c r="A15" s="8">
+        <v>26846</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -12097,12 +12135,12 @@
         <v>-157.04574033071117</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>-917.58147199999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
+      <c r="A16" s="8">
+        <v>27211</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -12120,12 +12158,12 @@
         <v>-205.42956371259169</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>-1060.4662500000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
+      <c r="A17" s="8">
+        <v>27576</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -12143,12 +12181,12 @@
         <v>-225.97333206044573</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>-1219.8492320000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
+      <c r="A18" s="8">
+        <v>27942</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -12166,12 +12204,12 @@
         <v>-231.45913140663848</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-1396.9851380000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
+      <c r="A19" s="8">
+        <v>28307</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -12189,12 +12227,12 @@
         <v>-272.99794832058399</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-1593.0396480000002</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
+      <c r="A20" s="8">
+        <v>28672</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -12212,12 +12250,12 @@
         <v>-208.34709112157037</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>-1809.0771620000003</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
+      <c r="A21" s="8">
+        <v>29037</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -12235,12 +12273,12 @@
         <v>-196.61647884443153</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-2046.05</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
+      <c r="A22" s="8">
+        <v>29403</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -12258,12 +12296,12 @@
         <v>-37.324276848304081</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-2304.7890419999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
+      <c r="A23" s="8">
+        <v>29768</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -12272,10 +12310,11 @@
         <v>133.72999999999999</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <f>E23</f>
+        <v>16.802499200000149</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>16.802499200000149</v>
       </c>
       <c r="F23">
         <v>208.58830259454444</v>
@@ -12285,8 +12324,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
+      <c r="A24" s="8">
+        <v>30133</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -12308,8 +12347,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
+      <c r="A25" s="8">
+        <v>30498</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -12318,10 +12357,11 @@
         <v>224.03333333333336</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <f>E25</f>
+        <v>15.709164800000032</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>15.709164800000032</v>
       </c>
       <c r="F25">
         <v>173.51649716174347</v>
@@ -12331,8 +12371,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
+      <c r="A26" s="8">
+        <v>30864</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -12341,10 +12381,11 @@
         <v>361.56474770543372</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <f>E26</f>
+        <v>16.254125000000023</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>16.254125000000023</v>
       </c>
       <c r="F26">
         <v>12.92539543393076</v>
@@ -12354,8 +12395,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
+      <c r="A27" s="8">
+        <v>31229</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -12377,8 +12418,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
+      <c r="A28" s="8">
+        <v>31594</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -12387,10 +12428,11 @@
         <v>392.32321221278397</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <f>E28</f>
+        <v>21.087132199999679</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>21.087132199999679</v>
       </c>
       <c r="F28">
         <v>-179.13169343278398</v>
@@ -12400,8 +12442,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
+      <c r="A29" s="8">
+        <v>31959</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -12410,10 +12452,11 @@
         <v>626.95116146623457</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <f>E29</f>
+        <v>26.030259200000366</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>26.030259200000366</v>
       </c>
       <c r="F29">
         <v>-626.95116146623457</v>
@@ -12423,8 +12466,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
+      <c r="A30" s="8">
+        <v>32325</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -12446,8 +12489,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
+      <c r="A31" s="8">
+        <v>32690</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -12469,8 +12512,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
+      <c r="A32" s="8">
+        <v>33055</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -12492,8 +12535,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
+      <c r="A33" s="8">
+        <v>33420</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -12515,8 +12558,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
+      <c r="A34" s="8">
+        <v>33786</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -12538,8 +12581,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
+      <c r="A35" s="8">
+        <v>34151</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -12561,8 +12604,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
+      <c r="A36" s="8">
+        <v>34516</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -12584,8 +12627,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
+      <c r="A37" s="8">
+        <v>34881</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -12607,8 +12650,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
+      <c r="A38" s="8">
+        <v>35247</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -12630,8 +12673,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
+      <c r="A39" s="8">
+        <v>35612</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -12653,8 +12696,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
+      <c r="A40" s="8">
+        <v>35977</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -12676,8 +12719,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>46</v>
+      <c r="A41" s="8">
+        <v>36342</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -12699,8 +12742,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>47</v>
+      <c r="A42" s="8">
+        <v>36708</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -12722,8 +12765,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
+      <c r="A43" s="8">
+        <v>37073</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -12745,8 +12788,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
+      <c r="A44" s="8">
+        <v>37438</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -12768,8 +12811,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>50</v>
+      <c r="A45" s="8">
+        <v>37803</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -12791,8 +12834,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>51</v>
+      <c r="A46" s="8">
+        <v>38169</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -12814,8 +12857,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>52</v>
+      <c r="A47" s="8">
+        <v>38534</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -12837,8 +12880,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
+      <c r="A48" s="8">
+        <v>38899</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -12860,8 +12903,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>54</v>
+      <c r="A49" s="8">
+        <v>39264</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -12883,8 +12926,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>55</v>
+      <c r="A50" s="8">
+        <v>39630</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -12906,8 +12949,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>56</v>
+      <c r="A51" s="8">
+        <v>39995</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -12929,8 +12972,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
+      <c r="A52" s="8">
+        <v>40360</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -12952,8 +12995,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>58</v>
+      <c r="A53" s="8">
+        <v>40725</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -12975,8 +13018,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>59</v>
+      <c r="A54" s="8">
+        <v>41091</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -12998,8 +13041,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>60</v>
+      <c r="A55" s="8">
+        <v>41456</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -13021,8 +13064,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>61</v>
+      <c r="A56" s="8">
+        <v>41821</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -13044,8 +13087,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>62</v>
+      <c r="A57" s="8">
+        <v>42186</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -13067,8 +13110,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>63</v>
+      <c r="A58" s="8">
+        <v>42552</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -13090,8 +13133,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>64</v>
+      <c r="A59" s="8">
+        <v>42917</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -13113,8 +13156,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>65</v>
+      <c r="A60" s="8">
+        <v>43282</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -13136,8 +13179,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>66</v>
+      <c r="A61" s="8">
+        <v>43647</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -13159,8 +13202,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
+      <c r="A62" s="8">
+        <v>44013</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -13182,26 +13225,1514 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>4043.4701516952782</v>
-      </c>
+      <c r="A63" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A63">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A63" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>22098</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>42.30083857442348</v>
+      </c>
+      <c r="D2">
+        <v>19.768089799999998</v>
+      </c>
+      <c r="E2">
+        <v>19.768089799999998</v>
+      </c>
+      <c r="F2">
+        <v>42.300838574423501</v>
+      </c>
+      <c r="G2">
+        <v>69.06119799999999</v>
+      </c>
+      <c r="I2">
+        <f>ABS(D2)</f>
+        <v>19.768089799999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>22463</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>44.152410901467505</v>
+      </c>
+      <c r="D3">
+        <v>5.2824671999999993</v>
+      </c>
+      <c r="E3">
+        <v>5.2824671999999993</v>
+      </c>
+      <c r="F3">
+        <v>44.152410901467505</v>
+      </c>
+      <c r="G3">
+        <v>17.147871999999992</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="0">ABS(D3)</f>
+        <v>5.2824671999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>22828</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>44.901257861635223</v>
+      </c>
+      <c r="D4">
+        <v>4.3430757999999869</v>
+      </c>
+      <c r="E4">
+        <v>4.3430757999999869</v>
+      </c>
+      <c r="F4">
+        <v>44.901257861635223</v>
+      </c>
+      <c r="G4">
+        <v>35.039658000000017</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>4.3430757999999869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>23193</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>51.614779874213838</v>
+      </c>
+      <c r="D5">
+        <v>9.9870591999999974</v>
+      </c>
+      <c r="E5">
+        <v>9.9870591999999974</v>
+      </c>
+      <c r="F5">
+        <v>51.614779874213838</v>
+      </c>
+      <c r="G5">
+        <v>88.144592000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9.9870591999999974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>23559</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>58.905660377358494</v>
+      </c>
+      <c r="D6">
+        <v>12.445875000000008</v>
+      </c>
+      <c r="E6">
+        <v>12.445875000000008</v>
+      </c>
+      <c r="F6">
+        <v>58.905660377358494</v>
+      </c>
+      <c r="G6">
+        <v>143.01124999999996</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>12.445875000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>23924</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>88.487394957983184</v>
+      </c>
+      <c r="D7">
+        <v>12.43549119999998</v>
+      </c>
+      <c r="E7">
+        <v>12.43549119999998</v>
+      </c>
+      <c r="F7">
+        <v>88.487394957983184</v>
+      </c>
+      <c r="G7">
+        <v>200.65411200000005</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>12.43549119999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>24289</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>92.577030812324921</v>
+      </c>
+      <c r="D8">
+        <v>10.593299799999976</v>
+      </c>
+      <c r="E8">
+        <v>10.593299799999976</v>
+      </c>
+      <c r="F8">
+        <v>62.337635630468554</v>
+      </c>
+      <c r="G8">
+        <v>262.228298</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>10.593299799999976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>24654</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96.764705882352942</v>
+      </c>
+      <c r="D9">
+        <v>7.4801088000000036</v>
+      </c>
+      <c r="E9">
+        <v>7.4801088000000036</v>
+      </c>
+      <c r="F9">
+        <v>59.566751278643714</v>
+      </c>
+      <c r="G9">
+        <v>329.00148799999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>7.4801088000000036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>25020</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>103.78151260504201</v>
+      </c>
+      <c r="D10">
+        <v>3.5822782000000117</v>
+      </c>
+      <c r="E10">
+        <v>3.5822782000000117</v>
+      </c>
+      <c r="F10">
+        <v>55.006727549518878</v>
+      </c>
+      <c r="G10">
+        <v>402.32728199999997</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3.5822782000000117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>25385</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>116.90476190476188</v>
+      </c>
+      <c r="D11">
+        <f>E11</f>
+        <v>0.68600000000001415</v>
+      </c>
+      <c r="E11">
+        <v>0.68600000000001415</v>
+      </c>
+      <c r="F11">
+        <v>56.997354712814328</v>
+      </c>
+      <c r="G11">
+        <v>483.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>25750</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>126.00840336134453</v>
+      </c>
+      <c r="D12">
+        <v>4.2</v>
+      </c>
+      <c r="E12">
+        <v>4.2</v>
+      </c>
+      <c r="F12">
+        <v>61.257605442055009</v>
+      </c>
+      <c r="G12">
+        <v>574.33092199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>26115</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>141.77871148459383</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <v>122.62218651284857</v>
+      </c>
+      <c r="G13">
+        <v>675.92596800000013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>26481</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>149.15966386554621</v>
+      </c>
+      <c r="D14">
+        <v>11.9</v>
+      </c>
+      <c r="E14">
+        <v>11.9</v>
+      </c>
+      <c r="F14">
+        <v>128.70141802759881</v>
+      </c>
+      <c r="G14">
+        <v>789.86481800000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>26846</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>170.25210084033614</v>
+      </c>
+      <c r="D15">
+        <v>5.2</v>
+      </c>
+      <c r="E15">
+        <v>5.2</v>
+      </c>
+      <c r="F15">
+        <v>157.04574033071117</v>
+      </c>
+      <c r="G15">
+        <v>917.58147199999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>27211</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>210.01426533523539</v>
+      </c>
+      <c r="D16">
+        <v>1.7</v>
+      </c>
+      <c r="E16">
+        <v>1.7</v>
+      </c>
+      <c r="F16">
+        <v>205.42956371259169</v>
+      </c>
+      <c r="G16">
+        <v>1060.4662500000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>27576</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>235.95555555555558</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+      <c r="E17">
+        <v>2.1</v>
+      </c>
+      <c r="F17">
+        <v>225.97333206044573</v>
+      </c>
+      <c r="G17">
+        <v>1219.8492320000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>27942</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>244.73</v>
+      </c>
+      <c r="D18">
+        <v>2.0499999</v>
+      </c>
+      <c r="E18">
+        <v>2.0499999</v>
+      </c>
+      <c r="F18">
+        <v>231.45913140663848</v>
+      </c>
+      <c r="G18">
+        <v>1396.9851380000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>28307</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>293.64705882352939</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>272.99794832058399</v>
+      </c>
+      <c r="G19">
+        <v>1593.0396480000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>28672</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>242.02608695652174</v>
+      </c>
+      <c r="D20">
+        <v>1.97</v>
+      </c>
+      <c r="E20">
+        <v>1.97</v>
+      </c>
+      <c r="F20">
+        <v>208.34709112157037</v>
+      </c>
+      <c r="G20">
+        <v>1809.0771620000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>29037</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>213.9025</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>196.61647884443153</v>
+      </c>
+      <c r="G21">
+        <v>2046.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>29403</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>124.461</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>37.324276848304081</v>
+      </c>
+      <c r="G22">
+        <v>2304.7890419999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>29768</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>133.72999999999999</v>
+      </c>
+      <c r="D23">
+        <f>E23</f>
+        <v>16.802499200000149</v>
+      </c>
+      <c r="E23">
+        <v>16.802499200000149</v>
+      </c>
+      <c r="F23">
+        <v>208.58830259454444</v>
+      </c>
+      <c r="G23">
+        <v>1565.2162708415501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>30133</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>217.75</v>
+      </c>
+      <c r="D24">
+        <v>2.02</v>
+      </c>
+      <c r="E24">
+        <v>2.02</v>
+      </c>
+      <c r="F24">
+        <v>46.154135107221691</v>
+      </c>
+      <c r="G24">
+        <v>543.26640510304696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>30498</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>224.03333333333336</v>
+      </c>
+      <c r="D25">
+        <f>E25</f>
+        <v>15.709164800000032</v>
+      </c>
+      <c r="E25">
+        <v>15.709164800000032</v>
+      </c>
+      <c r="F25">
+        <v>173.51649716174347</v>
+      </c>
+      <c r="G25">
+        <v>429.77464486072699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>30864</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>361.56474770543372</v>
+      </c>
+      <c r="D26">
+        <f>E26</f>
+        <v>16.254125000000023</v>
+      </c>
+      <c r="E26">
+        <v>16.254125000000023</v>
+      </c>
+      <c r="F26">
+        <v>12.92539543393076</v>
+      </c>
+      <c r="G26">
+        <v>293.63133617189402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>31229</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>351.96663385245415</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>216.27077542096731</v>
+      </c>
+      <c r="G27">
+        <v>384.63216488538097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>31594</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>392.32321221278397</v>
+      </c>
+      <c r="D28">
+        <f>E28</f>
+        <v>21.087132199999679</v>
+      </c>
+      <c r="E28">
+        <v>21.087132199999679</v>
+      </c>
+      <c r="F28">
+        <v>179.13169343278398</v>
+      </c>
+      <c r="G28">
+        <v>401.52703667273499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>31959</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>626.95116146623457</v>
+      </c>
+      <c r="D29">
+        <f>E29</f>
+        <v>26.030259200000366</v>
+      </c>
+      <c r="E29">
+        <v>26.030259200000366</v>
+      </c>
+      <c r="F29">
+        <v>626.95116146623457</v>
+      </c>
+      <c r="G29">
+        <v>511.28822370242102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>32325</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>650.89316516666668</v>
+      </c>
+      <c r="D30">
+        <v>4.7</v>
+      </c>
+      <c r="E30">
+        <v>4.7</v>
+      </c>
+      <c r="F30">
+        <v>650.89316516666668</v>
+      </c>
+      <c r="G30">
+        <v>470.09228354012299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>32690</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>527.64809859993659</v>
+      </c>
+      <c r="D31">
+        <v>1.76</v>
+      </c>
+      <c r="E31">
+        <v>1.76</v>
+      </c>
+      <c r="F31">
+        <v>527.64809859993659</v>
+      </c>
+      <c r="G31">
+        <v>384.99517293613701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>33055</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>430.439886588268</v>
+      </c>
+      <c r="D32">
+        <v>5.91</v>
+      </c>
+      <c r="E32">
+        <v>5.91</v>
+      </c>
+      <c r="F32">
+        <v>430.439886588268</v>
+      </c>
+      <c r="G32">
+        <v>244.39075838208399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>33420</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>332.17290571221542</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>332.17290571221542</v>
+      </c>
+      <c r="G33">
+        <v>179.474769912619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33786</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>285.74578600508755</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>71.390964379176268</v>
+      </c>
+      <c r="G34">
+        <v>120.252259985827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34151</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>322.04390441894867</v>
+      </c>
+      <c r="D35">
+        <v>54.6</v>
+      </c>
+      <c r="E35">
+        <v>54.6</v>
+      </c>
+      <c r="F35">
+        <v>234.62134982143192</v>
+      </c>
+      <c r="G35">
+        <v>118.786060581379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34516</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>399.04304467121597</v>
+      </c>
+      <c r="D36">
+        <v>88.2</v>
+      </c>
+      <c r="E36">
+        <v>88.2</v>
+      </c>
+      <c r="F36">
+        <v>333.74990899275576</v>
+      </c>
+      <c r="G36">
+        <v>148.49891681729699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34881</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>575.58189474212497</v>
+      </c>
+      <c r="D37">
+        <v>121.2</v>
+      </c>
+      <c r="E37">
+        <v>121.2</v>
+      </c>
+      <c r="F37">
+        <v>393.25689135142682</v>
+      </c>
+      <c r="G37">
+        <v>145.151216117594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>35247</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>604.45853269380007</v>
+      </c>
+      <c r="D38">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>121</v>
+      </c>
+      <c r="F38">
+        <v>363.24556083330401</v>
+      </c>
+      <c r="G38">
+        <v>145.534630500829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>35612</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>626.93333131710835</v>
+      </c>
+      <c r="D39">
+        <v>175</v>
+      </c>
+      <c r="E39">
+        <v>175</v>
+      </c>
+      <c r="F39">
+        <v>265.30839155189</v>
+      </c>
+      <c r="G39">
+        <v>152.516808731092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>35977</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>658.48158465275378</v>
+      </c>
+      <c r="D40">
+        <v>210</v>
+      </c>
+      <c r="E40">
+        <v>210</v>
+      </c>
+      <c r="F40">
+        <v>130.64011205405677</v>
+      </c>
+      <c r="G40">
+        <v>135.617944882106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>36342</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>599.85632579465891</v>
+      </c>
+      <c r="D41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F41">
+        <v>56.713906355499148</v>
+      </c>
+      <c r="G41">
+        <v>123.43242395845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>36708</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>619.32468370968729</v>
+      </c>
+      <c r="D42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="E42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="F42">
+        <v>108.34913323242097</v>
+      </c>
+      <c r="G42">
+        <v>117.002584885845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>37073</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>584.05038685724548</v>
+      </c>
+      <c r="D43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="E43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="F43">
+        <v>235.94725715903053</v>
+      </c>
+      <c r="G43">
+        <v>114.128259060837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>37438</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>617.85635908925371</v>
+      </c>
+      <c r="D44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="E44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="F44">
+        <v>201.17006801667731</v>
+      </c>
+      <c r="G44">
+        <v>109.21191184217101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>37803</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>660.68843907801886</v>
+      </c>
+      <c r="D45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="E45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="F45">
+        <v>468.97337212392938</v>
+      </c>
+      <c r="G45">
+        <v>95.845581597459301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>38169</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>793.94874738631825</v>
+      </c>
+      <c r="D46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="E46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="F46">
+        <v>592.7103272756101</v>
+      </c>
+      <c r="G46">
+        <v>99.447858634069306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>38534</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>923.92218585583873</v>
+      </c>
+      <c r="D47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="E47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="F47">
+        <v>580.91762229240112</v>
+      </c>
+      <c r="G47">
+        <v>104.161592504748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>38899</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>997.76476446995264</v>
+      </c>
+      <c r="D48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="E48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="F48">
+        <v>1068.897791475551</v>
+      </c>
+      <c r="G48">
+        <v>104.377585567366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>39264</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>1190.2564401323843</v>
+      </c>
+      <c r="D49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="E49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="F49">
+        <v>1677.4219135928251</v>
+      </c>
+      <c r="G49">
+        <v>107.96589537320899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>39630</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1444.0404021488146</v>
+      </c>
+      <c r="D50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="E50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="F50">
+        <v>1470.5614459428223</v>
+      </c>
+      <c r="G50">
+        <v>111.311992506636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>39995</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2512.7805566451116</v>
+      </c>
+      <c r="D51">
+        <v>841.57080274763598</v>
+      </c>
+      <c r="E51">
+        <v>812.72032169957606</v>
+      </c>
+      <c r="F51">
+        <v>56.111982776657442</v>
+      </c>
+      <c r="G51">
+        <v>108.319176300047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>40360</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>2667.3441667281536</v>
+      </c>
+      <c r="D52">
+        <v>543.87272727272796</v>
+      </c>
+      <c r="E52">
+        <v>506.65842345964001</v>
+      </c>
+      <c r="F52">
+        <v>166.70339234882567</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>40725</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>2787.1725205571438</v>
+      </c>
+      <c r="D53">
+        <v>894.293858</v>
+      </c>
+      <c r="E53">
+        <v>906.14042758727601</v>
+      </c>
+      <c r="F53">
+        <v>285.0118475571976</v>
+      </c>
+      <c r="G53">
+        <v>93.066503735108299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>41091</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>2730.5915761291758</v>
+      </c>
+      <c r="D54">
+        <v>1205.3884877937401</v>
+      </c>
+      <c r="E54">
+        <v>1159.0514597205299</v>
+      </c>
+      <c r="F54">
+        <v>645.02714536483609</v>
+      </c>
+      <c r="G54">
+        <v>103.581529116697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>41456</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>2891.5786996551833</v>
+      </c>
+      <c r="D55">
+        <v>1096</v>
+      </c>
+      <c r="E55">
+        <v>1051.62292249344</v>
+      </c>
+      <c r="F55">
+        <v>398.08720973481604</v>
+      </c>
+      <c r="G55">
+        <v>104.487341700489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>41821</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>3261.2397758457892</v>
+      </c>
+      <c r="D56">
+        <v>1058.56454034685</v>
+      </c>
+      <c r="E56">
+        <v>1031.54624299492</v>
+      </c>
+      <c r="F56">
+        <v>56.925398460893121</v>
+      </c>
+      <c r="G56">
+        <v>106.106235195211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>42186</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>3238.7183844669862</v>
+      </c>
+      <c r="D57">
+        <v>737.65214015142794</v>
+      </c>
+      <c r="E57">
+        <v>737.36952105303396</v>
+      </c>
+      <c r="F57">
+        <v>74.069725709489376</v>
+      </c>
+      <c r="G57">
+        <v>100.98705396656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>42552</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>2920.3988814897266</v>
+      </c>
+      <c r="D58">
+        <v>625.70436186706809</v>
+      </c>
+      <c r="E58">
+        <v>625.55896416211999</v>
+      </c>
+      <c r="F58">
+        <v>622.06287846039913</v>
+      </c>
+      <c r="G58">
+        <v>96.130690827214494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>42917</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>3074.4473911531209</v>
+      </c>
+      <c r="D59">
+        <v>802.70414100856806</v>
+      </c>
+      <c r="E59">
+        <v>802.40000875549993</v>
+      </c>
+      <c r="F59">
+        <v>754.03964403867303</v>
+      </c>
+      <c r="G59">
+        <v>93.678152818193894</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43282</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>3292.7025573429642</v>
+      </c>
+      <c r="D60">
+        <v>1055.3533526303299</v>
+      </c>
+      <c r="E60">
+        <v>1055.03170652842</v>
+      </c>
+      <c r="F60">
+        <v>447.56604216772257</v>
+      </c>
+      <c r="G60">
+        <v>90.086175339845695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>43647</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>3535.306063420217</v>
+      </c>
+      <c r="D61">
+        <v>1273.8855862508599</v>
+      </c>
+      <c r="E61">
+        <v>1273.5599490392899</v>
+      </c>
+      <c r="F61">
+        <v>264.76882550326991</v>
+      </c>
+      <c r="G61">
+        <v>93.296236571518506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>44013</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>3760.036818093995</v>
+      </c>
+      <c r="D62">
+        <v>873.79283455531709</v>
+      </c>
+      <c r="E62">
+        <v>873.46822523084199</v>
+      </c>
+      <c r="F62">
+        <v>544.73543406991757</v>
+      </c>
+      <c r="G62">
+        <v>94.995621691551804</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A62">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" Financial Year">
+      <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D35158-44E3-462F-8232-47412FF8F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7BFC8-B70F-4D46-BB65-12E29A6E9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -251,19 +251,10 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>GDP ($Millions)</t>
-  </si>
-  <si>
     <t>FDI inflows</t>
   </si>
   <si>
-    <t>FDI inflows ($millions)</t>
-  </si>
-  <si>
     <t>FDI Stock</t>
-  </si>
-  <si>
-    <t>FDI Stock ($millions)</t>
   </si>
   <si>
     <t>offical Exchagange reate</t>
@@ -276,12 +267,6 @@
   </si>
   <si>
     <t>NFA($)</t>
-  </si>
-  <si>
-    <t>NFA($Millions)</t>
-  </si>
-  <si>
-    <t>Excess NFA</t>
   </si>
   <si>
     <t>GDP$Millions</t>
@@ -298,6 +283,21 @@
   <si>
     <t xml:space="preserve"> FY</t>
   </si>
+  <si>
+    <t>FDIStock$millions</t>
+  </si>
+  <si>
+    <t>FDIinflows$millions</t>
+  </si>
+  <si>
+    <t>ExcessNFA</t>
+  </si>
+  <si>
+    <t>ExcessNFA$Millions</t>
+  </si>
+  <si>
+    <t>GDP$millions</t>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +305,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -360,15 +360,35 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="1" xr:uid="{217EDFFB-1B0A-47F0-86B6-022F845F20DE}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -477,11 +497,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GDP ($Millions)</c:v>
+                  <c:v>GDP$millions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,7 +532,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -704,7 +724,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$62</c:f>
+              <c:f>Sheet2!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -906,11 +926,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>Sheet2!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NFA($Millions)</c:v>
+                  <c:v>ExcessNFA$Millions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -941,7 +961,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1133,7 +1153,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$62</c:f>
+              <c:f>Sheet2!$J$2:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1603,11 +1623,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>Sheet2!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Excess NFA</c:v>
+                  <c:v>ExcessNFA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,7 +1658,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1830,7 +1850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$62</c:f>
+              <c:f>Sheet2!$K$2:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2269,11 +2289,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GDP ($Millions)</c:v>
+                  <c:v>GDP$millions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2304,7 +2324,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2496,7 +2516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$62</c:f>
+              <c:f>Sheet2!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2698,11 +2718,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>Sheet2!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Excess NFA</c:v>
+                  <c:v>ExcessNFA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2733,7 +2753,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2925,7 +2945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$62</c:f>
+              <c:f>Sheet2!$K$2:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3395,11 +3415,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GDP ($Millions)</c:v>
+                  <c:v>GDP$millions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3430,7 +3450,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3622,7 +3642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$62</c:f>
+              <c:f>Sheet2!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3824,7 +3844,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$M$1</c:f>
+              <c:f>Sheet2!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3859,7 +3879,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$62</c:f>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4051,7 +4071,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$M$2:$M$62</c:f>
+              <c:f>Sheet2!$N$2:$N$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -7177,7 +7197,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8793,14 +8813,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8508772-BEF4-4C79-A19E-591393B8EA5B}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -8812,2955 +8833,3116 @@
     <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>22098</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>423008385.7442348</v>
       </c>
-      <c r="C2" s="5">
-        <f>B2/10000000</f>
+      <c r="D2" s="5">
+        <f>C2/10000000</f>
         <v>42.30083857442348</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <f>ABS(D2/1000000)</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f t="shared" ref="F2:F33" si="0">ABS(E2/1000000)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G31" si="0">E2</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>ABS(L2/K2)</f>
+        <f t="shared" ref="H2:H31" si="1">F2</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>H2/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <f>I2-C2</f>
+        <f>ABS(M2/L2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K33" si="2">J2-D2</f>
         <v>-42.30083857442348</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>22463</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
         <v>441524109.01467508</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C63" si="1">B3/10000000</f>
+      <c r="D3" s="5">
+        <f t="shared" ref="C3:D63" si="3">C3/10000000</f>
         <v>44.152410901467505</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <f t="shared" ref="E3:E63" si="2">ABS(D3/1000000)</f>
         <v>0</v>
       </c>
       <c r="F3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="H3:I63" si="4">ABS(M3/L3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="I3:J63" si="5">I3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="2"/>
+        <v>-44.152410901467505</v>
+      </c>
+      <c r="L3">
+        <v>7.1430000071429994E-2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>22828</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>449012578.6163522</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="3"/>
+        <v>44.901257861635223</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H63" si="3">ABS(L3/K3)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I63" si="4">H3/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J63" si="5">I3-C3</f>
-        <v>-44.152410901467505</v>
-      </c>
-      <c r="K3">
-        <v>7.1430000071429994E-2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>449012578.6163522</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>44.901257861635223</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="2"/>
         <v>-44.901257861635223</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>23193</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
         <v>516147798.74213839</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
+        <f t="shared" si="3"/>
+        <v>51.614779874213838</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>51.614779874213838</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="2"/>
         <v>-51.614779874213838</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>23559</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="4">
         <v>589056603.77358496</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
+        <f t="shared" si="3"/>
+        <v>58.905660377358494</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>58.905660377358494</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
         <v>-58.905660377358494</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>23924</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
         <v>884873949.57983184</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
+        <f t="shared" si="3"/>
+        <v>88.487394957983184</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>88.487394957983184</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
         <v>-88.487394957983184</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>24289</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="4">
         <v>925770308.12324917</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
+        <f t="shared" si="3"/>
+        <v>92.577030812324921</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>92.577030812324921</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>30239395.181856364</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
+        <v>30239395.181856364</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
         <v>30.239395181856363</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="5"/>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
         <v>-62.337635630468554</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2160000</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>24654</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>967647058.82352936</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
+        <f t="shared" si="3"/>
+        <v>96.764705882352942</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>96.764705882352942</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>37197954.603709228</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
+        <v>37197954.603709228</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
         <v>37.197954603709228</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="5"/>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
         <v>-59.566751278643714</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2657049.9</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>25020</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>1037815126.05042</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
+        <f t="shared" si="3"/>
+        <v>103.78151260504201</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>103.78151260504201</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>48774785.055523135</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
+        <v>48774785.055523135</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
         <v>48.774785055523132</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="5"/>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
         <v>-55.006727549518878</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3483982.9</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>25385</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>1169047619.0476189</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
+        <f t="shared" si="3"/>
+        <v>116.90476190476188</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>116.90476190476188</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>59907407.191947557</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
+        <v>59907407.191947557</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
         <v>59.907407191947556</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="5"/>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
         <v>-56.997354712814328</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4279186.0999999996</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>25750</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>1260084033.6134453</v>
       </c>
-      <c r="C12" s="5">
-        <f t="shared" si="1"/>
+      <c r="D12" s="5">
+        <f t="shared" si="3"/>
         <v>126.00840336134453</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>4200000</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>4.2</v>
-      </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>64750797.919289529</v>
+        <f t="shared" si="1"/>
+        <v>4.2</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
+        <v>64750797.919289529</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
         <v>64.750797919289525</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="5"/>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
         <v>-61.257605442055009</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4625149.5</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>26115</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>1417787114.8459382</v>
       </c>
-      <c r="C13" s="5">
-        <f t="shared" si="1"/>
+      <c r="D13" s="5">
+        <f t="shared" si="3"/>
         <v>141.77871148459383</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1200000</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13">
-        <f t="shared" si="3"/>
-        <v>19156524.97174526</v>
+        <f t="shared" si="1"/>
+        <v>1.2</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
+        <v>19156524.97174526</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
         <v>19.156524971745259</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="5"/>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
         <v>-122.62218651284857</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7.1429995890081102E-2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1368350.5</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>26481</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>1491596638.655462</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="1"/>
+      <c r="D14" s="5">
+        <f t="shared" si="3"/>
         <v>149.15966386554621</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-11900000</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>11.9</v>
-      </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
         <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="H14">
-        <f t="shared" si="3"/>
-        <v>20458245.837947395</v>
+        <f t="shared" si="1"/>
+        <v>11.9</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
+        <v>20458245.837947395</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
         <v>20.458245837947395</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="5"/>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
         <v>-128.70141802759881</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>7.1429999990000007E-2</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1461332.5</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>26846</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>1702521008.4033613</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="1"/>
+      <c r="D15" s="5">
+        <f t="shared" si="3"/>
         <v>170.25210084033614</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5200000</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>5.2</v>
-      </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>13206360.509624986</v>
+        <f t="shared" si="1"/>
+        <v>5.2</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
+        <v>13206360.509624986</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
         <v>13.206360509624986</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="5"/>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
         <v>-157.04574033071117</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7.0214499989999998E-2</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>927277.99987099995</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>27211</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>2100142653.3523538</v>
       </c>
-      <c r="C16" s="5">
-        <f t="shared" si="1"/>
+      <c r="D16" s="5">
+        <f t="shared" si="3"/>
         <v>210.01426533523539</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1700000</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>1.7</v>
-      </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
       <c r="H16">
-        <f t="shared" si="3"/>
-        <v>4584701.622643698</v>
+        <f t="shared" si="1"/>
+        <v>1.7</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
+        <v>4584701.622643698</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
         <v>4.5847016226436983</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="5"/>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
         <v>-205.42956371259169</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>7.1359499990000005E-2</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-327162.01539519598</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>27576</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>2359555555.5555558</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="5">
+        <f t="shared" si="3"/>
         <v>235.95555555555558</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2100000</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>2.1</v>
-      </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
       <c r="H17">
-        <f t="shared" si="3"/>
-        <v>9982223.4951098431</v>
+        <f t="shared" si="1"/>
+        <v>2.1</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
+        <v>9982223.4951098431</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
         <v>9.9822234951098423</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="5"/>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
         <v>-225.97333206044573</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7.421924999E-2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>740873.14103960898</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>27942</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>2447300000</v>
       </c>
-      <c r="C18" s="5">
-        <f t="shared" si="1"/>
+      <c r="D18" s="5">
+        <f t="shared" si="3"/>
         <v>244.73</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2049999.9</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>2.0499999</v>
-      </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
         <f t="shared" si="0"/>
         <v>2.0499999</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="H18">
-        <f t="shared" si="3"/>
-        <v>13270868.593361517</v>
+        <f t="shared" si="1"/>
+        <v>2.0499999</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
+        <v>13270868.593361517</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
         <v>13.270868593361518</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="5"/>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
         <v>-231.45913140663848</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>8.2661666662499994E-2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1096992.1159862899</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>28307</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>2936470588.2352939</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="1"/>
+      <c r="D19" s="5">
+        <f t="shared" si="3"/>
         <v>293.64705882352939</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>800000</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
       <c r="H19">
-        <f t="shared" si="3"/>
-        <v>20649110.502945412</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
+        <v>20649110.502945412</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
         <v>20.649110502945412</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="5"/>
+      <c r="K19" s="5">
+        <f t="shared" si="2"/>
         <v>-272.99794832058399</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>8.2589999993333302E-2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1705410.0363006</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>28672</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>2420260869.5652175</v>
       </c>
-      <c r="C20" s="5">
-        <f t="shared" si="1"/>
+      <c r="D20" s="5">
+        <f t="shared" si="3"/>
         <v>242.02608695652174</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1970000</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>1.97</v>
-      </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
         <f t="shared" si="0"/>
         <v>1.97</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
-        <f t="shared" si="3"/>
-        <v>33678995.834951378</v>
+        <f t="shared" si="1"/>
+        <v>1.97</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
+        <v>33678995.834951378</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
         <v>33.67899583495138</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="5"/>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
         <v>-208.34709112157037</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7.7356666656666698E-2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2605294.8541355999</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>29037</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>2139025000</v>
       </c>
-      <c r="C21" s="5">
-        <f t="shared" si="1"/>
+      <c r="D21" s="5">
+        <f t="shared" si="3"/>
         <v>213.9025</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>2000000</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>17286021.155568488</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
+        <v>17286021.155568488</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
         <v>17.286021155568488</v>
       </c>
-      <c r="J21" s="5">
-        <f t="shared" si="5"/>
+      <c r="K21" s="5">
+        <f t="shared" si="2"/>
         <v>-196.61647884443153</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>7.4828333323333301E-2</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-1293484.1528630699</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>29403</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>1244610000</v>
       </c>
-      <c r="C22" s="5">
-        <f t="shared" si="1"/>
+      <c r="D22" s="5">
+        <f t="shared" si="3"/>
         <v>124.461</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>4000000</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>87136723.151695922</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
+        <v>87136723.151695922</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
         <v>87.136723151695918</v>
       </c>
-      <c r="J22" s="5">
-        <f t="shared" si="5"/>
+      <c r="K22" s="5">
+        <f t="shared" si="2"/>
         <v>-37.324276848304081</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7.4169999989999999E-2</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-6462930.7552899197</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>29768</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>1337300000</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
+        <f t="shared" si="3"/>
+        <v>133.72999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="1"/>
-        <v>133.72999999999999</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>342318302.59454441</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
+        <v>342318302.59454441</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
         <v>342.31830259454443</v>
       </c>
-      <c r="J23" s="5">
-        <f t="shared" si="5"/>
+      <c r="K23" s="5">
+        <f t="shared" si="2"/>
         <v>208.58830259454444</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.50052333332666699</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-171338297.873348</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1565.2162708415501</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>30133</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>2177500000</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" si="1"/>
+      <c r="D24" s="5">
+        <f t="shared" si="3"/>
         <v>217.75</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2020000</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>2.02</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24">
-        <f t="shared" si="3"/>
-        <v>263904135.10722169</v>
+        <f t="shared" si="1"/>
+        <v>2.02</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
+        <v>263904135.10722169</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
         <v>263.90413510722169</v>
       </c>
-      <c r="J24" s="5">
-        <f t="shared" si="5"/>
+      <c r="K24" s="5">
+        <f t="shared" si="2"/>
         <v>46.154135107221691</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.94046666666166701</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-248193042.262519</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>543.26640510304696</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>30498</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>2240333333.3333335</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
+        <f t="shared" si="3"/>
+        <v>224.03333333333336</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="1"/>
-        <v>224.03333333333336</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>397549830.49507684</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
+        <v>397549830.49507684</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
         <v>397.54983049507683</v>
       </c>
-      <c r="J25" s="5">
-        <f t="shared" si="5"/>
+      <c r="K25" s="5">
+        <f t="shared" si="2"/>
         <v>173.51649716174347</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.5386249999924999</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-611680107.94250596</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>429.77464486072699</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>30864</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>3615647477.054337</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
+        <f t="shared" si="3"/>
+        <v>361.56474770543372</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="1"/>
-        <v>361.56474770543372</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>374490143.13936448</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
+        <v>374490143.13936448</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
         <v>374.49014313936448</v>
       </c>
-      <c r="J26" s="5">
-        <f t="shared" si="5"/>
+      <c r="K26" s="5">
+        <f t="shared" si="2"/>
         <v>12.92539543393076</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3.5970249999949999</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-1347050407.1240001</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>293.63133617189402</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>31229</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>3519666338.5245414</v>
       </c>
-      <c r="C27" s="5">
-        <f t="shared" si="1"/>
+      <c r="D27" s="5">
+        <f t="shared" si="3"/>
         <v>351.96663385245415</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-4000000</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>568237409.27342141</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
+        <v>568237409.27342141</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
         <v>568.23740927342146</v>
       </c>
-      <c r="J27" s="5">
-        <f t="shared" si="5"/>
+      <c r="K27" s="5">
+        <f t="shared" si="2"/>
         <v>216.27077542096731</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>6.7202000000058302</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-3818669037.8025599</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>384.63216488538097</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>31594</v>
+      </c>
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>3923232122.1278396</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
+        <f t="shared" si="3"/>
+        <v>392.32321221278397</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="1"/>
-        <v>392.32321221278397</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>213191518.78</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
+        <v>213191518.78</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
         <v>213.19151878</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="5"/>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
         <v>-179.13169343278398</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>14</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-2984681262.9200001</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>401.52703667273499</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>31959</v>
+      </c>
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>6269511614.6623459</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
+        <f t="shared" si="3"/>
+        <v>626.95116146623457</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="1"/>
-        <v>626.95116146623457</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="2"/>
         <v>-626.95116146623457</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>42.841266666666698</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>511.28822370242102</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>32325</v>
+      </c>
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>6508931651.666667</v>
       </c>
-      <c r="C30" s="5">
-        <f t="shared" si="1"/>
+      <c r="D30" s="5">
+        <f t="shared" si="3"/>
         <v>650.89316516666668</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4700000</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.7</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="2"/>
         <v>-650.89316516666668</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>106.135833333333</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
       <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
         <v>470.09228354012299</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>32690</v>
+      </c>
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>5276480985.9993658</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="1"/>
+      <c r="D31" s="5">
+        <f t="shared" si="3"/>
         <v>527.64809859993659</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-1760000</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>1.76</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>1.76</v>
       </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.76</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="2"/>
         <v>-527.64809859993659</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>223.09160630809001</v>
       </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
       <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
         <v>384.99517293613701</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>33055</v>
+      </c>
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="C32" s="4">
         <v>4304398865.8826799</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="1"/>
+      <c r="D32" s="5">
+        <f t="shared" si="3"/>
         <v>430.439886588268</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-5910000</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
+      <c r="F32">
+        <f t="shared" si="0"/>
         <v>5.91</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f>E32</f>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>F32</f>
         <v>5.91</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="2"/>
         <v>-430.439886588268</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>428.85466666666701</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>244.39075838208399</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>33420</v>
+      </c>
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="C33" s="4">
         <v>3321729057.1221542</v>
       </c>
-      <c r="C33" s="5">
-        <f t="shared" si="1"/>
+      <c r="D33" s="5">
+        <f t="shared" si="3"/>
         <v>332.17290571221542</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1000000</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
+      <c r="F33">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000000</v>
       </c>
-      <c r="G33">
-        <f t="shared" ref="G33:G63" si="6">ABS(F33/1000000)</f>
+      <c r="H33">
+        <f t="shared" ref="G33:H63" si="6">ABS(G33/1000000)</f>
         <v>1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="2"/>
         <v>-332.17290571221542</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>734.00991666666698</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>179.474769912619</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33786</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="C34" s="4">
         <v>2857457860.0508757</v>
       </c>
-      <c r="C34" s="5">
-        <f t="shared" si="1"/>
+      <c r="D34" s="5">
+        <f t="shared" si="3"/>
         <v>285.74578600508755</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3000000</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
+      <c r="F34">
+        <f t="shared" ref="E34:F63" si="7">ABS(E34/1000000)</f>
         <v>3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>-3000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="3"/>
-        <v>214354821.6259113</v>
-      </c>
       <c r="I34">
         <f t="shared" si="4"/>
+        <v>214354821.6259113</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
         <v>214.35482162591128</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="5"/>
+      <c r="K34" s="5">
+        <f t="shared" ref="J34:K63" si="8">J34-D34</f>
         <v>-71.390964379176268</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1133.8343333333301</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-243042856275</v>
       </c>
-      <c r="M34" s="3">
+      <c r="N34" s="3">
         <v>120.252259985827</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34151</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="C35" s="4">
         <v>3220439044.1894865</v>
       </c>
-      <c r="C35" s="5">
-        <f t="shared" si="1"/>
+      <c r="D35" s="5">
+        <f t="shared" si="3"/>
         <v>322.04390441894867</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>54600000</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
+      <c r="F35">
+        <f t="shared" si="7"/>
         <v>54.6</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54600000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="6"/>
         <v>54.6</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="3"/>
-        <v>87422554.59751673</v>
-      </c>
       <c r="I35">
         <f t="shared" si="4"/>
+        <v>87422554.59751673</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
         <v>87.422554597516736</v>
       </c>
-      <c r="J35" s="5">
-        <f t="shared" si="5"/>
+      <c r="K35" s="5">
+        <f t="shared" si="8"/>
         <v>-234.62134982143192</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>1195.01675</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-104471417071.82201</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>118.786060581379</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34516</v>
+      </c>
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="C36" s="4">
         <v>3990430446.7121596</v>
       </c>
-      <c r="C36" s="5">
-        <f t="shared" si="1"/>
+      <c r="D36" s="5">
+        <f t="shared" si="3"/>
         <v>399.04304467121597</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>88200000</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
+      <c r="F36">
+        <f t="shared" si="7"/>
         <v>88.2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>-88200000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="6"/>
         <v>88.2</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="3"/>
-        <v>65293135.678460225</v>
-      </c>
       <c r="I36">
         <f t="shared" si="4"/>
+        <v>65293135.678460225</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
         <v>65.293135678460231</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="5"/>
+      <c r="K36" s="5">
+        <f t="shared" si="8"/>
         <v>-333.74990899275576</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>979.44541666666703</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>63951062480.062698</v>
       </c>
-      <c r="M36" s="3">
+      <c r="N36" s="3">
         <v>148.49891681729699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34881</v>
+      </c>
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="C37" s="4">
         <v>5755818947.4212494</v>
       </c>
-      <c r="C37" s="5">
-        <f t="shared" si="1"/>
+      <c r="D37" s="5">
+        <f t="shared" si="3"/>
         <v>575.58189474212497</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>121200000</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
+      <c r="F37">
+        <f t="shared" si="7"/>
         <v>121.2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>-121200000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="6"/>
         <v>121.2</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="3"/>
-        <v>182325003.39069813</v>
-      </c>
       <c r="I37">
         <f t="shared" si="4"/>
+        <v>182325003.39069813</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
         <v>182.32500339069813</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="5"/>
+      <c r="K37" s="5">
+        <f t="shared" si="8"/>
         <v>-393.25689135142682</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>968.91666666666697</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>176657734535.30399</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>145.151216117594</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>35247</v>
+      </c>
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="C38" s="4">
         <v>6044585326.9380007</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" si="1"/>
+      <c r="D38" s="5">
+        <f t="shared" si="3"/>
         <v>604.45853269380007</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>121000000</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
+      <c r="F38">
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>-121000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="3"/>
-        <v>241212971.86049601</v>
-      </c>
       <c r="I38">
         <f t="shared" si="4"/>
+        <v>241212971.86049601</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
         <v>241.21297186049603</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="5"/>
+      <c r="K38" s="5">
+        <f t="shared" si="8"/>
         <v>-363.24556083330401</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1046.08475</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>252329211365.444</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>145.534630500829</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>35612</v>
+      </c>
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="C39" s="4">
         <v>6269333313.1710835</v>
       </c>
-      <c r="C39" s="5">
-        <f t="shared" si="1"/>
+      <c r="D39" s="5">
+        <f t="shared" si="3"/>
         <v>626.93333131710835</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>175000000</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
+      <c r="F39">
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>-175000000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="6"/>
         <v>175</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="3"/>
-        <v>361624939.76521838</v>
-      </c>
       <c r="I39">
         <f t="shared" si="4"/>
+        <v>361624939.76521838</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
         <v>361.62493976521836</v>
       </c>
-      <c r="J39" s="5">
-        <f t="shared" si="5"/>
+      <c r="K39" s="5">
+        <f t="shared" si="8"/>
         <v>-265.30839155189</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1083.00866666667</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>391642943848.54401</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N39" s="3">
         <v>152.516808731092</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>35977</v>
+      </c>
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="C40" s="4">
         <v>6584815846.5275383</v>
       </c>
-      <c r="C40" s="5">
-        <f t="shared" si="1"/>
+      <c r="D40" s="5">
+        <f t="shared" si="3"/>
         <v>658.48158465275378</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>210000000</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
+      <c r="F40">
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>-210000000</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>527841472.59869701</v>
-      </c>
       <c r="I40">
         <f t="shared" si="4"/>
+        <v>527841472.59869701</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
         <v>527.84147259869701</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="5"/>
+      <c r="K40" s="5">
+        <f t="shared" si="8"/>
         <v>-130.64011205405677</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1240.3058333333299</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>654684857539.41895</v>
       </c>
-      <c r="M40" s="3">
+      <c r="N40" s="3">
         <v>135.617944882106</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>36342</v>
+      </c>
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="C41" s="4">
         <v>5998563257.9465895</v>
       </c>
-      <c r="C41" s="5">
-        <f t="shared" si="1"/>
+      <c r="D41" s="5">
+        <f t="shared" si="3"/>
         <v>599.85632579465891</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>140200000</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
+      <c r="F41">
+        <f t="shared" si="7"/>
         <v>140.19999999999999</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>-140200000</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="6"/>
         <v>140.19999999999999</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
-        <v>543142419.43915975</v>
-      </c>
       <c r="I41">
         <f t="shared" si="4"/>
+        <v>543142419.43915975</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
         <v>543.14241943915977</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="5"/>
+      <c r="K41" s="5">
+        <f t="shared" si="8"/>
         <v>-56.713906355499148</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1454.8271666666701</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>790178347169.15295</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>123.43242395845</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>36708</v>
+      </c>
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="C42" s="4">
         <v>6193246837.0968733</v>
       </c>
-      <c r="C42" s="5">
-        <f t="shared" si="1"/>
+      <c r="D42" s="5">
+        <f t="shared" si="3"/>
         <v>619.32468370968729</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>160700000</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
+      <c r="F42">
+        <f t="shared" si="7"/>
         <v>160.69999999999999</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>-160700000</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="6"/>
         <v>160.69999999999999</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>727673816.94210827</v>
-      </c>
       <c r="I42">
         <f t="shared" si="4"/>
+        <v>727673816.94210827</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
         <v>727.67381694210826</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="5"/>
+      <c r="K42" s="5">
+        <f t="shared" si="8"/>
         <v>108.34913323242097</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>1644.4753333333299</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1196641642673.8101</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>117.002584885845</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>37073</v>
+      </c>
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="C43" s="4">
         <v>5840503868.5724554</v>
       </c>
-      <c r="C43" s="5">
-        <f t="shared" si="1"/>
+      <c r="D43" s="5">
+        <f t="shared" si="3"/>
         <v>584.05038685724548</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>151496150.65192699</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
+      <c r="F43">
+        <f t="shared" si="7"/>
         <v>151.496150651927</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>-151496150.65192699</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="6"/>
         <v>151.496150651927</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>819997644.016276</v>
-      </c>
       <c r="I43">
         <f t="shared" si="4"/>
+        <v>819997644.016276</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
         <v>819.99764401627601</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="5"/>
+      <c r="K43" s="5">
+        <f t="shared" si="8"/>
         <v>235.94725715903053</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1755.6587500000001</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>1439636038696.5601</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>114.128259060837</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>37438</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C44" s="4">
         <v>6178563590.8925371</v>
       </c>
-      <c r="C44" s="5">
-        <f t="shared" si="1"/>
+      <c r="D44" s="5">
+        <f t="shared" si="3"/>
         <v>617.85635908925371</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>184648059.19749999</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
+      <c r="F44">
+        <f t="shared" si="7"/>
         <v>184.6480591975</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>-184648059.19749999</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="6"/>
         <v>184.6480591975</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>819026427.10593104</v>
-      </c>
       <c r="I44">
         <f t="shared" si="4"/>
+        <v>819026427.10593104</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
         <v>819.02642710593102</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="5"/>
+      <c r="K44" s="5">
+        <f t="shared" si="8"/>
         <v>201.17006801667731</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>1797.5505000000001</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1472241363557.48</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>109.21191184217101</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>37803</v>
+      </c>
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="C45" s="4">
         <v>6606884390.7801886</v>
       </c>
-      <c r="C45" s="5">
-        <f t="shared" si="1"/>
+      <c r="D45" s="5">
+        <f t="shared" si="3"/>
         <v>660.68843907801886</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>202192593.61849999</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
+      <c r="F45">
+        <f t="shared" si="7"/>
         <v>202.19259361849998</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>-202192593.61849999</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="6"/>
         <v>202.19259361849998</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>1129661811.2019482</v>
-      </c>
       <c r="I45">
         <f t="shared" si="4"/>
+        <v>1129661811.2019482</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
         <v>1129.6618112019482</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="5"/>
+      <c r="K45" s="5">
+        <f t="shared" si="8"/>
         <v>468.97337212392938</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>1963.72008333333</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2218339586031.9702</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>95.845581597459301</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>38169</v>
+      </c>
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="C46" s="4">
         <v>7939487473.8631821</v>
       </c>
-      <c r="C46" s="5">
-        <f t="shared" si="1"/>
+      <c r="D46" s="5">
+        <f t="shared" si="3"/>
         <v>793.94874738631825</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>295416479.80069202</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
+      <c r="F46">
+        <f t="shared" si="7"/>
         <v>295.416479800692</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>-295416479.80069202</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="6"/>
         <v>295.416479800692</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>1386659074.6619284</v>
-      </c>
       <c r="I46">
         <f t="shared" si="4"/>
+        <v>1386659074.6619284</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
         <v>1386.6590746619283</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="5"/>
+      <c r="K46" s="5">
+        <f t="shared" si="8"/>
         <v>592.7103272756101</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>1810.3047136515099</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2510275459088.1299</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99.447858634069306</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>38534</v>
+      </c>
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="C47" s="4">
         <v>9239221858.5583878</v>
       </c>
-      <c r="C47" s="5">
-        <f t="shared" si="1"/>
+      <c r="D47" s="5">
+        <f t="shared" si="3"/>
         <v>923.92218585583873</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>379808340.66706097</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
+      <c r="F47">
+        <f t="shared" si="7"/>
         <v>379.80834066706097</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>-379808340.66706097</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="6"/>
         <v>379.80834066706097</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="3"/>
-        <v>1504839808.1482399</v>
-      </c>
       <c r="I47">
         <f t="shared" si="4"/>
+        <v>1504839808.1482399</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
         <v>1504.8398081482399</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="5"/>
+      <c r="K47" s="5">
+        <f t="shared" si="8"/>
         <v>580.91762229240112</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1780.54026086523</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2679427864560.6499</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104.161592504748</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>38899</v>
+      </c>
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="C48" s="4">
         <v>9977647644.6995258</v>
       </c>
-      <c r="C48" s="5">
-        <f t="shared" si="1"/>
+      <c r="D48" s="5">
+        <f t="shared" si="3"/>
         <v>997.76476446995264</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>644262499.94651198</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
+      <c r="F48">
+        <f t="shared" si="7"/>
         <v>644.26249994651198</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>-644262499.94651198</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="6"/>
         <v>644.26249994651198</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>2066662555.945504</v>
-      </c>
       <c r="I48">
         <f t="shared" si="4"/>
+        <v>2066662555.945504</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
         <v>2066.6625559455038</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="5"/>
+      <c r="K48" s="5">
+        <f t="shared" si="8"/>
         <v>1068.897791475551</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1831.45185089088</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>3784992963253.27</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>104.377585567366</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>39264</v>
+      </c>
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="C49" s="4">
         <v>11902564401.323843</v>
       </c>
-      <c r="C49" s="5">
-        <f t="shared" si="1"/>
+      <c r="D49" s="5">
+        <f t="shared" si="3"/>
         <v>1190.2564401323843</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>792305780.89124405</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="2"/>
+      <c r="F49">
+        <f t="shared" si="7"/>
         <v>792.30578089124401</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>-792305780.89124405</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="6"/>
         <v>792.30578089124401</v>
       </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>2867678353.7252097</v>
-      </c>
       <c r="I49">
         <f t="shared" si="4"/>
+        <v>2867678353.7252097</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
         <v>2867.6783537252095</v>
       </c>
-      <c r="J49" s="5">
-        <f t="shared" si="5"/>
+      <c r="K49" s="5">
+        <f t="shared" si="8"/>
         <v>1677.4219135928251</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1723.49158714041</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>4942419517270.0596</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>107.96589537320899</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>39630</v>
+      </c>
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="C50" s="4">
         <v>14440404021.488146</v>
       </c>
-      <c r="C50" s="5">
-        <f t="shared" si="1"/>
+      <c r="D50" s="5">
+        <f t="shared" si="3"/>
         <v>1444.0404021488146</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>728860900.652408</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="2"/>
+      <c r="F50">
+        <f t="shared" si="7"/>
         <v>728.86090065240796</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>-728860900.652408</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="6"/>
         <v>728.86090065240796</v>
       </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
-        <v>2914601848.0916367</v>
-      </c>
       <c r="I50">
         <f t="shared" si="4"/>
+        <v>2914601848.0916367</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
         <v>2914.6018480916368</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="5"/>
+      <c r="K50" s="5">
+        <f t="shared" si="8"/>
         <v>1470.5614459428223</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1720.44387915111</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>5014408909711.7695</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="3">
         <v>111.311992506636</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>39995</v>
+      </c>
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="C51" s="4">
         <v>25127805566.451115</v>
       </c>
-      <c r="C51" s="5">
-        <f t="shared" si="1"/>
+      <c r="D51" s="5">
+        <f t="shared" si="3"/>
         <v>2512.7805566451116</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>841570802.74763596</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="2"/>
+      <c r="F51">
+        <f t="shared" si="7"/>
         <v>841.57080274763598</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>-812720321.69957602</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="6"/>
         <v>812.72032169957606</v>
       </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>2568892539.4217691</v>
-      </c>
       <c r="I51">
         <f t="shared" si="4"/>
+        <v>2568892539.4217691</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
         <v>2568.892539421769</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" si="5"/>
+      <c r="K51" s="5">
+        <f t="shared" si="8"/>
         <v>56.111982776657442</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2030.4880743341801</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>5216105665541.9502</v>
       </c>
-      <c r="M51" s="3">
+      <c r="N51" s="3">
         <v>108.319176300047</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>40360</v>
+      </c>
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="C52" s="4">
         <v>26673441667.281536</v>
       </c>
-      <c r="C52" s="5">
-        <f t="shared" si="1"/>
+      <c r="D52" s="5">
+        <f t="shared" si="3"/>
         <v>2667.3441667281536</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>543872727.27272797</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="2"/>
+      <c r="F52">
+        <f t="shared" si="7"/>
         <v>543.87272727272796</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>-506658423.45964003</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="6"/>
         <v>506.65842345964001</v>
       </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>2834047559.0769792</v>
-      </c>
       <c r="I52">
         <f t="shared" si="4"/>
+        <v>2834047559.0769792</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
         <v>2834.0475590769793</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" si="5"/>
+      <c r="K52" s="5">
+        <f t="shared" si="8"/>
         <v>166.70339234882567</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>2177.5575068335802</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>6171301536991.46</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>40725</v>
+      </c>
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="C53" s="4">
         <v>27871725205.571438</v>
       </c>
-      <c r="C53" s="5">
-        <f t="shared" si="1"/>
+      <c r="D53" s="5">
+        <f t="shared" si="3"/>
         <v>2787.1725205571438</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>894293858</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="2"/>
+      <c r="F53">
+        <f t="shared" si="7"/>
         <v>894.293858</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>-906140427.58727598</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="6"/>
         <v>906.14042758727601</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>2502160672.9999461</v>
-      </c>
       <c r="I53">
         <f t="shared" si="4"/>
+        <v>2502160672.9999461</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
         <v>2502.1606729999462</v>
       </c>
-      <c r="J53" s="5">
-        <f t="shared" si="5"/>
+      <c r="K53" s="5">
+        <f t="shared" si="8"/>
         <v>-285.0118475571976</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>2522.8020325226398</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>6312456031542.4805</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <v>93.066503735108299</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>41091</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="C54" s="4">
         <v>27305915761.291759</v>
       </c>
-      <c r="C54" s="5">
-        <f t="shared" si="1"/>
+      <c r="D54" s="5">
+        <f t="shared" si="3"/>
         <v>2730.5915761291758</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1205388487.79374</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="2"/>
+      <c r="F54">
+        <f t="shared" si="7"/>
         <v>1205.3884877937401</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>-1159051459.72053</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="6"/>
         <v>1159.0514597205299</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>3375618721.4940119</v>
-      </c>
       <c r="I54">
         <f t="shared" si="4"/>
+        <v>3375618721.4940119</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
         <v>3375.6187214940119</v>
       </c>
-      <c r="J54" s="5">
-        <f t="shared" si="5"/>
+      <c r="K54" s="5">
+        <f t="shared" si="8"/>
         <v>645.02714536483609</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>2504.5630775832801</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>8454450013852.7803</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103.581529116697</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>41456</v>
+      </c>
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="C55" s="4">
         <v>28915786996.551834</v>
       </c>
-      <c r="C55" s="5">
-        <f t="shared" si="1"/>
+      <c r="D55" s="5">
+        <f t="shared" si="3"/>
         <v>2891.5786996551833</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1096000000</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="2"/>
+      <c r="F55">
+        <f t="shared" si="7"/>
         <v>1096</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>-1051622922.49344</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="6"/>
         <v>1051.62292249344</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="3"/>
-        <v>3289665909.3899994</v>
-      </c>
       <c r="I55">
         <f t="shared" si="4"/>
+        <v>3289665909.3899994</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
         <v>3289.6659093899993</v>
       </c>
-      <c r="J55" s="5">
-        <f t="shared" si="5"/>
+      <c r="K55" s="5">
+        <f t="shared" si="8"/>
         <v>398.08720973481604</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2586.8895685656098</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8510002425066.8896</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <v>104.487341700489</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>41821</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="C56" s="4">
         <v>32612397758.45789</v>
       </c>
-      <c r="C56" s="5">
-        <f t="shared" si="1"/>
+      <c r="D56" s="5">
+        <f t="shared" si="3"/>
         <v>3261.2397758457892</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1058564540.34685</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
+      <c r="F56">
+        <f t="shared" si="7"/>
         <v>1058.56454034685</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>-1031546242.99492</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f t="shared" si="6"/>
         <v>1031.54624299492</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>3318165174.3066821</v>
-      </c>
       <c r="I56">
         <f t="shared" si="4"/>
+        <v>3318165174.3066821</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
         <v>3318.1651743066823</v>
       </c>
-      <c r="J56" s="5">
-        <f t="shared" si="5"/>
+      <c r="K56" s="5">
+        <f t="shared" si="8"/>
         <v>56.925398460893121</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2599.7882006106702</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>8626526667839.7598</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <v>106.106235195211</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>42186</v>
+      </c>
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="C57" s="4">
         <v>32387183844.669861</v>
       </c>
-      <c r="C57" s="5">
-        <f t="shared" si="1"/>
+      <c r="D57" s="5">
+        <f t="shared" si="3"/>
         <v>3238.7183844669862</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>737652140.15142798</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="2"/>
+      <c r="F57">
+        <f t="shared" si="7"/>
         <v>737.65214015142794</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>-737369521.05303395</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <f t="shared" si="6"/>
         <v>737.36952105303396</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>3164648658.7574968</v>
-      </c>
       <c r="I57">
         <f t="shared" si="4"/>
+        <v>3164648658.7574968</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
         <v>3164.6486587574968</v>
       </c>
-      <c r="J57" s="5">
-        <f t="shared" si="5"/>
+      <c r="K57" s="5">
+        <f t="shared" si="8"/>
         <v>-74.069725709489376</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>3240.64542033826</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>10255504182982.1</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100.98705396656</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>42552</v>
+      </c>
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="C58" s="4">
         <v>29203988814.897266</v>
       </c>
-      <c r="C58" s="5">
-        <f t="shared" si="1"/>
+      <c r="D58" s="5">
+        <f t="shared" si="3"/>
         <v>2920.3988814897266</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>625704361.86706805</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="2"/>
+      <c r="F58">
+        <f t="shared" si="7"/>
         <v>625.70436186706809</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>-625558964.16211998</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <f t="shared" si="6"/>
         <v>625.55896416211999</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>3542461759.9501257</v>
-      </c>
       <c r="I58">
         <f t="shared" si="4"/>
+        <v>3542461759.9501257</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
         <v>3542.4617599501257</v>
       </c>
-      <c r="J58" s="5">
-        <f t="shared" si="5"/>
+      <c r="K58" s="5">
+        <f t="shared" si="8"/>
         <v>622.06287846039913</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>3420.0980072473599</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>12115566405955.4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96.130690827214494</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>42917</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="C59" s="4">
         <v>30744473911.531208</v>
       </c>
-      <c r="C59" s="5">
-        <f t="shared" si="1"/>
+      <c r="D59" s="5">
+        <f t="shared" si="3"/>
         <v>3074.4473911531209</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>802704141.00856805</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="2"/>
+      <c r="F59">
+        <f t="shared" si="7"/>
         <v>802.70414100856806</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>-802400008.75549996</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <f t="shared" si="6"/>
         <v>802.40000875549993</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>3828487035.1917939</v>
-      </c>
       <c r="I59">
         <f t="shared" si="4"/>
+        <v>3828487035.1917939</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
         <v>3828.4870351917939</v>
       </c>
-      <c r="J59" s="5">
-        <f t="shared" si="5"/>
+      <c r="K59" s="5">
+        <f t="shared" si="8"/>
         <v>754.03964403867303</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>3611.2244580446099</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>13825526018791.301</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93.678152818193894</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43282</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="C60" s="4">
         <v>32927025573.429642</v>
       </c>
-      <c r="C60" s="5">
-        <f t="shared" si="1"/>
+      <c r="D60" s="5">
+        <f t="shared" si="3"/>
         <v>3292.7025573429642</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>1055353352.63033</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="2"/>
+      <c r="F60">
+        <f t="shared" si="7"/>
         <v>1055.3533526303299</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>-1055031706.52842</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <f t="shared" si="6"/>
         <v>1055.03170652842</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>3740268599.5106869</v>
-      </c>
       <c r="I60">
         <f t="shared" si="4"/>
+        <v>3740268599.5106869</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
         <v>3740.2685995106867</v>
       </c>
-      <c r="J60" s="5">
-        <f t="shared" si="5"/>
+      <c r="K60" s="5">
+        <f t="shared" si="8"/>
         <v>447.56604216772257</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>3727.0689948461199</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>13940239129632.801</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90.086175339845695</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>43647</v>
+      </c>
+      <c r="B61">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="C61" s="4">
         <v>35353060634.202171</v>
       </c>
-      <c r="C61" s="5">
-        <f t="shared" si="1"/>
+      <c r="D61" s="5">
+        <f t="shared" si="3"/>
         <v>3535.306063420217</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>1273885586.25086</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="2"/>
+      <c r="F61">
+        <f t="shared" si="7"/>
         <v>1273.8855862508599</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>-1273559949.03929</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="6"/>
         <v>1273.5599490392899</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>3800074888.9234867</v>
-      </c>
       <c r="I61">
         <f t="shared" si="4"/>
+        <v>3800074888.9234867</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
         <v>3800.0748889234869</v>
       </c>
-      <c r="J61" s="5">
-        <f t="shared" si="5"/>
+      <c r="K61" s="5">
+        <f t="shared" si="8"/>
         <v>264.76882550326991</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>3704.0490716968102</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>14075663864695.4</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>93.296236571518506</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>44013</v>
+      </c>
+      <c r="B62">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="C62" s="4">
         <v>37600368180.939949</v>
       </c>
-      <c r="C62" s="5">
-        <f t="shared" si="1"/>
+      <c r="D62" s="5">
+        <f t="shared" si="3"/>
         <v>3760.036818093995</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>873792834.55531704</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="2"/>
+      <c r="F62">
+        <f t="shared" si="7"/>
         <v>873.79283455531709</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>-873468225.23084199</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <f t="shared" si="6"/>
         <v>873.46822523084199</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>4304772252.1639128</v>
-      </c>
       <c r="I62">
         <f t="shared" si="4"/>
+        <v>4304772252.1639128</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
         <v>4304.7722521639125</v>
       </c>
-      <c r="J62" s="5">
-        <f t="shared" si="5"/>
+      <c r="K62" s="5">
+        <f t="shared" si="8"/>
         <v>544.73543406991757</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>3718.2489227092401</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>16006214789117.1</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>94.995621691551804</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4">
-        <v>40434701516.952782</v>
-      </c>
-      <c r="C63" s="5">
-        <f t="shared" si="1"/>
-        <v>4043.4701516952782</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="5">
-        <f t="shared" si="5"/>
-        <v>-4043.4701516952782</v>
-      </c>
-      <c r="K63">
-        <v>3587.0517073390802</v>
-      </c>
-      <c r="M63" s="3">
-        <v>97.135082345410297</v>
-      </c>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="M63" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A62">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" Financial Year">
+      <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11768,8 +11950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G62"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11785,25 +11967,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -13229,8 +13411,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A63">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13243,8 +13425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13260,25 +13442,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14728,8 +14910,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A62">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD7BFC8-B70F-4D46-BB65-12E29A6E9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A8D09-A11E-4587-AEF6-6A623B7FB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>GDP$millions</t>
+  </si>
+  <si>
+    <t>NFA$millions</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>Sheet2!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1850,192 +1856,192 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$62</c:f>
+              <c:f>Sheet2!$L$2:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>-42.30083857442348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-44.152410901467505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-44.901257861635223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-51.614779874213838</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-58.905660377358494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-88.487394957983184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-62.337635630468554</c:v>
+                  <c:v>30239395.181856364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-59.566751278643714</c:v>
+                  <c:v>37197954.603709228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-55.006727549518878</c:v>
+                  <c:v>48774785.055523135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-56.997354712814328</c:v>
+                  <c:v>59907407.191947557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-61.257605442055009</c:v>
+                  <c:v>64750797.919289529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-122.62218651284857</c:v>
+                  <c:v>19156524.97174526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-128.70141802759881</c:v>
+                  <c:v>20458245.837947395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-157.04574033071117</c:v>
+                  <c:v>13206360.509624986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-205.42956371259169</c:v>
+                  <c:v>4584701.622643698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-225.97333206044573</c:v>
+                  <c:v>9982223.4951098431</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-231.45913140663848</c:v>
+                  <c:v>13270868.593361517</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-272.99794832058399</c:v>
+                  <c:v>20649110.502945412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-208.34709112157037</c:v>
+                  <c:v>33678995.834951378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-196.61647884443153</c:v>
+                  <c:v>17286021.155568488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-37.324276848304081</c:v>
+                  <c:v>87136723.151695922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.58830259454444</c:v>
+                  <c:v>342318302.59454441</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.154135107221691</c:v>
+                  <c:v>263904135.10722169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>173.51649716174347</c:v>
+                  <c:v>397549830.49507684</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.92539543393076</c:v>
+                  <c:v>374490143.13936448</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>216.27077542096731</c:v>
+                  <c:v>568237409.27342141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-179.13169343278398</c:v>
+                  <c:v>213191518.78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-626.95116146623457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-650.89316516666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-527.64809859993659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-430.439886588268</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-332.17290571221542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-71.390964379176268</c:v>
+                  <c:v>214354821.6259113</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-234.62134982143192</c:v>
+                  <c:v>87422554.59751673</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-333.74990899275576</c:v>
+                  <c:v>65293135.678460225</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-393.25689135142682</c:v>
+                  <c:v>182325003.39069813</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-363.24556083330401</c:v>
+                  <c:v>241212971.86049601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-265.30839155189</c:v>
+                  <c:v>361624939.76521838</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-130.64011205405677</c:v>
+                  <c:v>527841472.59869701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-56.713906355499148</c:v>
+                  <c:v>543142419.43915975</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>108.34913323242097</c:v>
+                  <c:v>727673816.94210827</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>235.94725715903053</c:v>
+                  <c:v>819997644.016276</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>201.17006801667731</c:v>
+                  <c:v>819026427.10593104</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>468.97337212392938</c:v>
+                  <c:v>1129661811.2019482</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>592.7103272756101</c:v>
+                  <c:v>1386659074.6619284</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>580.91762229240112</c:v>
+                  <c:v>1504839808.1482399</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1068.897791475551</c:v>
+                  <c:v>2066662555.945504</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1677.4219135928251</c:v>
+                  <c:v>2867678353.7252097</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1470.5614459428223</c:v>
+                  <c:v>2914601848.0916367</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56.111982776657442</c:v>
+                  <c:v>2568892539.4217691</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>166.70339234882567</c:v>
+                  <c:v>2834047559.0769792</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-285.0118475571976</c:v>
+                  <c:v>2502160672.9999461</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>645.02714536483609</c:v>
+                  <c:v>3375618721.4940119</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>398.08720973481604</c:v>
+                  <c:v>3289665909.3899994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.925398460893121</c:v>
+                  <c:v>3318165174.3066821</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-74.069725709489376</c:v>
+                  <c:v>3164648658.7574968</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>622.06287846039913</c:v>
+                  <c:v>3542461759.9501257</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>754.03964403867303</c:v>
+                  <c:v>3828487035.1917939</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>447.56604216772257</c:v>
+                  <c:v>3740268599.5106869</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>264.76882550326991</c:v>
+                  <c:v>3800074888.9234867</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>544.73543406991757</c:v>
+                  <c:v>4304772252.1639128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2718,7 +2724,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>Sheet2!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2945,192 +2951,192 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$62</c:f>
+              <c:f>Sheet2!$L$2:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>-42.30083857442348</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-44.152410901467505</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-44.901257861635223</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-51.614779874213838</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-58.905660377358494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-88.487394957983184</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-62.337635630468554</c:v>
+                  <c:v>30239395.181856364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-59.566751278643714</c:v>
+                  <c:v>37197954.603709228</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-55.006727549518878</c:v>
+                  <c:v>48774785.055523135</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-56.997354712814328</c:v>
+                  <c:v>59907407.191947557</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-61.257605442055009</c:v>
+                  <c:v>64750797.919289529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-122.62218651284857</c:v>
+                  <c:v>19156524.97174526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-128.70141802759881</c:v>
+                  <c:v>20458245.837947395</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-157.04574033071117</c:v>
+                  <c:v>13206360.509624986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-205.42956371259169</c:v>
+                  <c:v>4584701.622643698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-225.97333206044573</c:v>
+                  <c:v>9982223.4951098431</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-231.45913140663848</c:v>
+                  <c:v>13270868.593361517</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-272.99794832058399</c:v>
+                  <c:v>20649110.502945412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-208.34709112157037</c:v>
+                  <c:v>33678995.834951378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-196.61647884443153</c:v>
+                  <c:v>17286021.155568488</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-37.324276848304081</c:v>
+                  <c:v>87136723.151695922</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>208.58830259454444</c:v>
+                  <c:v>342318302.59454441</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.154135107221691</c:v>
+                  <c:v>263904135.10722169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>173.51649716174347</c:v>
+                  <c:v>397549830.49507684</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.92539543393076</c:v>
+                  <c:v>374490143.13936448</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>216.27077542096731</c:v>
+                  <c:v>568237409.27342141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-179.13169343278398</c:v>
+                  <c:v>213191518.78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-626.95116146623457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-650.89316516666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-527.64809859993659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-430.439886588268</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-332.17290571221542</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-71.390964379176268</c:v>
+                  <c:v>214354821.6259113</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-234.62134982143192</c:v>
+                  <c:v>87422554.59751673</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-333.74990899275576</c:v>
+                  <c:v>65293135.678460225</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-393.25689135142682</c:v>
+                  <c:v>182325003.39069813</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-363.24556083330401</c:v>
+                  <c:v>241212971.86049601</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-265.30839155189</c:v>
+                  <c:v>361624939.76521838</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-130.64011205405677</c:v>
+                  <c:v>527841472.59869701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-56.713906355499148</c:v>
+                  <c:v>543142419.43915975</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>108.34913323242097</c:v>
+                  <c:v>727673816.94210827</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>235.94725715903053</c:v>
+                  <c:v>819997644.016276</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>201.17006801667731</c:v>
+                  <c:v>819026427.10593104</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>468.97337212392938</c:v>
+                  <c:v>1129661811.2019482</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>592.7103272756101</c:v>
+                  <c:v>1386659074.6619284</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>580.91762229240112</c:v>
+                  <c:v>1504839808.1482399</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1068.897791475551</c:v>
+                  <c:v>2066662555.945504</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1677.4219135928251</c:v>
+                  <c:v>2867678353.7252097</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1470.5614459428223</c:v>
+                  <c:v>2914601848.0916367</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>56.111982776657442</c:v>
+                  <c:v>2568892539.4217691</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>166.70339234882567</c:v>
+                  <c:v>2834047559.0769792</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-285.0118475571976</c:v>
+                  <c:v>2502160672.9999461</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>645.02714536483609</c:v>
+                  <c:v>3375618721.4940119</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>398.08720973481604</c:v>
+                  <c:v>3289665909.3899994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.925398460893121</c:v>
+                  <c:v>3318165174.3066821</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-74.069725709489376</c:v>
+                  <c:v>3164648658.7574968</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>622.06287846039913</c:v>
+                  <c:v>3542461759.9501257</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>754.03964403867303</c:v>
+                  <c:v>3828487035.1917939</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>447.56604216772257</c:v>
+                  <c:v>3740268599.5106869</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>264.76882550326991</c:v>
+                  <c:v>3800074888.9234867</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>544.73543406991757</c:v>
+                  <c:v>4304772252.1639128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3844,7 +3850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$N$1</c:f>
+              <c:f>Sheet2!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4071,7 +4077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$2:$N$62</c:f>
+              <c:f>Sheet2!$O$2:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4486,6 +4492,782 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7798425196850388E-2"/>
+          <c:y val="0.15294227555040751"/>
+          <c:w val="0.90208728908886393"/>
+          <c:h val="0.81653793885709414"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NFA$millions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40011263592050994"/>
+                  <c:y val="-0.10200787746906868"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 0.0325x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t> - 0.6805x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t> - 5.269x + 97.316</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0.95</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>91.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.316000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.021000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.224000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.239395181856363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.197954603709228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.774785055523132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.907407191947556</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.750797919289525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.156524971745259</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.458245837947395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.206360509624986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5847016226436983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9822234951098423</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.270868593361518</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.649110502945412</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.67899583495138</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.286021155568488</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.136723151695918</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>342.31830259454443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>263.90413510722169</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>397.54983049507683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>374.49014313936448</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>568.23740927342146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>213.19151878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.35482162591128</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.422554597516736</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65.293135678460231</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>182.32500339069813</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>241.21297186049603</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>361.62493976521836</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>527.84147259869701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>543.14241943915977</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>727.67381694210826</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>819.99764401627601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>819.02642710593102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1129.6618112019482</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1386.6590746619283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1504.8398081482399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2066.6625559455038</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2867.6783537252095</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2914.6018480916368</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2568.892539421769</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2834.0475590769793</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2502.1606729999462</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3375.6187214940119</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3289.6659093899993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3318.1651743066823</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3164.6486587574968</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3542.4617599501257</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3828.4870351917939</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3740.2685995106867</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3800.0748889234869</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4304.7722521639125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-935C-45FB-9BC9-FC4875369852}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="669294655"/>
+        <c:axId val="669301727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="669294655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669301727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="669301727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669294655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4607,6 +5389,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6710,6 +7532,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6756,7 +8094,7 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -6792,7 +8130,7 @@
       <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
@@ -6822,13 +8160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -6851,6 +8189,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9E568B-9E8B-696B-3154-650F1EF0BAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8813,10 +10187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8508772-BEF4-4C79-A19E-591393B8EA5B}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8828,12 +10202,12 @@
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
@@ -8865,19 +10239,22 @@
         <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>22098</v>
       </c>
@@ -8906,28 +10283,38 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>ABS(M2/L2)</f>
+        <f>ABS(N2/M2)</f>
         <v>0</v>
       </c>
       <c r="J2">
         <f>I2/1000000</f>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:K33" si="2">J2-D2</f>
-        <v>-42.30083857442348</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
+        <v>91.399000000000001</v>
+      </c>
+      <c r="L2" s="5">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>0.0325*B2^3 - 0.6805*B2^2 - 5.269*B2 + 97.316</f>
+        <v>91.399000000000001</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>22463</v>
       </c>
@@ -8938,7 +10325,7 @@
         <v>441524109.01467508</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="C3:D63" si="3">C3/10000000</f>
+        <f t="shared" ref="D3:D62" si="2">C3/10000000</f>
         <v>44.152410901467505</v>
       </c>
       <c r="E3">
@@ -8956,28 +10343,35 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="H3:I63" si="4">ABS(M3/L3)</f>
+        <f t="shared" ref="I3:I62" si="3">ABS(N3/M3)</f>
         <v>0</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="I3:J63" si="5">I3/1000000</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" si="2"/>
-        <v>-44.152410901467505</v>
-      </c>
-      <c r="L3">
+        <f t="shared" ref="J3:J62" si="4">I3/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>84.316000000000003</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L62" si="5">I3</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="6">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
+        <v>84.316000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>22828</v>
       </c>
@@ -8988,7 +10382,7 @@
         <v>449012578.6163522</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44.901257861635223</v>
       </c>
       <c r="E4">
@@ -9006,28 +10400,35 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>76.262</v>
+      </c>
+      <c r="L4" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="2"/>
-        <v>-44.901257861635223</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>76.262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>23193</v>
       </c>
@@ -9038,7 +10439,7 @@
         <v>516147798.74213839</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>51.614779874213838</v>
       </c>
       <c r="E5">
@@ -9056,28 +10457,35 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>67.432000000000002</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="2"/>
-        <v>-51.614779874213838</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>67.432000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>23559</v>
       </c>
@@ -9088,7 +10496,7 @@
         <v>589056603.77358496</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>58.905660377358494</v>
       </c>
       <c r="E6">
@@ -9106,28 +10514,35 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>58.021000000000001</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>-58.905660377358494</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>58.021000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23924</v>
       </c>
@@ -9138,7 +10553,7 @@
         <v>884873949.57983184</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>88.487394957983184</v>
       </c>
       <c r="E7">
@@ -9156,28 +10571,35 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <v>48.224000000000004</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="2"/>
-        <v>-88.487394957983184</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>48.224000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>24289</v>
       </c>
@@ -9188,7 +10610,7 @@
         <v>925770308.12324917</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>92.577030812324921</v>
       </c>
       <c r="E8">
@@ -9206,28 +10628,32 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" si="3"/>
+        <v>30239395.181856364</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="4"/>
+        <v>30.239395181856363</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K3:K62" si="7">L8/1000000</f>
+        <v>30.239395181856363</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="5"/>
         <v>30239395.181856364</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>30.239395181856363</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="2"/>
-        <v>-62.337635630468554</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2160000</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>24654</v>
       </c>
@@ -9238,7 +10664,7 @@
         <v>967647058.82352936</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>96.764705882352942</v>
       </c>
       <c r="E9">
@@ -9256,28 +10682,32 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="3"/>
+        <v>37197954.603709228</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="4"/>
+        <v>37.197954603709228</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>37.197954603709228</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
         <v>37197954.603709228</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>37.197954603709228</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="2"/>
-        <v>-59.566751278643714</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2657049.9</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>25020</v>
       </c>
@@ -9288,7 +10718,7 @@
         <v>1037815126.05042</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>103.78151260504201</v>
       </c>
       <c r="E10">
@@ -9306,28 +10736,32 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <f t="shared" si="3"/>
+        <v>48774785.055523135</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="4"/>
+        <v>48.774785055523132</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>48.774785055523132</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="5"/>
         <v>48774785.055523135</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>48.774785055523132</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="2"/>
-        <v>-55.006727549518878</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3483982.9</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>25385</v>
       </c>
@@ -9338,7 +10772,7 @@
         <v>1169047619.0476189</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>116.90476190476188</v>
       </c>
       <c r="E11">
@@ -9356,28 +10790,32 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <f t="shared" si="3"/>
+        <v>59907407.191947557</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="4"/>
+        <v>59.907407191947556</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>59.907407191947556</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="5"/>
         <v>59907407.191947557</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>59.907407191947556</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="2"/>
-        <v>-56.997354712814328</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4279186.0999999996</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>25750</v>
       </c>
@@ -9388,7 +10826,7 @@
         <v>1260084033.6134453</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>126.00840336134453</v>
       </c>
       <c r="E12">
@@ -9406,28 +10844,32 @@
         <v>4.2</v>
       </c>
       <c r="I12">
+        <f t="shared" si="3"/>
+        <v>64750797.919289529</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
+        <v>64.750797919289525</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>64.750797919289525</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="5"/>
         <v>64750797.919289529</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>64.750797919289525</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>-61.257605442055009</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
         <v>7.1430000071429994E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4625149.5</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>26115</v>
       </c>
@@ -9438,7 +10880,7 @@
         <v>1417787114.8459382</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>141.77871148459383</v>
       </c>
       <c r="E13">
@@ -9456,28 +10898,32 @@
         <v>1.2</v>
       </c>
       <c r="I13">
+        <f t="shared" si="3"/>
+        <v>19156524.97174526</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="4"/>
+        <v>19.156524971745259</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>19.156524971745259</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="5"/>
         <v>19156524.97174526</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>19.156524971745259</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="2"/>
-        <v>-122.62218651284857</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
         <v>7.1429995890081102E-2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1368350.5</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>26481</v>
       </c>
@@ -9488,7 +10934,7 @@
         <v>1491596638.655462</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>149.15966386554621</v>
       </c>
       <c r="E14">
@@ -9506,28 +10952,32 @@
         <v>11.9</v>
       </c>
       <c r="I14">
+        <f t="shared" si="3"/>
+        <v>20458245.837947395</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
+        <v>20.458245837947395</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>20.458245837947395</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="5"/>
         <v>20458245.837947395</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="5"/>
-        <v>20.458245837947395</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="2"/>
-        <v>-128.70141802759881</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
         <v>7.1429999990000007E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1461332.5</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>26846</v>
       </c>
@@ -9538,7 +10988,7 @@
         <v>1702521008.4033613</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170.25210084033614</v>
       </c>
       <c r="E15">
@@ -9556,28 +11006,32 @@
         <v>5.2</v>
       </c>
       <c r="I15">
+        <f t="shared" si="3"/>
+        <v>13206360.509624986</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="4"/>
+        <v>13.206360509624986</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>13.206360509624986</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="5"/>
         <v>13206360.509624986</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="5"/>
-        <v>13.206360509624986</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="2"/>
-        <v>-157.04574033071117</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
         <v>7.0214499989999998E-2</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>927277.99987099995</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>27211</v>
       </c>
@@ -9588,7 +11042,7 @@
         <v>2100142653.3523538</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210.01426533523539</v>
       </c>
       <c r="E16">
@@ -9606,28 +11060,32 @@
         <v>1.7</v>
       </c>
       <c r="I16">
+        <f t="shared" si="3"/>
+        <v>4584701.622643698</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
+        <v>4.5847016226436983</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>4.5847016226436983</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="5"/>
         <v>4584701.622643698</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
-        <v>4.5847016226436983</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="2"/>
-        <v>-205.42956371259169</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
         <v>7.1359499990000005E-2</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-327162.01539519598</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>27576</v>
       </c>
@@ -9638,7 +11096,7 @@
         <v>2359555555.5555558</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>235.95555555555558</v>
       </c>
       <c r="E17">
@@ -9656,28 +11114,32 @@
         <v>2.1</v>
       </c>
       <c r="I17">
+        <f t="shared" si="3"/>
+        <v>9982223.4951098431</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="4"/>
+        <v>9.9822234951098423</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>9.9822234951098423</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
         <v>9982223.4951098431</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="5"/>
-        <v>9.9822234951098423</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="2"/>
-        <v>-225.97333206044573</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
         <v>7.421924999E-2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>740873.14103960898</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>27942</v>
       </c>
@@ -9688,7 +11150,7 @@
         <v>2447300000</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>244.73</v>
       </c>
       <c r="E18">
@@ -9706,28 +11168,32 @@
         <v>2.0499999</v>
       </c>
       <c r="I18">
+        <f t="shared" si="3"/>
+        <v>13270868.593361517</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="4"/>
+        <v>13.270868593361518</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>13.270868593361518</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="5"/>
         <v>13270868.593361517</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="5"/>
-        <v>13.270868593361518</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="2"/>
-        <v>-231.45913140663848</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
         <v>8.2661666662499994E-2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1096992.1159862899</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>28307</v>
       </c>
@@ -9738,7 +11204,7 @@
         <v>2936470588.2352939</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>293.64705882352939</v>
       </c>
       <c r="E19">
@@ -9756,28 +11222,32 @@
         <v>0.8</v>
       </c>
       <c r="I19">
+        <f t="shared" si="3"/>
+        <v>20649110.502945412</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="4"/>
+        <v>20.649110502945412</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>20.649110502945412</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="5"/>
         <v>20649110.502945412</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="5"/>
-        <v>20.649110502945412</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="2"/>
-        <v>-272.99794832058399</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
         <v>8.2589999993333302E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1705410.0363006</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>28672</v>
       </c>
@@ -9788,7 +11258,7 @@
         <v>2420260869.5652175</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>242.02608695652174</v>
       </c>
       <c r="E20">
@@ -9806,28 +11276,32 @@
         <v>1.97</v>
       </c>
       <c r="I20">
+        <f t="shared" si="3"/>
+        <v>33678995.834951378</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="4"/>
+        <v>33.67899583495138</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>33.67899583495138</v>
+      </c>
+      <c r="L20" s="5">
+        <f t="shared" si="5"/>
         <v>33678995.834951378</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="5"/>
-        <v>33.67899583495138</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="2"/>
-        <v>-208.34709112157037</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
         <v>7.7356666656666698E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2605294.8541355999</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>29037</v>
       </c>
@@ -9838,7 +11312,7 @@
         <v>2139025000</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>213.9025</v>
       </c>
       <c r="E21">
@@ -9856,28 +11330,32 @@
         <v>2</v>
       </c>
       <c r="I21">
+        <f t="shared" si="3"/>
+        <v>17286021.155568488</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="4"/>
+        <v>17.286021155568488</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>17.286021155568488</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="5"/>
         <v>17286021.155568488</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="5"/>
-        <v>17.286021155568488</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="2"/>
-        <v>-196.61647884443153</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
         <v>7.4828333323333301E-2</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-1293484.1528630699</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>29403</v>
       </c>
@@ -9888,7 +11366,7 @@
         <v>1244610000</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>124.461</v>
       </c>
       <c r="E22">
@@ -9906,28 +11384,32 @@
         <v>4</v>
       </c>
       <c r="I22">
+        <f t="shared" si="3"/>
+        <v>87136723.151695922</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="4"/>
+        <v>87.136723151695918</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>87.136723151695918</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="5"/>
         <v>87136723.151695922</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="5"/>
-        <v>87.136723151695918</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="2"/>
-        <v>-37.324276848304081</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
         <v>7.4169999989999999E-2</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-6462930.7552899197</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>29768</v>
       </c>
@@ -9938,7 +11420,7 @@
         <v>1337300000</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>133.72999999999999</v>
       </c>
       <c r="E23">
@@ -9956,28 +11438,32 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <f t="shared" si="3"/>
+        <v>342318302.59454441</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
+        <v>342.31830259454443</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>342.31830259454443</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
         <v>342318302.59454441</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="5"/>
-        <v>342.31830259454443</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="2"/>
-        <v>208.58830259454444</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.50052333332666699</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-171338297.873348</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1565.2162708415501</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>30133</v>
       </c>
@@ -9988,7 +11474,7 @@
         <v>2177500000</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>217.75</v>
       </c>
       <c r="E24">
@@ -10006,28 +11492,32 @@
         <v>2.02</v>
       </c>
       <c r="I24">
+        <f t="shared" si="3"/>
+        <v>263904135.10722169</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
+        <v>263.90413510722169</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>263.90413510722169</v>
+      </c>
+      <c r="L24" s="5">
+        <f t="shared" si="5"/>
         <v>263904135.10722169</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
-        <v>263.90413510722169</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="2"/>
-        <v>46.154135107221691</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.94046666666166701</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-248193042.262519</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>543.26640510304696</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>30498</v>
       </c>
@@ -10038,7 +11528,7 @@
         <v>2240333333.3333335</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>224.03333333333336</v>
       </c>
       <c r="E25">
@@ -10056,28 +11546,32 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <f t="shared" si="3"/>
+        <v>397549830.49507684</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
+        <v>397.54983049507683</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>397.54983049507683</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="5"/>
         <v>397549830.49507684</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="5"/>
-        <v>397.54983049507683</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="2"/>
-        <v>173.51649716174347</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.5386249999924999</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-611680107.94250596</v>
       </c>
-      <c r="N25" s="3">
+      <c r="O25" s="3">
         <v>429.77464486072699</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>30864</v>
       </c>
@@ -10088,7 +11582,7 @@
         <v>3615647477.054337</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>361.56474770543372</v>
       </c>
       <c r="E26">
@@ -10106,28 +11600,32 @@
         <v>0</v>
       </c>
       <c r="I26">
+        <f t="shared" si="3"/>
+        <v>374490143.13936448</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="4"/>
+        <v>374.49014313936448</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>374.49014313936448</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="5"/>
         <v>374490143.13936448</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="5"/>
-        <v>374.49014313936448</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="2"/>
-        <v>12.92539543393076</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
         <v>3.5970249999949999</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-1347050407.1240001</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>293.63133617189402</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31229</v>
       </c>
@@ -10138,7 +11636,7 @@
         <v>3519666338.5245414</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>351.96663385245415</v>
       </c>
       <c r="E27">
@@ -10156,28 +11654,32 @@
         <v>4</v>
       </c>
       <c r="I27">
+        <f t="shared" si="3"/>
+        <v>568237409.27342141</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="4"/>
+        <v>568.23740927342146</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>568.23740927342146</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="5"/>
         <v>568237409.27342141</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>568.23740927342146</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="2"/>
-        <v>216.27077542096731</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
         <v>6.7202000000058302</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-3818669037.8025599</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>384.63216488538097</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>31594</v>
       </c>
@@ -10188,7 +11690,7 @@
         <v>3923232122.1278396</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>392.32321221278397</v>
       </c>
       <c r="E28">
@@ -10206,28 +11708,32 @@
         <v>0</v>
       </c>
       <c r="I28">
+        <f t="shared" si="3"/>
+        <v>213191518.78</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="4"/>
+        <v>213.19151878</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>213.19151878</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="5"/>
         <v>213191518.78</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>213.19151878</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="2"/>
-        <v>-179.13169343278398</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
         <v>14</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-2984681262.9200001</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>401.52703667273499</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>31959</v>
       </c>
@@ -10238,7 +11744,7 @@
         <v>6269511614.6623459</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>626.95116146623457</v>
       </c>
       <c r="E29">
@@ -10256,28 +11762,32 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" si="2"/>
-        <v>-626.95116146623457</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
         <v>42.841266666666698</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>511.28822370242102</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>32325</v>
       </c>
@@ -10288,7 +11798,7 @@
         <v>6508931651.666667</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>650.89316516666668</v>
       </c>
       <c r="E30">
@@ -10306,28 +11816,32 @@
         <v>4.7</v>
       </c>
       <c r="I30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="2"/>
-        <v>-650.89316516666668</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
         <v>106.135833333333</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
       <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
         <v>470.09228354012299</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>32690</v>
       </c>
@@ -10338,7 +11852,7 @@
         <v>5276480985.9993658</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>527.64809859993659</v>
       </c>
       <c r="E31">
@@ -10356,28 +11870,32 @@
         <v>1.76</v>
       </c>
       <c r="I31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" si="2"/>
-        <v>-527.64809859993659</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
         <v>223.09160630809001</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
       <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
         <v>384.99517293613701</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>33055</v>
       </c>
@@ -10388,7 +11906,7 @@
         <v>4304398865.8826799</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>430.439886588268</v>
       </c>
       <c r="E32">
@@ -10406,28 +11924,32 @@
         <v>5.91</v>
       </c>
       <c r="I32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32">
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K32" s="5">
-        <f t="shared" si="2"/>
-        <v>-430.439886588268</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
         <v>428.85466666666701</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>244.39075838208399</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>33420</v>
       </c>
@@ -10438,7 +11960,7 @@
         <v>3321729057.1221542</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>332.17290571221542</v>
       </c>
       <c r="E33">
@@ -10452,32 +11974,36 @@
         <v>-1000000</v>
       </c>
       <c r="H33">
-        <f t="shared" ref="G33:H63" si="6">ABS(G33/1000000)</f>
+        <f t="shared" ref="H33:H62" si="8">ABS(G33/1000000)</f>
         <v>1</v>
       </c>
       <c r="I33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J33">
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="2"/>
-        <v>-332.17290571221542</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
         <v>734.00991666666698</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>179.474769912619</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33786</v>
       </c>
@@ -10488,46 +12014,50 @@
         <v>2857457860.0508757</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>285.74578600508755</v>
       </c>
       <c r="E34">
         <v>3000000</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="E34:F63" si="7">ABS(E34/1000000)</f>
+        <f t="shared" ref="F34:F62" si="9">ABS(E34/1000000)</f>
         <v>3</v>
       </c>
       <c r="G34" s="3">
         <v>-3000000</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I34">
+        <f t="shared" si="3"/>
+        <v>214354821.6259113</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="4"/>
+        <v>214.35482162591128</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>214.35482162591128</v>
+      </c>
+      <c r="L34" s="5">
+        <f t="shared" si="5"/>
         <v>214354821.6259113</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>214.35482162591128</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" ref="J34:K63" si="8">J34-D34</f>
-        <v>-71.390964379176268</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
         <v>1133.8343333333301</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-243042856275</v>
       </c>
-      <c r="N34" s="3">
+      <c r="O34" s="3">
         <v>120.252259985827</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34151</v>
       </c>
@@ -10538,46 +12068,50 @@
         <v>3220439044.1894865</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>322.04390441894867</v>
       </c>
       <c r="E35">
         <v>54600000</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54.6</v>
       </c>
       <c r="G35" s="3">
         <v>-54600000</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54.6</v>
       </c>
       <c r="I35">
+        <f t="shared" si="3"/>
+        <v>87422554.59751673</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="4"/>
+        <v>87.422554597516736</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>87.422554597516736</v>
+      </c>
+      <c r="L35" s="5">
+        <f t="shared" si="5"/>
         <v>87422554.59751673</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
-        <v>87.422554597516736</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="8"/>
-        <v>-234.62134982143192</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
         <v>1195.01675</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-104471417071.82201</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>118.786060581379</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34516</v>
       </c>
@@ -10588,46 +12122,50 @@
         <v>3990430446.7121596</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>399.04304467121597</v>
       </c>
       <c r="E36">
         <v>88200000</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88.2</v>
       </c>
       <c r="G36" s="3">
         <v>-88200000</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88.2</v>
       </c>
       <c r="I36">
+        <f t="shared" si="3"/>
+        <v>65293135.678460225</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="4"/>
+        <v>65.293135678460231</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>65.293135678460231</v>
+      </c>
+      <c r="L36" s="5">
+        <f t="shared" si="5"/>
         <v>65293135.678460225</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>65.293135678460231</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="8"/>
-        <v>-333.74990899275576</v>
-      </c>
-      <c r="L36">
+      <c r="M36">
         <v>979.44541666666703</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>63951062480.062698</v>
       </c>
-      <c r="N36" s="3">
+      <c r="O36" s="3">
         <v>148.49891681729699</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34881</v>
       </c>
@@ -10638,46 +12176,50 @@
         <v>5755818947.4212494</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>575.58189474212497</v>
       </c>
       <c r="E37">
         <v>121200000</v>
       </c>
       <c r="F37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121.2</v>
       </c>
       <c r="G37" s="3">
         <v>-121200000</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121.2</v>
       </c>
       <c r="I37">
+        <f t="shared" si="3"/>
+        <v>182325003.39069813</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="4"/>
+        <v>182.32500339069813</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>182.32500339069813</v>
+      </c>
+      <c r="L37" s="5">
+        <f t="shared" si="5"/>
         <v>182325003.39069813</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
-        <v>182.32500339069813</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="8"/>
-        <v>-393.25689135142682</v>
-      </c>
-      <c r="L37">
+      <c r="M37">
         <v>968.91666666666697</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>176657734535.30399</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>145.151216117594</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35247</v>
       </c>
@@ -10688,46 +12230,50 @@
         <v>6044585326.9380007</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>604.45853269380007</v>
       </c>
       <c r="E38">
         <v>121000000</v>
       </c>
       <c r="F38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="G38" s="3">
         <v>-121000000</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>121</v>
       </c>
       <c r="I38">
+        <f t="shared" si="3"/>
+        <v>241212971.86049601</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="4"/>
+        <v>241.21297186049603</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>241.21297186049603</v>
+      </c>
+      <c r="L38" s="5">
+        <f t="shared" si="5"/>
         <v>241212971.86049601</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>241.21297186049603</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="8"/>
-        <v>-363.24556083330401</v>
-      </c>
-      <c r="L38">
+      <c r="M38">
         <v>1046.08475</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>252329211365.444</v>
       </c>
-      <c r="N38" s="3">
+      <c r="O38" s="3">
         <v>145.534630500829</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35612</v>
       </c>
@@ -10738,46 +12284,50 @@
         <v>6269333313.1710835</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>626.93333131710835</v>
       </c>
       <c r="E39">
         <v>175000000</v>
       </c>
       <c r="F39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
       <c r="G39" s="3">
         <v>-175000000</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>175</v>
       </c>
       <c r="I39">
+        <f t="shared" si="3"/>
+        <v>361624939.76521838</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
+        <v>361.62493976521836</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>361.62493976521836</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" si="5"/>
         <v>361624939.76521838</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>361.62493976521836</v>
-      </c>
-      <c r="K39" s="5">
-        <f t="shared" si="8"/>
-        <v>-265.30839155189</v>
-      </c>
-      <c r="L39">
+      <c r="M39">
         <v>1083.00866666667</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>391642943848.54401</v>
       </c>
-      <c r="N39" s="3">
+      <c r="O39" s="3">
         <v>152.516808731092</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>35977</v>
       </c>
@@ -10788,46 +12338,50 @@
         <v>6584815846.5275383</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>658.48158465275378</v>
       </c>
       <c r="E40">
         <v>210000000</v>
       </c>
       <c r="F40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>210</v>
       </c>
       <c r="G40" s="3">
         <v>-210000000</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="I40">
+        <f t="shared" si="3"/>
+        <v>527841472.59869701</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="4"/>
+        <v>527.84147259869701</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>527.84147259869701</v>
+      </c>
+      <c r="L40" s="5">
+        <f t="shared" si="5"/>
         <v>527841472.59869701</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>527.84147259869701</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="8"/>
-        <v>-130.64011205405677</v>
-      </c>
-      <c r="L40">
+      <c r="M40">
         <v>1240.3058333333299</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>654684857539.41895</v>
       </c>
-      <c r="N40" s="3">
+      <c r="O40" s="3">
         <v>135.617944882106</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>36342</v>
       </c>
@@ -10838,46 +12392,50 @@
         <v>5998563257.9465895</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>599.85632579465891</v>
       </c>
       <c r="E41">
         <v>140200000</v>
       </c>
       <c r="F41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>140.19999999999999</v>
       </c>
       <c r="G41" s="3">
         <v>-140200000</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>140.19999999999999</v>
       </c>
       <c r="I41">
+        <f t="shared" si="3"/>
+        <v>543142419.43915975</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="4"/>
+        <v>543.14241943915977</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>543.14241943915977</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="5"/>
         <v>543142419.43915975</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>543.14241943915977</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="8"/>
-        <v>-56.713906355499148</v>
-      </c>
-      <c r="L41">
+      <c r="M41">
         <v>1454.8271666666701</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>790178347169.15295</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123.43242395845</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>36708</v>
       </c>
@@ -10888,46 +12446,50 @@
         <v>6193246837.0968733</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>619.32468370968729</v>
       </c>
       <c r="E42">
         <v>160700000</v>
       </c>
       <c r="F42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>160.69999999999999</v>
       </c>
       <c r="G42" s="3">
         <v>-160700000</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>160.69999999999999</v>
       </c>
       <c r="I42">
+        <f t="shared" si="3"/>
+        <v>727673816.94210827</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="4"/>
+        <v>727.67381694210826</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>727.67381694210826</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="5"/>
         <v>727673816.94210827</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>727.67381694210826</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="8"/>
-        <v>108.34913323242097</v>
-      </c>
-      <c r="L42">
+      <c r="M42">
         <v>1644.4753333333299</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>1196641642673.8101</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>117.002584885845</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>37073</v>
       </c>
@@ -10938,46 +12500,50 @@
         <v>5840503868.5724554</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>584.05038685724548</v>
       </c>
       <c r="E43">
         <v>151496150.65192699</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>151.496150651927</v>
       </c>
       <c r="G43" s="3">
         <v>-151496150.65192699</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>151.496150651927</v>
       </c>
       <c r="I43">
+        <f t="shared" si="3"/>
+        <v>819997644.016276</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
+        <v>819.99764401627601</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>819.99764401627601</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="5"/>
         <v>819997644.016276</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="5"/>
-        <v>819.99764401627601</v>
-      </c>
-      <c r="K43" s="5">
-        <f t="shared" si="8"/>
-        <v>235.94725715903053</v>
-      </c>
-      <c r="L43">
+      <c r="M43">
         <v>1755.6587500000001</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>1439636038696.5601</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>114.128259060837</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37438</v>
       </c>
@@ -10988,46 +12554,50 @@
         <v>6178563590.8925371</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>617.85635908925371</v>
       </c>
       <c r="E44">
         <v>184648059.19749999</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>184.6480591975</v>
       </c>
       <c r="G44" s="3">
         <v>-184648059.19749999</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>184.6480591975</v>
       </c>
       <c r="I44">
+        <f t="shared" si="3"/>
+        <v>819026427.10593104</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
+        <v>819.02642710593102</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>819.02642710593102</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="5"/>
         <v>819026427.10593104</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="5"/>
-        <v>819.02642710593102</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="8"/>
-        <v>201.17006801667731</v>
-      </c>
-      <c r="L44">
+      <c r="M44">
         <v>1797.5505000000001</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>1472241363557.48</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>109.21191184217101</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>37803</v>
       </c>
@@ -11038,46 +12608,50 @@
         <v>6606884390.7801886</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>660.68843907801886</v>
       </c>
       <c r="E45">
         <v>202192593.61849999</v>
       </c>
       <c r="F45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>202.19259361849998</v>
       </c>
       <c r="G45" s="3">
         <v>-202192593.61849999</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>202.19259361849998</v>
       </c>
       <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1129661811.2019482</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
+        <v>1129.6618112019482</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>1129.6618112019482</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="5"/>
         <v>1129661811.2019482</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
-        <v>1129.6618112019482</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="8"/>
-        <v>468.97337212392938</v>
-      </c>
-      <c r="L45">
+      <c r="M45">
         <v>1963.72008333333</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>2218339586031.9702</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>95.845581597459301</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>38169</v>
       </c>
@@ -11088,46 +12662,50 @@
         <v>7939487473.8631821</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>793.94874738631825</v>
       </c>
       <c r="E46">
         <v>295416479.80069202</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>295.416479800692</v>
       </c>
       <c r="G46" s="3">
         <v>-295416479.80069202</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>295.416479800692</v>
       </c>
       <c r="I46">
+        <f t="shared" si="3"/>
+        <v>1386659074.6619284</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="4"/>
+        <v>1386.6590746619283</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>1386.6590746619283</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="5"/>
         <v>1386659074.6619284</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="5"/>
-        <v>1386.6590746619283</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="8"/>
-        <v>592.7103272756101</v>
-      </c>
-      <c r="L46">
+      <c r="M46">
         <v>1810.3047136515099</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2510275459088.1299</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99.447858634069306</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>38534</v>
       </c>
@@ -11138,46 +12716,50 @@
         <v>9239221858.5583878</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>923.92218585583873</v>
       </c>
       <c r="E47">
         <v>379808340.66706097</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>379.80834066706097</v>
       </c>
       <c r="G47" s="3">
         <v>-379808340.66706097</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>379.80834066706097</v>
       </c>
       <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1504839808.1482399</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="4"/>
+        <v>1504.8398081482399</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>1504.8398081482399</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="5"/>
         <v>1504839808.1482399</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>1504.8398081482399</v>
-      </c>
-      <c r="K47" s="5">
-        <f t="shared" si="8"/>
-        <v>580.91762229240112</v>
-      </c>
-      <c r="L47">
+      <c r="M47">
         <v>1780.54026086523</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2679427864560.6499</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>104.161592504748</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>38899</v>
       </c>
@@ -11188,46 +12770,50 @@
         <v>9977647644.6995258</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>997.76476446995264</v>
       </c>
       <c r="E48">
         <v>644262499.94651198</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>644.26249994651198</v>
       </c>
       <c r="G48" s="3">
         <v>-644262499.94651198</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>644.26249994651198</v>
       </c>
       <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2066662555.945504</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="4"/>
+        <v>2066.6625559455038</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>2066.6625559455038</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="5"/>
         <v>2066662555.945504</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="5"/>
-        <v>2066.6625559455038</v>
-      </c>
-      <c r="K48" s="5">
-        <f t="shared" si="8"/>
-        <v>1068.897791475551</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
         <v>1831.45185089088</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>3784992963253.27</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>104.377585567366</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>39264</v>
       </c>
@@ -11238,46 +12824,50 @@
         <v>11902564401.323843</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1190.2564401323843</v>
       </c>
       <c r="E49">
         <v>792305780.89124405</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>792.30578089124401</v>
       </c>
       <c r="G49" s="3">
         <v>-792305780.89124405</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>792.30578089124401</v>
       </c>
       <c r="I49">
+        <f t="shared" si="3"/>
+        <v>2867678353.7252097</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="4"/>
+        <v>2867.6783537252095</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>2867.6783537252095</v>
+      </c>
+      <c r="L49" s="5">
+        <f t="shared" si="5"/>
         <v>2867678353.7252097</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="5"/>
-        <v>2867.6783537252095</v>
-      </c>
-      <c r="K49" s="5">
-        <f t="shared" si="8"/>
-        <v>1677.4219135928251</v>
-      </c>
-      <c r="L49">
+      <c r="M49">
         <v>1723.49158714041</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>4942419517270.0596</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>107.96589537320899</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>39630</v>
       </c>
@@ -11288,46 +12878,50 @@
         <v>14440404021.488146</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1444.0404021488146</v>
       </c>
       <c r="E50">
         <v>728860900.652408</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>728.86090065240796</v>
       </c>
       <c r="G50" s="3">
         <v>-728860900.652408</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>728.86090065240796</v>
       </c>
       <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2914601848.0916367</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
+        <v>2914.6018480916368</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>2914.6018480916368</v>
+      </c>
+      <c r="L50" s="5">
+        <f t="shared" si="5"/>
         <v>2914601848.0916367</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="5"/>
-        <v>2914.6018480916368</v>
-      </c>
-      <c r="K50" s="5">
-        <f t="shared" si="8"/>
-        <v>1470.5614459428223</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
         <v>1720.44387915111</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>5014408909711.7695</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="3">
         <v>111.311992506636</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>39995</v>
       </c>
@@ -11338,46 +12932,50 @@
         <v>25127805566.451115</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2512.7805566451116</v>
       </c>
       <c r="E51">
         <v>841570802.74763596</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>841.57080274763598</v>
       </c>
       <c r="G51" s="3">
         <v>-812720321.69957602</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>812.72032169957606</v>
       </c>
       <c r="I51">
+        <f t="shared" si="3"/>
+        <v>2568892539.4217691</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="4"/>
+        <v>2568.892539421769</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>2568.892539421769</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="5"/>
         <v>2568892539.4217691</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="5"/>
-        <v>2568.892539421769</v>
-      </c>
-      <c r="K51" s="5">
-        <f t="shared" si="8"/>
-        <v>56.111982776657442</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
         <v>2030.4880743341801</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>5216105665541.9502</v>
       </c>
-      <c r="N51" s="3">
+      <c r="O51" s="3">
         <v>108.319176300047</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>40360</v>
       </c>
@@ -11388,46 +12986,50 @@
         <v>26673441667.281536</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2667.3441667281536</v>
       </c>
       <c r="E52">
         <v>543872727.27272797</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>543.87272727272796</v>
       </c>
       <c r="G52" s="3">
         <v>-506658423.45964003</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>506.65842345964001</v>
       </c>
       <c r="I52">
+        <f t="shared" si="3"/>
+        <v>2834047559.0769792</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="4"/>
+        <v>2834.0475590769793</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>2834.0475590769793</v>
+      </c>
+      <c r="L52" s="5">
+        <f t="shared" si="5"/>
         <v>2834047559.0769792</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
-        <v>2834.0475590769793</v>
-      </c>
-      <c r="K52" s="5">
-        <f t="shared" si="8"/>
-        <v>166.70339234882567</v>
-      </c>
-      <c r="L52">
+      <c r="M52">
         <v>2177.5575068335802</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>6171301536991.46</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>40725</v>
       </c>
@@ -11438,46 +13040,50 @@
         <v>27871725205.571438</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2787.1725205571438</v>
       </c>
       <c r="E53">
         <v>894293858</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>894.293858</v>
       </c>
       <c r="G53" s="3">
         <v>-906140427.58727598</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>906.14042758727601</v>
       </c>
       <c r="I53">
+        <f t="shared" si="3"/>
+        <v>2502160672.9999461</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="4"/>
+        <v>2502.1606729999462</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>2502.1606729999462</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="5"/>
         <v>2502160672.9999461</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
-        <v>2502.1606729999462</v>
-      </c>
-      <c r="K53" s="5">
-        <f t="shared" si="8"/>
-        <v>-285.0118475571976</v>
-      </c>
-      <c r="L53">
+      <c r="M53">
         <v>2522.8020325226398</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>6312456031542.4805</v>
       </c>
-      <c r="N53" s="3">
+      <c r="O53" s="3">
         <v>93.066503735108299</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>41091</v>
       </c>
@@ -11488,46 +13094,50 @@
         <v>27305915761.291759</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2730.5915761291758</v>
       </c>
       <c r="E54">
         <v>1205388487.79374</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1205.3884877937401</v>
       </c>
       <c r="G54" s="3">
         <v>-1159051459.72053</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1159.0514597205299</v>
       </c>
       <c r="I54">
+        <f t="shared" si="3"/>
+        <v>3375618721.4940119</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="4"/>
+        <v>3375.6187214940119</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>3375.6187214940119</v>
+      </c>
+      <c r="L54" s="5">
+        <f t="shared" si="5"/>
         <v>3375618721.4940119</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="5"/>
-        <v>3375.6187214940119</v>
-      </c>
-      <c r="K54" s="5">
-        <f t="shared" si="8"/>
-        <v>645.02714536483609</v>
-      </c>
-      <c r="L54">
+      <c r="M54">
         <v>2504.5630775832801</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>8454450013852.7803</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103.581529116697</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>41456</v>
       </c>
@@ -11538,46 +13148,50 @@
         <v>28915786996.551834</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2891.5786996551833</v>
       </c>
       <c r="E55">
         <v>1096000000</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1096</v>
       </c>
       <c r="G55" s="3">
         <v>-1051622922.49344</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1051.62292249344</v>
       </c>
       <c r="I55">
+        <f t="shared" si="3"/>
+        <v>3289665909.3899994</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="4"/>
+        <v>3289.6659093899993</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>3289.6659093899993</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="5"/>
         <v>3289665909.3899994</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="5"/>
-        <v>3289.6659093899993</v>
-      </c>
-      <c r="K55" s="5">
-        <f t="shared" si="8"/>
-        <v>398.08720973481604</v>
-      </c>
-      <c r="L55">
+      <c r="M55">
         <v>2586.8895685656098</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>8510002425066.8896</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <v>104.487341700489</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>41821</v>
       </c>
@@ -11588,46 +13202,50 @@
         <v>32612397758.45789</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3261.2397758457892</v>
       </c>
       <c r="E56">
         <v>1058564540.34685</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1058.56454034685</v>
       </c>
       <c r="G56" s="3">
         <v>-1031546242.99492</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1031.54624299492</v>
       </c>
       <c r="I56">
+        <f t="shared" si="3"/>
+        <v>3318165174.3066821</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="4"/>
+        <v>3318.1651743066823</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>3318.1651743066823</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="5"/>
         <v>3318165174.3066821</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
-        <v>3318.1651743066823</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="8"/>
-        <v>56.925398460893121</v>
-      </c>
-      <c r="L56">
+      <c r="M56">
         <v>2599.7882006106702</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>8626526667839.7598</v>
       </c>
-      <c r="N56" s="3">
+      <c r="O56" s="3">
         <v>106.106235195211</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>42186</v>
       </c>
@@ -11638,46 +13256,50 @@
         <v>32387183844.669861</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3238.7183844669862</v>
       </c>
       <c r="E57">
         <v>737652140.15142798</v>
       </c>
       <c r="F57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>737.65214015142794</v>
       </c>
       <c r="G57" s="3">
         <v>-737369521.05303395</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>737.36952105303396</v>
       </c>
       <c r="I57">
+        <f t="shared" si="3"/>
+        <v>3164648658.7574968</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="4"/>
+        <v>3164.6486587574968</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>3164.6486587574968</v>
+      </c>
+      <c r="L57" s="5">
+        <f t="shared" si="5"/>
         <v>3164648658.7574968</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="5"/>
-        <v>3164.6486587574968</v>
-      </c>
-      <c r="K57" s="5">
-        <f t="shared" si="8"/>
-        <v>-74.069725709489376</v>
-      </c>
-      <c r="L57">
+      <c r="M57">
         <v>3240.64542033826</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>10255504182982.1</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100.98705396656</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>42552</v>
       </c>
@@ -11688,46 +13310,50 @@
         <v>29203988814.897266</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2920.3988814897266</v>
       </c>
       <c r="E58">
         <v>625704361.86706805</v>
       </c>
       <c r="F58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>625.70436186706809</v>
       </c>
       <c r="G58" s="3">
         <v>-625558964.16211998</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>625.55896416211999</v>
       </c>
       <c r="I58">
+        <f t="shared" si="3"/>
+        <v>3542461759.9501257</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="4"/>
+        <v>3542.4617599501257</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>3542.4617599501257</v>
+      </c>
+      <c r="L58" s="5">
+        <f t="shared" si="5"/>
         <v>3542461759.9501257</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
-        <v>3542.4617599501257</v>
-      </c>
-      <c r="K58" s="5">
-        <f t="shared" si="8"/>
-        <v>622.06287846039913</v>
-      </c>
-      <c r="L58">
+      <c r="M58">
         <v>3420.0980072473599</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>12115566405955.4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96.130690827214494</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>42917</v>
       </c>
@@ -11738,46 +13364,50 @@
         <v>30744473911.531208</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3074.4473911531209</v>
       </c>
       <c r="E59">
         <v>802704141.00856805</v>
       </c>
       <c r="F59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>802.70414100856806</v>
       </c>
       <c r="G59" s="3">
         <v>-802400008.75549996</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>802.40000875549993</v>
       </c>
       <c r="I59">
+        <f t="shared" si="3"/>
+        <v>3828487035.1917939</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="4"/>
+        <v>3828.4870351917939</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>3828.4870351917939</v>
+      </c>
+      <c r="L59" s="5">
+        <f t="shared" si="5"/>
         <v>3828487035.1917939</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="5"/>
-        <v>3828.4870351917939</v>
-      </c>
-      <c r="K59" s="5">
-        <f t="shared" si="8"/>
-        <v>754.03964403867303</v>
-      </c>
-      <c r="L59">
+      <c r="M59">
         <v>3611.2244580446099</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>13825526018791.301</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93.678152818193894</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43282</v>
       </c>
@@ -11788,46 +13418,50 @@
         <v>32927025573.429642</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3292.7025573429642</v>
       </c>
       <c r="E60">
         <v>1055353352.63033</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1055.3533526303299</v>
       </c>
       <c r="G60" s="3">
         <v>-1055031706.52842</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1055.03170652842</v>
       </c>
       <c r="I60">
+        <f t="shared" si="3"/>
+        <v>3740268599.5106869</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="4"/>
+        <v>3740.2685995106867</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>3740.2685995106867</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="5"/>
         <v>3740268599.5106869</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="5"/>
-        <v>3740.2685995106867</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="8"/>
-        <v>447.56604216772257</v>
-      </c>
-      <c r="L60">
+      <c r="M60">
         <v>3727.0689948461199</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>13940239129632.801</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90.086175339845695</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43647</v>
       </c>
@@ -11838,46 +13472,50 @@
         <v>35353060634.202171</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3535.306063420217</v>
       </c>
       <c r="E61">
         <v>1273885586.25086</v>
       </c>
       <c r="F61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1273.8855862508599</v>
       </c>
       <c r="G61" s="3">
         <v>-1273559949.03929</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1273.5599490392899</v>
       </c>
       <c r="I61">
+        <f t="shared" si="3"/>
+        <v>3800074888.9234867</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="4"/>
+        <v>3800.0748889234869</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>3800.0748889234869</v>
+      </c>
+      <c r="L61" s="5">
+        <f t="shared" si="5"/>
         <v>3800074888.9234867</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="5"/>
-        <v>3800.0748889234869</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="8"/>
-        <v>264.76882550326991</v>
-      </c>
-      <c r="L61">
+      <c r="M61">
         <v>3704.0490716968102</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>14075663864695.4</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>93.296236571518506</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44013</v>
       </c>
@@ -11888,55 +13526,60 @@
         <v>37600368180.939949</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3760.036818093995</v>
       </c>
       <c r="E62">
         <v>873792834.55531704</v>
       </c>
       <c r="F62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>873.79283455531709</v>
       </c>
       <c r="G62" s="3">
         <v>-873468225.23084199</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>873.46822523084199</v>
       </c>
       <c r="I62">
+        <f t="shared" si="3"/>
+        <v>4304772252.1639128</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="4"/>
+        <v>4304.7722521639125</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>4304.7722521639125</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" si="5"/>
         <v>4304772252.1639128</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="5"/>
-        <v>4304.7722521639125</v>
-      </c>
-      <c r="K62" s="5">
-        <f t="shared" si="8"/>
-        <v>544.73543406991757</v>
-      </c>
-      <c r="L62">
+      <c r="M62">
         <v>3718.2489227092401</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>16006214789117.1</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>94.995621691551804</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="M63" s="3"/>
+      <c r="K63" s="5"/>
+      <c r="N63" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A62">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13411,8 +15054,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A63">
-    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14910,8 +16553,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A62">
-    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27A8D09-A11E-4587-AEF6-6A623B7FB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75061872-132B-4F2C-AAD2-51CEDADD759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -10189,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8508772-BEF4-4C79-A19E-591393B8EA5B}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10636,7 +10636,7 @@
         <v>30.239395181856363</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K3:K62" si="7">L8/1000000</f>
+        <f t="shared" ref="K8:K62" si="7">L8/1000000</f>
         <v>30.239395181856363</v>
       </c>
       <c r="L8" s="5">
@@ -15068,8 +15068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15081,6 +15081,7 @@
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -15105,6 +15106,9 @@
       <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -15128,6 +15132,9 @@
       <c r="G2">
         <v>69.06119799999999</v>
       </c>
+      <c r="H2">
+        <v>91.399000000000001</v>
+      </c>
       <c r="I2">
         <f>ABS(D2)</f>
         <v>19.768089799999998</v>
@@ -15155,6 +15162,9 @@
       <c r="G3">
         <v>17.147871999999992</v>
       </c>
+      <c r="H3">
+        <v>84.316000000000003</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="0">ABS(D3)</f>
         <v>5.2824671999999993</v>
@@ -15182,6 +15192,9 @@
       <c r="G4">
         <v>35.039658000000017</v>
       </c>
+      <c r="H4">
+        <v>76.262</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>4.3430757999999869</v>
@@ -15209,6 +15222,9 @@
       <c r="G5">
         <v>88.144592000000003</v>
       </c>
+      <c r="H5">
+        <v>67.432000000000002</v>
+      </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>9.9870591999999974</v>
@@ -15236,6 +15252,9 @@
       <c r="G6">
         <v>143.01124999999996</v>
       </c>
+      <c r="H6">
+        <v>58.021000000000001</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>12.445875000000008</v>
@@ -15263,6 +15282,9 @@
       <c r="G7">
         <v>200.65411200000005</v>
       </c>
+      <c r="H7">
+        <v>48.224000000000004</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>12.43549119999998</v>
@@ -15290,6 +15312,9 @@
       <c r="G8">
         <v>262.228298</v>
       </c>
+      <c r="H8">
+        <v>30.239395181856363</v>
+      </c>
       <c r="I8">
         <f t="shared" si="0"/>
         <v>10.593299799999976</v>
@@ -15317,6 +15342,9 @@
       <c r="G9">
         <v>329.00148799999999</v>
       </c>
+      <c r="H9">
+        <v>37.197954603709228</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
         <v>7.4801088000000036</v>
@@ -15344,6 +15372,9 @@
       <c r="G10">
         <v>402.32728199999997</v>
       </c>
+      <c r="H10">
+        <v>48.774785055523132</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
         <v>3.5822782000000117</v>
@@ -15372,6 +15403,9 @@
       <c r="G11">
         <v>483.62</v>
       </c>
+      <c r="H11">
+        <v>59.907407191947556</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -15395,6 +15429,9 @@
       <c r="G12">
         <v>574.33092199999999</v>
       </c>
+      <c r="H12">
+        <v>64.750797919289525</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -15418,6 +15455,9 @@
       <c r="G13">
         <v>675.92596800000013</v>
       </c>
+      <c r="H13">
+        <v>19.156524971745259</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -15441,6 +15481,9 @@
       <c r="G14">
         <v>789.86481800000013</v>
       </c>
+      <c r="H14">
+        <v>20.458245837947395</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -15464,6 +15507,9 @@
       <c r="G15">
         <v>917.58147199999996</v>
       </c>
+      <c r="H15">
+        <v>13.206360509624986</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -15487,8 +15533,11 @@
       <c r="G16">
         <v>1060.4662500000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>4.5847016226436983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>27576</v>
       </c>
@@ -15510,8 +15559,11 @@
       <c r="G17">
         <v>1219.8492320000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>9.9822234951098423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>27942</v>
       </c>
@@ -15533,8 +15585,11 @@
       <c r="G18">
         <v>1396.9851380000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>13.270868593361518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>28307</v>
       </c>
@@ -15556,8 +15611,11 @@
       <c r="G19">
         <v>1593.0396480000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>20.649110502945412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>28672</v>
       </c>
@@ -15579,8 +15637,11 @@
       <c r="G20">
         <v>1809.0771620000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>33.67899583495138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>29037</v>
       </c>
@@ -15602,8 +15663,11 @@
       <c r="G21">
         <v>2046.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>17.286021155568488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>29403</v>
       </c>
@@ -15625,8 +15689,11 @@
       <c r="G22">
         <v>2304.7890419999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>87.136723151695918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>29768</v>
       </c>
@@ -15649,8 +15716,11 @@
       <c r="G23">
         <v>1565.2162708415501</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>342.31830259454443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>30133</v>
       </c>
@@ -15672,8 +15742,11 @@
       <c r="G24">
         <v>543.26640510304696</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>263.90413510722169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>30498</v>
       </c>
@@ -15696,8 +15769,11 @@
       <c r="G25">
         <v>429.77464486072699</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>397.54983049507683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>30864</v>
       </c>
@@ -15720,8 +15796,11 @@
       <c r="G26">
         <v>293.63133617189402</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>374.49014313936448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31229</v>
       </c>
@@ -15743,8 +15822,11 @@
       <c r="G27">
         <v>384.63216488538097</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>568.23740927342146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>31594</v>
       </c>
@@ -15767,8 +15849,11 @@
       <c r="G28">
         <v>401.52703667273499</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>213.19151878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>31959</v>
       </c>
@@ -15791,8 +15876,11 @@
       <c r="G29">
         <v>511.28822370242102</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>32325</v>
       </c>
@@ -15814,8 +15902,11 @@
       <c r="G30">
         <v>470.09228354012299</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>32690</v>
       </c>
@@ -15837,8 +15928,11 @@
       <c r="G31">
         <v>384.99517293613701</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>33055</v>
       </c>
@@ -15860,8 +15954,11 @@
       <c r="G32">
         <v>244.39075838208399</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>33420</v>
       </c>
@@ -15883,8 +15980,11 @@
       <c r="G33">
         <v>179.474769912619</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33786</v>
       </c>
@@ -15906,8 +16006,11 @@
       <c r="G34">
         <v>120.252259985827</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>214.35482162591128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34151</v>
       </c>
@@ -15929,8 +16032,11 @@
       <c r="G35">
         <v>118.786060581379</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>87.422554597516736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34516</v>
       </c>
@@ -15952,8 +16058,11 @@
       <c r="G36">
         <v>148.49891681729699</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>65.293135678460231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34881</v>
       </c>
@@ -15975,8 +16084,11 @@
       <c r="G37">
         <v>145.151216117594</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>182.32500339069813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35247</v>
       </c>
@@ -15998,8 +16110,11 @@
       <c r="G38">
         <v>145.534630500829</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>241.21297186049603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35612</v>
       </c>
@@ -16021,8 +16136,11 @@
       <c r="G39">
         <v>152.516808731092</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>361.62493976521836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>35977</v>
       </c>
@@ -16044,8 +16162,11 @@
       <c r="G40">
         <v>135.617944882106</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>527.84147259869701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>36342</v>
       </c>
@@ -16067,8 +16188,11 @@
       <c r="G41">
         <v>123.43242395845</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>543.14241943915977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>36708</v>
       </c>
@@ -16090,8 +16214,11 @@
       <c r="G42">
         <v>117.002584885845</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>727.67381694210826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>37073</v>
       </c>
@@ -16113,8 +16240,11 @@
       <c r="G43">
         <v>114.128259060837</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>819.99764401627601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37438</v>
       </c>
@@ -16136,8 +16266,11 @@
       <c r="G44">
         <v>109.21191184217101</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>819.02642710593102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>37803</v>
       </c>
@@ -16159,8 +16292,11 @@
       <c r="G45">
         <v>95.845581597459301</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1129.6618112019482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>38169</v>
       </c>
@@ -16182,8 +16318,11 @@
       <c r="G46">
         <v>99.447858634069306</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1386.6590746619283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>38534</v>
       </c>
@@ -16205,8 +16344,11 @@
       <c r="G47">
         <v>104.161592504748</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1504.8398081482399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>38899</v>
       </c>
@@ -16228,8 +16370,11 @@
       <c r="G48">
         <v>104.377585567366</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>2066.6625559455038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>39264</v>
       </c>
@@ -16251,8 +16396,11 @@
       <c r="G49">
         <v>107.96589537320899</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>2867.6783537252095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>39630</v>
       </c>
@@ -16274,8 +16422,11 @@
       <c r="G50">
         <v>111.311992506636</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>2914.6018480916368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>39995</v>
       </c>
@@ -16297,8 +16448,11 @@
       <c r="G51">
         <v>108.319176300047</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>2568.892539421769</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>40360</v>
       </c>
@@ -16320,8 +16474,11 @@
       <c r="G52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>2834.0475590769793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>40725</v>
       </c>
@@ -16343,8 +16500,11 @@
       <c r="G53">
         <v>93.066503735108299</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>2502.1606729999462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>41091</v>
       </c>
@@ -16366,8 +16526,11 @@
       <c r="G54">
         <v>103.581529116697</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>3375.6187214940119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>41456</v>
       </c>
@@ -16389,8 +16552,11 @@
       <c r="G55">
         <v>104.487341700489</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>3289.6659093899993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>41821</v>
       </c>
@@ -16412,8 +16578,11 @@
       <c r="G56">
         <v>106.106235195211</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>3318.1651743066823</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>42186</v>
       </c>
@@ -16435,8 +16604,11 @@
       <c r="G57">
         <v>100.98705396656</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>3164.6486587574968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>42552</v>
       </c>
@@ -16458,8 +16630,11 @@
       <c r="G58">
         <v>96.130690827214494</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>3542.4617599501257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>42917</v>
       </c>
@@ -16481,8 +16656,11 @@
       <c r="G59">
         <v>93.678152818193894</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>3828.4870351917939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43282</v>
       </c>
@@ -16504,8 +16682,11 @@
       <c r="G60">
         <v>90.086175339845695</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>3740.2685995106867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43647</v>
       </c>
@@ -16527,8 +16708,11 @@
       <c r="G61">
         <v>93.296236571518506</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>3800.0748889234869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44013</v>
       </c>
@@ -16549,6 +16733,9 @@
       </c>
       <c r="G62">
         <v>94.995621691551804</v>
+      </c>
+      <c r="H62">
+        <v>4304.7722521639125</v>
       </c>
     </row>
   </sheetData>
@@ -16559,5 +16746,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75061872-132B-4F2C-AAD2-51CEDADD759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC48B17-1279-46AB-ADD5-DC81EA4090EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
@@ -4904,7 +4904,7 @@
                   <c:v>58.021000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.224000000000004</c:v>
+                  <c:v>48.223999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>30.239395181856363</c:v>
@@ -10189,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8508772-BEF4-4C79-A19E-591393B8EA5B}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K62"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>48.224000000000004</v>
+        <v>48.223999999999997</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" si="5"/>
@@ -15066,10 +15066,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15084,7 +15084,7 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>22098</v>
       </c>
@@ -15135,12 +15135,8 @@
       <c r="H2">
         <v>91.399000000000001</v>
       </c>
-      <c r="I2">
-        <f>ABS(D2)</f>
-        <v>19.768089799999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>22463</v>
       </c>
@@ -15165,12 +15161,8 @@
       <c r="H3">
         <v>84.316000000000003</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I10" si="0">ABS(D3)</f>
-        <v>5.2824671999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>22828</v>
       </c>
@@ -15195,12 +15187,8 @@
       <c r="H4">
         <v>76.262</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>4.3430757999999869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>23193</v>
       </c>
@@ -15225,12 +15213,8 @@
       <c r="H5">
         <v>67.432000000000002</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>9.9870591999999974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>23559</v>
       </c>
@@ -15255,12 +15239,8 @@
       <c r="H6">
         <v>58.021000000000001</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>12.445875000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23924</v>
       </c>
@@ -15285,12 +15265,8 @@
       <c r="H7">
         <v>48.224000000000004</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>12.43549119999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>24289</v>
       </c>
@@ -15315,12 +15291,8 @@
       <c r="H8">
         <v>30.239395181856363</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>10.593299799999976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>24654</v>
       </c>
@@ -15345,12 +15317,8 @@
       <c r="H9">
         <v>37.197954603709228</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>7.4801088000000036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>25020</v>
       </c>
@@ -15375,12 +15343,8 @@
       <c r="H10">
         <v>48.774785055523132</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>3.5822782000000117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>25385</v>
       </c>
@@ -15407,7 +15371,7 @@
         <v>59.907407191947556</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>25750</v>
       </c>
@@ -15433,7 +15397,7 @@
         <v>64.750797919289525</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>26115</v>
       </c>
@@ -15459,7 +15423,7 @@
         <v>19.156524971745259</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>26481</v>
       </c>
@@ -15485,7 +15449,7 @@
         <v>20.458245837947395</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>26846</v>
       </c>
@@ -15511,7 +15475,7 @@
         <v>13.206360509624986</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>27211</v>
       </c>
@@ -15877,7 +15841,8 @@
         <v>511.28822370242102</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <f>0.0325*B2^3 - 0.6805*B2^2 - 5.269*B2 + 97.316</f>
+        <v>91.399000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15903,7 +15868,8 @@
         <v>470.09228354012299</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <f t="shared" ref="H30:H33" si="0">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
+        <v>84.316000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15929,7 +15895,8 @@
         <v>384.99517293613701</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>76.262</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -15955,7 +15922,8 @@
         <v>244.39075838208399</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>67.432000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -15981,7 +15949,8 @@
         <v>179.474769912619</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>58.021000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael\Desktop\Final-Research-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gobz\Desktop\Final-Research-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC48B17-1279-46AB-ADD5-DC81EA4090EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD260FD-161D-435E-B589-3C4D0FC3A76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="Trans1" sheetId="2" r:id="rId2"/>
+    <sheet name="Trans2" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -503,7 +503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Trans1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -538,7 +538,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -730,7 +730,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$62</c:f>
+              <c:f>Trans1!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -932,7 +932,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$J$1</c:f>
+              <c:f>Trans1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -967,7 +967,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1159,7 +1159,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$J$2:$J$62</c:f>
+              <c:f>Trans1!$J$2:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1629,7 +1629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$1</c:f>
+              <c:f>Trans1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1664,7 +1664,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1856,7 +1856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$62</c:f>
+              <c:f>Trans1!$L$2:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2295,7 +2295,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Trans1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2330,7 +2330,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2522,7 +2522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$62</c:f>
+              <c:f>Trans1!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2724,7 +2724,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$L$1</c:f>
+              <c:f>Trans1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2759,7 +2759,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -2951,7 +2951,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$L$2:$L$62</c:f>
+              <c:f>Trans1!$L$2:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3421,7 +3421,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
+              <c:f>Trans1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3456,7 +3456,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3648,7 +3648,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$62</c:f>
+              <c:f>Trans1!$D$2:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="61"/>
@@ -3850,7 +3850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$O$1</c:f>
+              <c:f>Trans1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3885,7 +3885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4077,7 +4077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$O$2:$O$62</c:f>
+              <c:f>Trans1!$O$2:$O$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4557,7 +4557,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$1</c:f>
+              <c:f>Trans1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4692,7 +4692,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$62</c:f>
+              <c:f>Trans1!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -4884,7 +4884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$K$2:$K$62</c:f>
+              <c:f>Trans1!$K$2:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -13593,7 +13593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -15068,7 +15068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gobz\Desktop\Final-Research-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33257D7B-0187-44F0-90A6-87BCB382D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F27A30-762C-431E-BE49-BD5144E9AFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -14452,7 +14452,7 @@
         <v>4.1599515705795405E-2</v>
       </c>
       <c r="O2">
-        <f>J2</f>
+        <f t="shared" ref="O2:O22" si="0">J2</f>
         <v>-0.60725401398019996</v>
       </c>
       <c r="P2">
@@ -14528,11 +14528,11 @@
         <v>441524109.01467508</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:D62" si="0">C3/10000000</f>
+        <f t="shared" ref="D3:D62" si="1">C3/10000000</f>
         <v>44.152410901467505</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E62" si="1">H3/1000000</f>
+        <f t="shared" ref="E3:E62" si="2">H3/1000000</f>
         <v>0</v>
       </c>
       <c r="F3" s="6">
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L62" si="2">K3/1000000</f>
+        <f t="shared" ref="L3:L62" si="3">K3/1000000</f>
         <v>0</v>
       </c>
       <c r="M3">
@@ -14564,15 +14564,15 @@
         <v>1.6694679146419852E-2</v>
       </c>
       <c r="O3">
-        <f>J3</f>
+        <f t="shared" si="0"/>
         <v>-0.38877316550344276</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P62" si="3">ABS(V3/U3)</f>
+        <f t="shared" ref="P3:P62" si="4">ABS(V3/U3)</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q62" si="4">P3/1000000</f>
+        <f t="shared" ref="Q3:Q62" si="5">P3/1000000</f>
         <v>0</v>
       </c>
       <c r="R3">
@@ -14582,7 +14582,7 @@
         <v>0.16549426889511754</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" ref="T3:T62" si="5">P3</f>
+        <f t="shared" ref="T3:T62" si="6">P3</f>
         <v>0</v>
       </c>
       <c r="U3">
@@ -14601,7 +14601,7 @@
         <v>-7.6836233014237791</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z62" si="6">ABS(Y3)</f>
+        <f t="shared" ref="Z3:Z62" si="7">ABS(Y3)</f>
         <v>7.6836233014237791</v>
       </c>
       <c r="AA3">
@@ -14611,11 +14611,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC62" si="7">AA3/AB3</f>
+        <f t="shared" ref="AC3:AC62" si="8">AA3/AB3</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD62" si="8">AC3/1000000</f>
+        <f t="shared" ref="AD3:AD62" si="9">AC3/1000000</f>
         <v>0</v>
       </c>
       <c r="AE3">
@@ -14636,11 +14636,11 @@
         <v>449012578.6163522</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.901257861635223</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="6">
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M4">
@@ -14672,15 +14672,15 @@
         <v>-8.6261525700136593E-3</v>
       </c>
       <c r="O4">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>-0.16421977688688325</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R4">
@@ -14690,7 +14690,7 @@
         <v>3.4726017794469879</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U4">
@@ -14709,7 +14709,7 @@
         <v>-11.500388584178108</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.500388584178108</v>
       </c>
       <c r="AA4">
@@ -14719,11 +14719,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE4">
@@ -14744,11 +14744,11 @@
         <v>516147798.74213839</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.614779874213838</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="6">
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5">
@@ -14780,15 +14780,15 @@
         <v>-3.4945921392027277E-2</v>
       </c>
       <c r="O5">
-        <f>J5</f>
+        <f t="shared" si="0"/>
         <v>7.6366423664314675E-2</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R5">
@@ -14798,7 +14798,7 @@
         <v>6.8402645105110302</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U5">
@@ -14817,7 +14817,7 @@
         <v>-15.115420986822436</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.115420986822436</v>
       </c>
       <c r="AA5">
@@ -14827,11 +14827,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE5">
@@ -14852,11 +14852,11 @@
         <v>589056603.77358496</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.905660377358494</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6">
@@ -14888,15 +14888,15 @@
         <v>-6.2761307742443012E-2</v>
       </c>
       <c r="O6">
-        <f>J6</f>
+        <f t="shared" si="0"/>
         <v>0.34458790571385622</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R6">
@@ -14906,7 +14906,7 @@
         <v>10.263206583204388</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U6">
@@ -14925,7 +14925,7 @@
         <v>-18.306254836779644</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.306254836779644</v>
       </c>
       <c r="AA6">
@@ -14935,11 +14935,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE6">
@@ -14960,11 +14960,11 @@
         <v>884873949.57983184</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.487394957983184</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="6">
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7">
@@ -14996,15 +14996,15 @@
         <v>-9.2219532830162598E-2</v>
       </c>
       <c r="O7">
-        <f>J7</f>
+        <f t="shared" si="0"/>
         <v>0.65128347458880342</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R7">
@@ -15014,7 +15014,7 @@
         <v>13.667749473539091</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U7">
@@ -15033,7 +15033,7 @@
         <v>-20.758637083052811</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.758637083052811</v>
       </c>
       <c r="AA7">
@@ -15043,11 +15043,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE7">
@@ -15068,11 +15068,11 @@
         <v>925770308.12324917</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.577030812324921</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="6">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8">
@@ -15104,7 +15104,7 @@
         <v>-0.12284020478666334</v>
       </c>
       <c r="O8">
-        <f>J8</f>
+        <f t="shared" si="0"/>
         <v>1.0038460565590799</v>
       </c>
       <c r="P8">
@@ -15112,14 +15112,14 @@
         <v>30239395.181856364</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30.239395181856363</v>
       </c>
       <c r="R8">
         <v>19.331128782598164</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S62" si="9">T8/1000000</f>
+        <f t="shared" ref="S8:S62" si="10">T8/1000000</f>
         <v>30.239395181856363</v>
       </c>
       <c r="T8" s="5">
@@ -15142,7 +15142,7 @@
         <v>-22.063769033746421</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.063769033746421</v>
       </c>
       <c r="AA8">
@@ -15152,11 +15152,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30239395.181856364</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30.239395181856363</v>
       </c>
       <c r="AE8">
@@ -15177,11 +15177,11 @@
         <v>967647058.82352936</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.764705882352942</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="6">
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9">
@@ -15213,26 +15213,26 @@
         <v>-0.15322073641512088</v>
       </c>
       <c r="O9">
-        <f>J9</f>
+        <f t="shared" si="0"/>
         <v>1.4031557431487207</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37197954.603709228</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37.197954603709228</v>
       </c>
       <c r="R9">
         <v>20.909001584947184</v>
       </c>
       <c r="S9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37.197954603709228</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37197954.603709228</v>
       </c>
       <c r="U9">
@@ -15251,7 +15251,7 @@
         <v>-21.722679131680337</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.722679131680337</v>
       </c>
       <c r="AA9">
@@ -15261,11 +15261,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37197954.603709228</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.197954603709228</v>
       </c>
       <c r="AE9">
@@ -15286,11 +15286,11 @@
         <v>1037815126.05042</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103.78151260504201</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="6">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M10">
@@ -15322,26 +15322,26 @@
         <v>-0.18073013847084421</v>
       </c>
       <c r="O10">
-        <f>J10</f>
+        <f t="shared" si="0"/>
         <v>1.8400541653161699</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48774785.055523135</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.774785055523132</v>
       </c>
       <c r="R10">
         <v>21.608419312912801</v>
       </c>
       <c r="S10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.774785055523132</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48774785.055523135</v>
       </c>
       <c r="U10">
@@ -15360,7 +15360,7 @@
         <v>-19.16026185136986</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.16026185136986</v>
       </c>
       <c r="AA10">
@@ -15370,11 +15370,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48774785.055523135</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.774785055523132</v>
       </c>
       <c r="AE10">
@@ -15395,11 +15395,11 @@
         <v>1169047619.0476189</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116.90476190476188</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="6">
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11">
@@ -15431,26 +15431,26 @@
         <v>-0.20120521434499111</v>
       </c>
       <c r="O11">
-        <f>J11</f>
+        <f t="shared" si="0"/>
         <v>2.2913513965883849</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59907407.191947557</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.907407191947556</v>
       </c>
       <c r="R11">
         <v>21.481183740131044</v>
       </c>
       <c r="S11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59.907407191947556</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59907407.191947557</v>
       </c>
       <c r="U11">
@@ -15469,7 +15469,7 @@
         <v>-13.751245394242446</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.751245394242446</v>
       </c>
       <c r="AA11">
@@ -15479,11 +15479,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59907407.191947557</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.907407191947556</v>
       </c>
       <c r="AE11">
@@ -15504,11 +15504,11 @@
         <v>1260084033.6134453</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126.00840336134453</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="F12" s="6">
@@ -15524,14 +15524,14 @@
         <v>3.3402947248891781</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J62" si="10">ABS(H12/1000000)</f>
+        <f t="shared" ref="J12:J62" si="11">ABS(H12/1000000)</f>
         <v>4.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12">
@@ -15541,26 +15541,26 @@
         <v>-0.2086754660440111</v>
       </c>
       <c r="O12">
-        <f>J12</f>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64750797.919289529</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.750797919289525</v>
       </c>
       <c r="R12">
         <v>20.850760297664063</v>
       </c>
       <c r="S12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64.750797919289525</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64750797.919289529</v>
       </c>
       <c r="U12">
@@ -15579,7 +15579,7 @@
         <v>-4.859667161424527</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.859667161424527</v>
       </c>
       <c r="AA12">
@@ -15589,11 +15589,11 @@
         <v>7.1430000071429994E-2</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64750797.919289529</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.750797919289525</v>
       </c>
       <c r="AE12">
@@ -15614,11 +15614,11 @@
         <v>1417787114.8459382</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>141.77871148459383</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2</v>
       </c>
       <c r="F13" s="6">
@@ -15634,14 +15634,14 @@
         <v>3.573595379300913</v>
       </c>
       <c r="J13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M13">
@@ -15651,26 +15651,26 @@
         <v>-0.19515834343090385</v>
       </c>
       <c r="O13">
-        <f>J13</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19156524.97174526</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.156524971745259</v>
       </c>
       <c r="R13">
         <v>20.424876651092177</v>
       </c>
       <c r="S13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.156524971745259</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19156524.97174526</v>
       </c>
       <c r="U13">
@@ -15689,7 +15689,7 @@
         <v>8.1077329590197174</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.1077329590197174</v>
       </c>
       <c r="AA13">
@@ -15699,11 +15699,11 @@
         <v>7.1429995890081102E-2</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19156524.97174526</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.156524971745259</v>
       </c>
       <c r="AE13">
@@ -15724,11 +15724,11 @@
         <v>1491596638.655462</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>149.15966386554621</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-11.9</v>
       </c>
       <c r="F14" s="6">
@@ -15744,14 +15744,14 @@
         <v>3.6714592975342568</v>
       </c>
       <c r="J14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.9</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M14">
@@ -15761,26 +15761,26 @@
         <v>-0.15058454170822888</v>
       </c>
       <c r="O14">
-        <f>J14</f>
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20458245.837947395</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.458245837947395</v>
       </c>
       <c r="R14">
         <v>21.350260842211966</v>
       </c>
       <c r="S14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.458245837947395</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20458245.837947395</v>
       </c>
       <c r="U14">
@@ -15799,7 +15799,7 @@
         <v>25.635493663694753</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.635493663694753</v>
       </c>
       <c r="AA14">
@@ -15809,11 +15809,11 @@
         <v>7.1429999990000007E-2</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20458245.837947395</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.458245837947395</v>
       </c>
       <c r="AE14">
@@ -15834,11 +15834,11 @@
         <v>1702521008.4033613</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>170.25210084033614</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
       <c r="F15" s="6">
@@ -15854,14 +15854,14 @@
         <v>3.5810604488220359</v>
       </c>
       <c r="J15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M15">
@@ -15871,26 +15871,26 @@
         <v>-6.2933172644236757E-2</v>
       </c>
       <c r="O15">
-        <f>J15</f>
+        <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13206360.509624986</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.206360509624986</v>
       </c>
       <c r="R15">
         <v>24.760957396026548</v>
       </c>
       <c r="S15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.206360509624986</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13206360.509624986</v>
       </c>
       <c r="U15">
@@ -15909,7 +15909,7 @@
         <v>48.024309011900598</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.024309011900598</v>
       </c>
       <c r="AA15">
@@ -15919,11 +15919,11 @@
         <v>7.0214499989999998E-2</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13206360.509624986</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.206360509624986</v>
       </c>
       <c r="AE15">
@@ -15944,11 +15944,11 @@
         <v>2100142653.3523538</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>210.01426533523539</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
       <c r="F16" s="6">
@@ -15964,14 +15964,14 @@
         <v>3.3318582094217355</v>
       </c>
       <c r="J16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M16">
@@ -15981,26 +15981,26 @@
         <v>8.1322497409904215E-2</v>
       </c>
       <c r="O16">
-        <f>J16</f>
+        <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4584701.622643698</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5847016226436983</v>
       </c>
       <c r="R16">
         <v>31.782090687496392</v>
       </c>
       <c r="S16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.5847016226436983</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4584701.622643698</v>
       </c>
       <c r="U16">
@@ -16019,7 +16019,7 @@
         <v>75.312982652678357</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75.312982652678357</v>
       </c>
       <c r="AA16">
@@ -16029,11 +16029,11 @@
         <v>7.1359499990000005E-2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4584701.622643698</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.5847016226436983</v>
       </c>
       <c r="AE16">
@@ -16054,11 +16054,11 @@
         <v>2359555555.5555558</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235.95555555555558</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
       <c r="F17" s="6">
@@ -16074,14 +16074,14 @@
         <v>2.9695013511026209</v>
       </c>
       <c r="J17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M17">
@@ -16091,26 +16091,26 @@
         <v>0.29633853382946806</v>
       </c>
       <c r="O17">
-        <f>J17</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9982223.4951098431</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9822234951098423</v>
       </c>
       <c r="R17">
         <v>43.423239122717959</v>
       </c>
       <c r="S17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9822234951098423</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9982223.4951098431</v>
       </c>
       <c r="U17">
@@ -16129,7 +16129,7 @@
         <v>107.20650736292269</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107.20650736292269</v>
       </c>
       <c r="AA17">
@@ -16139,11 +16139,11 @@
         <v>7.421924999E-2</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9982223.4951098431</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.9822234951098423</v>
       </c>
       <c r="AE17">
@@ -16164,11 +16164,11 @@
         <v>2447300000</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>244.73</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0499999</v>
       </c>
       <c r="F18" s="6">
@@ -16184,14 +16184,14 @@
         <v>2.5233200635397397</v>
       </c>
       <c r="J18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0499999</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18">
@@ -16201,26 +16201,26 @@
         <v>0.59545777701562985</v>
       </c>
       <c r="O18">
-        <f>J18</f>
+        <f t="shared" si="0"/>
         <v>2.0499999</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13270868.593361517</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13.270868593361518</v>
       </c>
       <c r="R18">
         <v>60.422007217139182</v>
       </c>
       <c r="S18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.270868593361518</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13270868.593361517</v>
       </c>
       <c r="U18">
@@ -16239,7 +16239,7 @@
         <v>143.02199201744841</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143.02199201744841</v>
       </c>
       <c r="AA18">
@@ -16249,11 +16249,11 @@
         <v>8.2661666662499994E-2</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13270868.593361517</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.270868593361518</v>
       </c>
       <c r="AE18">
@@ -16274,11 +16274,11 @@
         <v>2936470588.2352939</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>293.64705882352939</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="F19" s="6">
@@ -16294,14 +16294,14 @@
         <v>2.0139495228971129</v>
       </c>
       <c r="J19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19">
@@ -16311,26 +16311,26 @@
         <v>0.98905968203127004</v>
       </c>
       <c r="O19">
-        <f>J19</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20649110.502945412</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.649110502945412</v>
       </c>
       <c r="R19">
         <v>83.18158932993191</v>
       </c>
       <c r="S19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.649110502945412</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20649110.502945412</v>
       </c>
       <c r="U19">
@@ -16349,7 +16349,7 @@
         <v>181.66603189843974</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>181.66603189843974</v>
       </c>
       <c r="AA19">
@@ -16359,11 +16359,11 @@
         <v>8.2589999993333302E-2</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20649110.502945412</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.649110502945412</v>
       </c>
       <c r="AE19">
@@ -16384,11 +16384,11 @@
         <v>2420260869.5652175</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>242.02608695652174</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.97</v>
       </c>
       <c r="F20" s="6">
@@ -16404,14 +16404,14 @@
         <v>1.4572917037033655</v>
       </c>
       <c r="J20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.97</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20">
@@ -16421,26 +16421,26 @@
         <v>1.4815691261691126</v>
       </c>
       <c r="O20">
-        <f>J20</f>
+        <f t="shared" si="0"/>
         <v>1.97</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33678995.834951378</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33.67899583495138</v>
       </c>
       <c r="R20">
         <v>111.63366843403021</v>
       </c>
       <c r="S20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33.67899583495138</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33678995.834951378</v>
       </c>
       <c r="U20">
@@ -16459,7 +16459,7 @@
         <v>221.65734463148809</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>221.65734463148809</v>
       </c>
       <c r="AA20">
@@ -16469,11 +16469,11 @@
         <v>7.7356666656666698E-2</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33678995.834951378</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.67899583495138</v>
       </c>
       <c r="AE20">
@@ -16494,11 +16494,11 @@
         <v>2139025000</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>213.9025</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F21" s="6">
@@ -16514,14 +16514,14 @@
         <v>0.85710908525814977</v>
       </c>
       <c r="J21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M21">
@@ -16531,26 +16531,26 @@
         <v>2.0675203899015684</v>
       </c>
       <c r="O21">
-        <f>J21</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17286021.155568488</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17.286021155568488</v>
       </c>
       <c r="R21">
         <v>145.08460271409831</v>
       </c>
       <c r="S21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17.286021155568488</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17286021.155568488</v>
       </c>
       <c r="U21">
@@ -16569,7 +16569,7 @@
         <v>261.20598365653893</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>261.20598365653893</v>
       </c>
       <c r="AA21">
@@ -16579,11 +16579,11 @@
         <v>7.4828333323333301E-2</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-17286021.155568488</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-17.286021155568488</v>
       </c>
       <c r="AE21">
@@ -16604,11 +16604,11 @@
         <v>1244610000</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124.461</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F22" s="6">
@@ -16624,14 +16624,14 @@
         <v>0.22229122982408478</v>
       </c>
       <c r="J22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22">
@@ -16641,26 +16641,26 @@
         <v>2.7266320624393576</v>
       </c>
       <c r="O22">
-        <f>J22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87136723.151695922</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87.136723151695918</v>
       </c>
       <c r="R22">
         <v>182.06120362880961</v>
       </c>
       <c r="S22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>87.136723151695918</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87136723.151695922</v>
       </c>
       <c r="U22">
@@ -16679,7 +16679,7 @@
         <v>298.35389649600023</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298.35389649600023</v>
       </c>
       <c r="AA22">
@@ -16689,11 +16689,11 @@
         <v>7.4169999989999999E-2</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-87136723.151695922</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-87.136723151695918</v>
       </c>
       <c r="AE22">
@@ -16714,11 +16714,11 @@
         <v>1337300000</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133.72999999999999</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="6">
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23">
@@ -16754,22 +16754,22 @@
         <v>3.01</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>342318302.59454441</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>342.31830259454443</v>
       </c>
       <c r="R23">
         <v>219.81229682125223</v>
       </c>
       <c r="S23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>342.31830259454443</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>342318302.59454441</v>
       </c>
       <c r="U23">
@@ -16788,7 +16788,7 @@
         <v>1565.2162708415501</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1565.2162708415501</v>
       </c>
       <c r="AA23">
@@ -16798,11 +16798,11 @@
         <v>0.50052333332666699</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-342318302.59454441</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-342.31830259454443</v>
       </c>
       <c r="AE23">
@@ -16823,11 +16823,11 @@
         <v>2177500000</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217.75</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.02</v>
       </c>
       <c r="F24" s="6">
@@ -16843,14 +16843,14 @@
         <v>-1.0321992186686824</v>
       </c>
       <c r="J24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.02</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M24">
@@ -16864,22 +16864,22 @@
         <v>2.02</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263904135.10722169</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>263.90413510722169</v>
       </c>
       <c r="R24">
         <v>254.63746312974328</v>
       </c>
       <c r="S24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>263.90413510722169</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>263904135.10722169</v>
       </c>
       <c r="U24">
@@ -16898,7 +16898,7 @@
         <v>543.26640510304696</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>543.26640510304696</v>
       </c>
       <c r="AA24">
@@ -16908,11 +16908,11 @@
         <v>0.94046666666166701</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-263904135.10722169</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-263.90413510722169</v>
       </c>
       <c r="AE24">
@@ -16933,11 +16933,11 @@
         <v>2240333333.3333335</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>224.03333333333336</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="6">
@@ -16959,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M25">
@@ -16973,22 +16973,22 @@
         <v>3.01</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>397549830.49507684</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>397.54983049507683</v>
       </c>
       <c r="R25">
         <v>284.06134345033274</v>
       </c>
       <c r="S25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>397.54983049507683</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>397549830.49507684</v>
       </c>
       <c r="U25">
@@ -17007,7 +17007,7 @@
         <v>429.77464486072699</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>429.77464486072699</v>
       </c>
       <c r="AA25">
@@ -17017,11 +17017,11 @@
         <v>1.5386249999924999</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-397549830.49507684</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-397.54983049507683</v>
       </c>
       <c r="AE25">
@@ -17042,11 +17042,11 @@
         <v>3615647477.054337</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>361.56474770543372</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="6">
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M26">
@@ -17082,22 +17082,22 @@
         <v>3.5049999999999999</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>374490143.13936448</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>374.49014313936448</v>
       </c>
       <c r="R26">
         <v>305.70124539884557</v>
       </c>
       <c r="S26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>374.49014313936448</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>374490143.13936448</v>
       </c>
       <c r="U26">
@@ -17116,7 +17116,7 @@
         <v>293.63133617189402</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293.63133617189402</v>
       </c>
       <c r="AA26">
@@ -17126,11 +17126,11 @@
         <v>3.5970249999949999</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-374490143.13936448</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-374.49014313936448</v>
       </c>
       <c r="AE26">
@@ -17151,11 +17151,11 @@
         <v>3519666338.5245414</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>351.96663385245415</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="F27" s="6">
@@ -17171,14 +17171,14 @@
         <v>-1.4937529183309226</v>
       </c>
       <c r="J27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M27">
@@ -17192,22 +17192,22 @@
         <v>4</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>568237409.27342141</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>568.23740927342146</v>
       </c>
       <c r="R27">
         <v>318.3093614615542</v>
       </c>
       <c r="S27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>568.23740927342146</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>568237409.27342141</v>
       </c>
       <c r="U27">
@@ -17226,7 +17226,7 @@
         <v>384.63216488538097</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>384.63216488538097</v>
       </c>
       <c r="AA27">
@@ -17236,11 +17236,11 @@
         <v>6.7202000000058302</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-568237409.27342141</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-568.23740927342146</v>
       </c>
       <c r="AE27">
@@ -17261,11 +17261,11 @@
         <v>3923232122.1278396</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>392.32321221278397</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F28" s="6">
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M28">
@@ -17301,22 +17301,22 @@
         <v>2.5016666666666665</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>213191518.78</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>213.19151878</v>
       </c>
       <c r="R28">
         <v>321.32577310213628</v>
       </c>
       <c r="S28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>213.19151878</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>213191518.78</v>
       </c>
       <c r="U28">
@@ -17335,7 +17335,7 @@
         <v>401.52703667273499</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>401.52703667273499</v>
       </c>
       <c r="AA28">
@@ -17345,11 +17345,11 @@
         <v>14</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-213191518.78</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-213.19151878</v>
       </c>
       <c r="AE28">
@@ -17370,11 +17370,11 @@
         <v>6269511614.6623459</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>626.95116146623457</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="6">
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M29">
@@ -17410,11 +17410,11 @@
         <v>3.6008333333333331</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R29">
@@ -17425,7 +17425,7 @@
         <v>388.36722542196571</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29">
@@ -17444,7 +17444,7 @@
         <v>511.28822370242102</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>511.28822370242102</v>
       </c>
       <c r="AA29" s="3">
@@ -17454,11 +17454,11 @@
         <v>42.841266666666698</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE29">
@@ -17479,11 +17479,11 @@
         <v>6508931651.666667</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650.89316516666668</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7</v>
       </c>
       <c r="F30" s="6">
@@ -17499,14 +17499,14 @@
         <v>4.1762099082506268</v>
       </c>
       <c r="J30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M30">
@@ -17520,22 +17520,22 @@
         <v>4.7</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30">
         <v>305.25958834088448</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30" si="11">(S26+S27+S28+S29)/4</f>
+        <f t="shared" ref="S30" si="12">(S26+S27+S28+S29)/4</f>
         <v>386.07157415368789</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30">
@@ -17554,7 +17554,7 @@
         <v>470.09228354012299</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>470.09228354012299</v>
       </c>
       <c r="AA30" s="3">
@@ -17564,11 +17564,11 @@
         <v>106.135833333333</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE30">
@@ -17589,11 +17589,11 @@
         <v>5276480985.9993658</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527.64809859993659</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.76</v>
       </c>
       <c r="F31" s="6">
@@ -17609,14 +17609,14 @@
         <v>8.7535298893615998</v>
       </c>
       <c r="J31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.76</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M31">
@@ -17630,11 +17630,11 @@
         <v>1.76</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R31">
@@ -17645,7 +17645,7 @@
         <v>388.96693190726876</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31">
@@ -17664,7 +17664,7 @@
         <v>384.99517293613701</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>384.99517293613701</v>
       </c>
       <c r="AA31" s="3">
@@ -17674,11 +17674,11 @@
         <v>223.09160630809001</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE31">
@@ -17699,11 +17699,11 @@
         <v>4304398865.8826799</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>430.439886588268</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.91</v>
       </c>
       <c r="F32" s="6">
@@ -17719,14 +17719,14 @@
         <v>15.227217415233927</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.91</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M32">
@@ -17740,11 +17740,11 @@
         <v>5.91</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R32">
@@ -17755,7 +17755,7 @@
         <v>344.14931256573061</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32">
@@ -17774,7 +17774,7 @@
         <v>244.39075838208399</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>244.39075838208399</v>
       </c>
       <c r="AA32" s="3">
@@ -17784,11 +17784,11 @@
         <v>428.85466666666701</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE32">
@@ -17809,11 +17809,11 @@
         <v>3321729057.1221542</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332.17290571221542</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F33" s="6">
@@ -17829,14 +17829,14 @@
         <v>23.863494896093219</v>
       </c>
       <c r="J33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K33" s="3">
         <v>-1000000</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="M33">
@@ -17846,15 +17846,15 @@
         <v>-1</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:O62" si="12">ABS(K33/1000000)</f>
+        <f t="shared" ref="O33:O62" si="13">ABS(K33/1000000)</f>
         <v>1</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R33">
@@ -17865,7 +17865,7 @@
         <v>376.88876101216329</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33">
@@ -17884,7 +17884,7 @@
         <v>179.474769912619</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>179.474769912619</v>
       </c>
       <c r="AA33" s="3">
@@ -17894,11 +17894,11 @@
         <v>734.00991666666698</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE33">
@@ -17919,11 +17919,11 @@
         <v>2857457860.0508757</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>285.74578600508755</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F34" s="6">
@@ -17939,14 +17939,14 @@
         <v>34.835412568012742</v>
       </c>
       <c r="J34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="K34" s="3">
         <v>-3000000</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="M34">
@@ -17956,26 +17956,26 @@
         <v>-3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214354821.6259113</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>214.35482162591128</v>
       </c>
       <c r="R34">
         <v>235.93694920093367</v>
       </c>
       <c r="S34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>214.35482162591128</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214354821.6259113</v>
       </c>
       <c r="U34">
@@ -17994,7 +17994,7 @@
         <v>120.252259985827</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120.252259985827</v>
       </c>
       <c r="AA34">
@@ -18004,11 +18004,11 @@
         <v>1133.8343333333301</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-214354821.6259113</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-214.35482162591128</v>
       </c>
       <c r="AE34">
@@ -18029,11 +18029,11 @@
         <v>3220439044.1894865</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>322.04390441894867</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.6</v>
       </c>
       <c r="F35" s="6">
@@ -18049,14 +18049,14 @@
         <v>48.087385718104841</v>
       </c>
       <c r="J35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54.6</v>
       </c>
       <c r="K35" s="3">
         <v>-54600000</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54.6</v>
       </c>
       <c r="M35">
@@ -18066,26 +18066,26 @@
         <v>-54.6</v>
       </c>
       <c r="O35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>54.6</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87422554.59751673</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87.422554597516736</v>
       </c>
       <c r="R35">
         <v>231.77740070007931</v>
       </c>
       <c r="S35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>87.422554597516736</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87422554.59751673</v>
       </c>
       <c r="U35">
@@ -18104,7 +18104,7 @@
         <v>118.786060581379</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118.786060581379</v>
       </c>
       <c r="AA35">
@@ -18114,11 +18114,11 @@
         <v>1195.01675</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-87422554.59751673</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-87.422554597516736</v>
       </c>
       <c r="AE35">
@@ -18139,11 +18139,11 @@
         <v>3990430446.7121596</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>399.04304467121597</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.2</v>
       </c>
       <c r="F36" s="6">
@@ -18159,14 +18159,14 @@
         <v>63.2454755078017</v>
       </c>
       <c r="J36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>88.2</v>
       </c>
       <c r="K36" s="3">
         <v>-88200000</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-88.2</v>
       </c>
       <c r="M36">
@@ -18176,26 +18176,26 @@
         <v>-88.2</v>
       </c>
       <c r="O36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>88.2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65293135.678460225</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.293135678460231</v>
       </c>
       <c r="R36">
         <v>242.89616666136621</v>
       </c>
       <c r="S36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65.293135678460231</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65293135.678460225</v>
       </c>
       <c r="U36">
@@ -18214,7 +18214,7 @@
         <v>148.49891681729699</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>148.49891681729699</v>
       </c>
       <c r="AA36">
@@ -18224,11 +18224,11 @@
         <v>979.44541666666703</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65293135.678460225</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.293135678460231</v>
       </c>
       <c r="AE36">
@@ -18249,11 +18249,11 @@
         <v>5755818947.4212494</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>575.58189474212497</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121.2</v>
       </c>
       <c r="F37" s="6">
@@ -18269,14 +18269,14 @@
         <v>80.000869241354479</v>
       </c>
       <c r="J37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121.2</v>
       </c>
       <c r="K37" s="3">
         <v>-121200000</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-121.2</v>
       </c>
       <c r="M37">
@@ -18286,26 +18286,26 @@
         <v>-121.2</v>
       </c>
       <c r="O37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>121.2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>182325003.39069813</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>182.32500339069813</v>
       </c>
       <c r="R37">
         <v>273.0376396942421</v>
       </c>
       <c r="S37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>182.32500339069813</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>182325003.39069813</v>
       </c>
       <c r="U37">
@@ -18324,7 +18324,7 @@
         <v>145.151216117594</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145.151216117594</v>
       </c>
       <c r="AA37">
@@ -18334,11 +18334,11 @@
         <v>968.91666666666697</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>182325003.39069813</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>182.32500339069813</v>
       </c>
       <c r="AE37">
@@ -18359,11 +18359,11 @@
         <v>6044585326.9380007</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>604.45853269380007</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="F38" s="6">
@@ -18379,14 +18379,14 @@
         <v>98.294299467936284</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="K38" s="3">
         <v>-121000000</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-121</v>
       </c>
       <c r="M38">
@@ -18396,26 +18396,26 @@
         <v>-121</v>
       </c>
       <c r="O38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>121</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241212971.86049601</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>241.21297186049603</v>
       </c>
       <c r="R38">
         <v>324.1701820983256</v>
       </c>
       <c r="S38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241.21297186049603</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>241212971.86049601</v>
       </c>
       <c r="U38">
@@ -18434,7 +18434,7 @@
         <v>145.534630500829</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145.534630500829</v>
       </c>
       <c r="AA38">
@@ -18444,11 +18444,11 @@
         <v>1046.08475</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>241212971.86049601</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>241.21297186049603</v>
       </c>
       <c r="AE38">
@@ -18469,11 +18469,11 @@
         <v>6269333313.1710835</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>626.93333131710835</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="F39" s="6">
@@ -18489,14 +18489,14 @@
         <v>118.47849004430667</v>
       </c>
       <c r="J39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>175</v>
       </c>
       <c r="K39" s="3">
         <v>-175000000</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-175</v>
       </c>
       <c r="M39">
@@ -18506,26 +18506,26 @@
         <v>-175</v>
       </c>
       <c r="O39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>361624939.76521838</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>361.62493976521836</v>
       </c>
       <c r="R39">
         <v>397.35502981019982</v>
       </c>
       <c r="S39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>361.62493976521836</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361624939.76521838</v>
       </c>
       <c r="U39">
@@ -18544,7 +18544,7 @@
         <v>152.516808731092</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>152.516808731092</v>
       </c>
       <c r="AA39">
@@ -18554,11 +18554,11 @@
         <v>1083.00866666667</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>361624939.76521838</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>361.62493976521836</v>
       </c>
       <c r="AE39">
@@ -18579,11 +18579,11 @@
         <v>6584815846.5275383</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>658.48158465275378</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="F40" s="6">
@@ -18599,14 +18599,14 @@
         <v>141.13322183254587</v>
       </c>
       <c r="J40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>210</v>
       </c>
       <c r="K40" s="3">
         <v>-210000000</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-210</v>
       </c>
       <c r="M40">
@@ -18616,26 +18616,26 @@
         <v>-210</v>
       </c>
       <c r="O40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>210</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>527841472.59869701</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>527.84147259869701</v>
       </c>
       <c r="R40">
         <v>492.82384666406972</v>
       </c>
       <c r="S40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>527.84147259869701</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>527841472.59869701</v>
       </c>
       <c r="U40">
@@ -18654,7 +18654,7 @@
         <v>135.617944882106</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>135.617944882106</v>
       </c>
       <c r="AA40">
@@ -18664,11 +18664,11 @@
         <v>1240.3058333333299</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>527841472.59869701</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>527.84147259869701</v>
       </c>
       <c r="AE40">
@@ -18689,11 +18689,11 @@
         <v>5998563257.9465895</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>599.85632579465891</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140.19999999999999</v>
       </c>
       <c r="F41" s="6">
@@ -18709,14 +18709,14 @@
         <v>167.403490794291</v>
       </c>
       <c r="J41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>140.19999999999999</v>
       </c>
       <c r="K41" s="3">
         <v>-140200000</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-140.19999999999999</v>
       </c>
       <c r="M41">
@@ -18726,26 +18726,26 @@
         <v>-140.19999999999999</v>
       </c>
       <c r="O41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>140.19999999999999</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>543142419.43915975</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>543.14241943915977</v>
       </c>
       <c r="R41">
         <v>610.4509955936901</v>
       </c>
       <c r="S41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>543.14241943915977</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>543142419.43915975</v>
       </c>
       <c r="U41">
@@ -18764,7 +18764,7 @@
         <v>123.43242395845</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123.43242395845</v>
       </c>
       <c r="AA41">
@@ -18774,11 +18774,11 @@
         <v>1454.8271666666701</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>543142419.43915975</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>543.14241943915977</v>
       </c>
       <c r="AE41">
@@ -18799,11 +18799,11 @@
         <v>6193246837.0968733</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>619.32468370968729</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160.69999999999999</v>
       </c>
       <c r="F42" s="6">
@@ -18819,14 +18819,14 @@
         <v>199.12296067285374</v>
       </c>
       <c r="J42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>160.69999999999999</v>
       </c>
       <c r="K42" s="3">
         <v>-160700000</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-160.69999999999999</v>
       </c>
       <c r="M42">
@@ -18836,26 +18836,26 @@
         <v>-160.69999999999999</v>
       </c>
       <c r="O42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>160.69999999999999</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>727673816.94210827</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>727.67381694210826</v>
       </c>
       <c r="R42">
         <v>750.46101579216236</v>
       </c>
       <c r="S42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>727.67381694210826</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>727673816.94210827</v>
       </c>
       <c r="U42">
@@ -18874,7 +18874,7 @@
         <v>117.002584885845</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117.002584885845</v>
       </c>
       <c r="AA42">
@@ -18884,11 +18884,11 @@
         <v>1644.4753333333299</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>727673816.94210827</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>727.67381694210826</v>
       </c>
       <c r="AE42">
@@ -18909,11 +18909,11 @@
         <v>5840503868.5724554</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>584.05038685724548</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151.496150651927</v>
       </c>
       <c r="F43" s="6">
@@ -18929,14 +18929,14 @@
         <v>237.8532603036027</v>
       </c>
       <c r="J43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>151.496150651927</v>
       </c>
       <c r="K43" s="3">
         <v>-151496150.65192699</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-151.496150651927</v>
       </c>
       <c r="M43">
@@ -18946,26 +18946,26 @@
         <v>-151.496150651927</v>
       </c>
       <c r="O43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>151.496150651927</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>819997644.016276</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>819.99764401627601</v>
       </c>
       <c r="R43">
         <v>912.40536069104223</v>
       </c>
       <c r="S43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>819.99764401627601</v>
       </c>
       <c r="T43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>819997644.016276</v>
       </c>
       <c r="U43">
@@ -18984,7 +18984,7 @@
         <v>114.128259060837</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>114.128259060837</v>
       </c>
       <c r="AA43">
@@ -18994,11 +18994,11 @@
         <v>1755.6587500000001</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>819997644.016276</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>819.99764401627601</v>
       </c>
       <c r="AE43">
@@ -19019,11 +19019,11 @@
         <v>6178563590.8925371</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>617.85635908925371</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.6480591975</v>
       </c>
       <c r="F44" s="6">
@@ -19039,14 +19039,14 @@
         <v>284.77178891517821</v>
       </c>
       <c r="J44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>184.6480591975</v>
       </c>
       <c r="K44" s="3">
         <v>-184648059.19749999</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-184.6480591975</v>
       </c>
       <c r="M44">
@@ -19056,26 +19056,26 @@
         <v>-184.6480591975</v>
       </c>
       <c r="O44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>184.6480591975</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>819026427.10593104</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>819.02642710593102</v>
       </c>
       <c r="R44">
         <v>1095.6076117333851</v>
       </c>
       <c r="S44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>819.02642710593102</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>819026427.10593104</v>
       </c>
       <c r="U44">
@@ -19094,7 +19094,7 @@
         <v>109.21191184217101</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>109.21191184217101</v>
       </c>
       <c r="AA44">
@@ -19104,11 +19104,11 @@
         <v>1797.5505000000001</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>819026427.10593104</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>819.02642710593102</v>
       </c>
       <c r="AE44">
@@ -19129,11 +19129,11 @@
         <v>6606884390.7801886</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>660.68843907801886</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>202.19259361849998</v>
       </c>
       <c r="F45" s="6">
@@ -19149,14 +19149,14 @@
         <v>340.19237463970364</v>
       </c>
       <c r="J45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>202.19259361849998</v>
       </c>
       <c r="K45" s="3">
         <v>-202192593.61849999</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-202.19259361849998</v>
       </c>
       <c r="M45">
@@ -19166,26 +19166,26 @@
         <v>-202.19259361849998</v>
       </c>
       <c r="O45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>202.19259361849998</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1129661811.2019482</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1129.6618112019482</v>
       </c>
       <c r="R45">
         <v>1298.4672731954984</v>
       </c>
       <c r="S45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1129.6618112019482</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1129661811.2019482</v>
       </c>
       <c r="U45">
@@ -19204,7 +19204,7 @@
         <v>95.845581597459301</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.845581597459301</v>
       </c>
       <c r="AA45">
@@ -19214,11 +19214,11 @@
         <v>1963.72008333333</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1129661811.2019482</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1129.6618112019482</v>
       </c>
       <c r="AE45">
@@ -19239,11 +19239,11 @@
         <v>7939487473.8631821</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>793.94874738631825</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>295.416479800692</v>
       </c>
       <c r="F46" s="6">
@@ -19259,14 +19259,14 @@
         <v>403.42760831212564</v>
       </c>
       <c r="J46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>295.416479800692</v>
       </c>
       <c r="K46" s="3">
         <v>-295416479.80069202</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-295.416479800692</v>
       </c>
       <c r="M46">
@@ -19276,26 +19276,26 @@
         <v>-295.416479800692</v>
       </c>
       <c r="O46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>295.416479800692</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1386659074.6619284</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1386.6590746619283</v>
       </c>
       <c r="R46">
         <v>1516.618037507415</v>
       </c>
       <c r="S46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1386.6590746619283</v>
       </c>
       <c r="T46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1386659074.6619284</v>
       </c>
       <c r="U46">
@@ -19314,7 +19314,7 @@
         <v>99.447858634069306</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.447858634069306</v>
       </c>
       <c r="AA46">
@@ -19324,11 +19324,11 @@
         <v>1810.3047136515099</v>
       </c>
       <c r="AC46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1386659074.6619284</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1386.6590746619283</v>
       </c>
       <c r="AE46">
@@ -19349,11 +19349,11 @@
         <v>9239221858.5583878</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>923.92218585583873</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>379.80834066706097</v>
       </c>
       <c r="F47" s="6">
@@ -19369,14 +19369,14 @@
         <v>472.41008295717882</v>
       </c>
       <c r="J47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>379.80834066706097</v>
       </c>
       <c r="K47" s="3">
         <v>-379808340.66706097</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-379.80834066706097</v>
       </c>
       <c r="M47">
@@ -19386,26 +19386,26 @@
         <v>-379.80834066706097</v>
       </c>
       <c r="O47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>379.80834066706097</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1504839808.1482399</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1504.8398081482399</v>
       </c>
       <c r="R47">
         <v>1744.0055424792326</v>
       </c>
       <c r="S47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1504.8398081482399</v>
       </c>
       <c r="T47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1504839808.1482399</v>
       </c>
       <c r="U47">
@@ -19424,7 +19424,7 @@
         <v>104.161592504748</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104.161592504748</v>
       </c>
       <c r="AA47">
@@ -19434,11 +19434,11 @@
         <v>1780.54026086523</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1504839808.1482399</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1504.8398081482399</v>
       </c>
       <c r="AE47">
@@ -19459,11 +19459,11 @@
         <v>9977647644.6995258</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>997.76476446995264</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>644.26249994651198</v>
       </c>
       <c r="F48" s="6">
@@ -19479,14 +19479,14 @@
         <v>543.99228031448342</v>
       </c>
       <c r="J48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>644.26249994651198</v>
       </c>
       <c r="K48" s="3">
         <v>-644262499.94651198</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-644.26249994651198</v>
       </c>
       <c r="M48">
@@ -19496,26 +19496,26 @@
         <v>-644.26249994651198</v>
       </c>
       <c r="O48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>644.26249994651198</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2066662555.945504</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2066.6625559455038</v>
       </c>
       <c r="R48">
         <v>1973.275836292594</v>
       </c>
       <c r="S48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2066.6625559455038</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2066662555.945504</v>
       </c>
       <c r="U48">
@@ -19534,7 +19534,7 @@
         <v>104.377585567366</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104.377585567366</v>
       </c>
       <c r="AA48">
@@ -19544,11 +19544,11 @@
         <v>1831.45185089088</v>
       </c>
       <c r="AC48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2066662555.945504</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2066.6625559455038</v>
       </c>
       <c r="AE48">
@@ -19569,11 +19569,11 @@
         <v>11902564401.323843</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1190.2564401323843</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>792.30578089124401</v>
       </c>
       <c r="F49" s="6">
@@ -19589,14 +19589,14 @@
         <v>614.10066470075878</v>
       </c>
       <c r="J49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>792.30578089124401</v>
       </c>
       <c r="K49" s="3">
         <v>-792305780.89124405</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-792.30578089124401</v>
       </c>
       <c r="M49">
@@ -19606,26 +19606,26 @@
         <v>-792.30578089124401</v>
       </c>
       <c r="O49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>792.30578089124401</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2867678353.7252097</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2867.6783537252095</v>
       </c>
       <c r="R49">
         <v>2194.6833097858325</v>
       </c>
       <c r="S49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2867.6783537252095</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2867678353.7252097</v>
       </c>
       <c r="U49">
@@ -19644,7 +19644,7 @@
         <v>107.96589537320899</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107.96589537320899</v>
       </c>
       <c r="AA49">
@@ -19654,11 +19654,11 @@
         <v>1723.49158714041</v>
       </c>
       <c r="AC49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2867678353.7252097</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2867.6783537252095</v>
       </c>
       <c r="AE49">
@@ -19679,11 +19679,11 @@
         <v>14440404021.488146</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1444.0404021488146</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>728.86090065240796</v>
       </c>
       <c r="F50" s="6">
@@ -19699,14 +19699,14 @@
         <v>679.66440262904428</v>
       </c>
       <c r="J50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>728.86090065240796</v>
       </c>
       <c r="K50" s="3">
         <v>-728860900.652408</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-728.86090065240796</v>
       </c>
       <c r="M50">
@@ -19716,26 +19716,26 @@
         <v>-728.86090065240796</v>
       </c>
       <c r="O50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>728.86090065240796</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2914601848.0916367</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2914.6018480916368</v>
       </c>
       <c r="R50">
         <v>2399.4162209938104</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2914.6018480916368</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2914601848.0916367</v>
       </c>
       <c r="U50">
@@ -19754,7 +19754,7 @@
         <v>111.311992506636</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111.311992506636</v>
       </c>
       <c r="AA50">
@@ -19764,11 +19764,11 @@
         <v>1720.44387915111</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2914601848.0916367</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2914.6018480916368</v>
       </c>
       <c r="AE50">
@@ -19789,11 +19789,11 @@
         <v>25127805566.451115</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2512.7805566451116</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>841.57080274763598</v>
       </c>
       <c r="F51" s="6">
@@ -19809,14 +19809,14 @@
         <v>739.39471177428413</v>
       </c>
       <c r="J51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>841.57080274763598</v>
       </c>
       <c r="K51" s="3">
         <v>-812720321.69957602</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-812.72032169957606</v>
       </c>
       <c r="M51">
@@ -19826,26 +19826,26 @@
         <v>-812.72032169957606</v>
       </c>
       <c r="O51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>812.72032169957606</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2568892539.4217691</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2568.892539421769</v>
       </c>
       <c r="R51">
         <v>2585.3927783907834</v>
       </c>
       <c r="S51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2568.892539421769</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2568892539.4217691</v>
       </c>
       <c r="U51">
@@ -19864,7 +19864,7 @@
         <v>108.319176300047</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>108.319176300047</v>
       </c>
       <c r="AA51">
@@ -19874,11 +19874,11 @@
         <v>2030.4880743341801</v>
       </c>
       <c r="AC51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2568892539.4217691</v>
       </c>
       <c r="AD51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2568.892539421769</v>
       </c>
       <c r="AE51">
@@ -19899,11 +19899,11 @@
         <v>26673441667.281536</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2667.3441667281536</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>543.87272727272796</v>
       </c>
       <c r="F52" s="6">
@@ -19919,14 +19919,14 @@
         <v>792.49477479165637</v>
       </c>
       <c r="J52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>543.87272727272796</v>
       </c>
       <c r="K52" s="3">
         <v>-506658423.45964003</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-506.65842345964001</v>
       </c>
       <c r="M52">
@@ -19936,26 +19936,26 @@
         <v>-506.65842345964001</v>
       </c>
       <c r="O52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>506.65842345964001</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2834047559.0769792</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2834.0475590769793</v>
       </c>
       <c r="R52">
         <v>2755.6830467219852</v>
       </c>
       <c r="S52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2834.0475590769793</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2834047559.0769792</v>
       </c>
       <c r="U52">
@@ -19974,7 +19974,7 @@
         <v>100</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AA52">
@@ -19984,11 +19984,11 @@
         <v>2177.5575068335802</v>
       </c>
       <c r="AC52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2834047559.0769792</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2834.0475590769793</v>
       </c>
       <c r="AE52">
@@ -20009,11 +20009,11 @@
         <v>27871725205.571438</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2787.1725205571438</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>894.293858</v>
       </c>
       <c r="F53" s="6">
@@ -20029,14 +20029,14 @@
         <v>839.18953524607218</v>
       </c>
       <c r="J53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>894.293858</v>
       </c>
       <c r="K53" s="3">
         <v>-906140427.58727598</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-906.14042758727601</v>
       </c>
       <c r="M53">
@@ -20046,26 +20046,26 @@
         <v>-906.14042758727601</v>
       </c>
       <c r="O53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>906.14042758727601</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2502160672.9999461</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2502.1606729999462</v>
       </c>
       <c r="R53">
         <v>2913.1920883429602</v>
       </c>
       <c r="S53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2502.1606729999462</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2502160672.9999461</v>
       </c>
       <c r="U53">
@@ -20084,7 +20084,7 @@
         <v>93.066503735108299</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93.066503735108299</v>
       </c>
       <c r="AA53">
@@ -20094,11 +20094,11 @@
         <v>2522.8020325226398</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2502160672.9999461</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2502.1606729999462</v>
       </c>
       <c r="AE53">
@@ -20119,11 +20119,11 @@
         <v>27305915761.291759</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2730.5915761291758</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1205.3884877937401</v>
       </c>
       <c r="F54" s="6">
@@ -20139,14 +20139,14 @@
         <v>877.21771622725419</v>
       </c>
       <c r="J54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1205.3884877937401</v>
       </c>
       <c r="K54" s="3">
         <v>-1159051459.72053</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1159.0514597205299</v>
       </c>
       <c r="M54">
@@ -20156,26 +20156,26 @@
         <v>-1159.0514597205299</v>
       </c>
       <c r="O54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1159.0514597205299</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3375618721.4940119</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3375.6187214940119</v>
       </c>
       <c r="R54">
         <v>3061.6086107328024</v>
       </c>
       <c r="S54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3375.6187214940119</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3375618721.4940119</v>
       </c>
       <c r="U54">
@@ -20194,7 +20194,7 @@
         <v>103.581529116697</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103.581529116697</v>
       </c>
       <c r="AA54">
@@ -20204,11 +20204,11 @@
         <v>2504.5630775832801</v>
       </c>
       <c r="AC54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3375618721.4940119</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3375.6187214940119</v>
       </c>
       <c r="AE54">
@@ -20229,11 +20229,11 @@
         <v>28915786996.551834</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2891.5786996551833</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1096</v>
       </c>
       <c r="F55" s="6">
@@ -20249,14 +20249,14 @@
         <v>904.86908405246425</v>
       </c>
       <c r="J55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1096</v>
       </c>
       <c r="K55" s="3">
         <v>-1051622922.49344</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1051.62292249344</v>
       </c>
       <c r="M55">
@@ -20266,26 +20266,26 @@
         <v>-1051.62292249344</v>
       </c>
       <c r="O55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1051.62292249344</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3289665909.3899994</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3289.6659093899993</v>
       </c>
       <c r="R55">
         <v>3200.5110072171765</v>
       </c>
       <c r="S55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3289.6659093899993</v>
       </c>
       <c r="T55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3289665909.3899994</v>
       </c>
       <c r="U55">
@@ -20304,7 +20304,7 @@
         <v>104.487341700489</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104.487341700489</v>
       </c>
       <c r="AA55">
@@ -20314,11 +20314,11 @@
         <v>2586.8895685656098</v>
       </c>
       <c r="AC55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3289665909.3899994</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3289.6659093899993</v>
       </c>
       <c r="AE55">
@@ -20339,11 +20339,11 @@
         <v>32612397758.45789</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3261.2397758457892</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1058.56454034685</v>
       </c>
       <c r="F56" s="6">
@@ -20359,14 +20359,14 @@
         <v>923.71511275462922</v>
       </c>
       <c r="J56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1058.56454034685</v>
       </c>
       <c r="K56" s="3">
         <v>-1031546242.99492</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1031.54624299492</v>
       </c>
       <c r="M56">
@@ -20376,26 +20376,26 @@
         <v>-1031.54624299492</v>
       </c>
       <c r="O56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1031.54624299492</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3318165174.3066821</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3318.1651743066823</v>
       </c>
       <c r="R56">
         <v>3332.6177722293596</v>
       </c>
       <c r="S56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3318.1651743066823</v>
       </c>
       <c r="T56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3318165174.3066821</v>
       </c>
       <c r="U56">
@@ -20414,7 +20414,7 @@
         <v>106.106235195211</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106.106235195211</v>
       </c>
       <c r="AA56">
@@ -20424,11 +20424,11 @@
         <v>2599.7882006106702</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3318165174.3066821</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3318.1651743066823</v>
       </c>
       <c r="AE56">
@@ -20449,11 +20449,11 @@
         <v>32387183844.669861</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3238.7183844669862</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>737.65214015142794</v>
       </c>
       <c r="F57" s="6">
@@ -20469,14 +20469,14 @@
         <v>937.23858552615116</v>
       </c>
       <c r="J57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>737.65214015142794</v>
       </c>
       <c r="K57" s="3">
         <v>-737369521.05303395</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-737.36952105303396</v>
       </c>
       <c r="M57">
@@ -20486,26 +20486,26 @@
         <v>-737.36952105303396</v>
       </c>
       <c r="O57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>737.36952105303396</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3164648658.7574968</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3164.6486587574968</v>
       </c>
       <c r="R57">
         <v>3461.5389492243567</v>
       </c>
       <c r="S57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3164.6486587574968</v>
       </c>
       <c r="T57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3164648658.7574968</v>
       </c>
       <c r="U57">
@@ -20524,7 +20524,7 @@
         <v>100.98705396656</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100.98705396656</v>
       </c>
       <c r="AA57">
@@ -20534,11 +20534,11 @@
         <v>3240.64542033826</v>
       </c>
       <c r="AC57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3164648658.7574968</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3164.6486587574968</v>
       </c>
       <c r="AE57">
@@ -20559,11 +20559,11 @@
         <v>29203988814.897266</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2920.3988814897266</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>625.70436186706809</v>
       </c>
       <c r="F58" s="6">
@@ -20579,14 +20579,14 @@
         <v>950.27077983535401</v>
       </c>
       <c r="J58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>625.70436186706809</v>
       </c>
       <c r="K58" s="3">
         <v>-625558964.16211998</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-625.55896416211999</v>
       </c>
       <c r="M58">
@@ -20596,26 +20596,26 @@
         <v>-625.55896416211999</v>
       </c>
       <c r="O58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>625.55896416211999</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3542461759.9501257</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3542.4617599501257</v>
       </c>
       <c r="R58">
         <v>3590.7400556779444</v>
       </c>
       <c r="S58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3542.4617599501257</v>
       </c>
       <c r="T58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3542461759.9501257</v>
       </c>
       <c r="U58">
@@ -20634,7 +20634,7 @@
         <v>96.130690827214494</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.130690827214494</v>
       </c>
       <c r="AA58">
@@ -20644,11 +20644,11 @@
         <v>3420.0980072473599</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3542461759.9501257</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3542.4617599501257</v>
       </c>
       <c r="AE58">
@@ -20669,11 +20669,11 @@
         <v>30744473911.531208</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3074.4473911531209</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>802.70414100856806</v>
       </c>
       <c r="F59" s="6">
@@ -20689,14 +20689,14 @@
         <v>965.64710869681471</v>
       </c>
       <c r="J59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>802.70414100856806</v>
       </c>
       <c r="K59" s="3">
         <v>-802400008.75549996</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-802.40000875549993</v>
       </c>
       <c r="M59">
@@ -20706,26 +20706,26 @@
         <v>-802.40000875549993</v>
       </c>
       <c r="O59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>802.40000875549993</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3828487035.1917939</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3828.4870351917939</v>
       </c>
       <c r="R59">
         <v>3720.7177061612329</v>
       </c>
       <c r="S59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3828.4870351917939</v>
       </c>
       <c r="T59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3828487035.1917939</v>
       </c>
       <c r="U59">
@@ -20744,7 +20744,7 @@
         <v>93.678152818193894</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93.678152818193894</v>
       </c>
       <c r="AA59">
@@ -20754,11 +20754,11 @@
         <v>3611.2244580446099</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3828487035.1917939</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3828.4870351917939</v>
       </c>
       <c r="AE59">
@@ -20779,11 +20779,11 @@
         <v>32927025573.429642</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3292.7025573429642</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1055.3533526303299</v>
       </c>
       <c r="F60" s="6">
@@ -20799,14 +20799,14 @@
         <v>982.957320945427</v>
       </c>
       <c r="J60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1055.3533526303299</v>
       </c>
       <c r="K60" s="3">
         <v>-1055031706.52842</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1055.03170652842</v>
       </c>
       <c r="M60">
@@ -20816,26 +20816,26 @@
         <v>-1055.03170652842</v>
       </c>
       <c r="O60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1055.03170652842</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3740268599.5106869</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3740.2685995106867</v>
       </c>
       <c r="R60">
         <v>3851.4857322880521</v>
       </c>
       <c r="S60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3740.2685995106867</v>
       </c>
       <c r="T60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3740268599.5106869</v>
       </c>
       <c r="U60">
@@ -20854,7 +20854,7 @@
         <v>90.086175339845695</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90.086175339845695</v>
       </c>
       <c r="AA60">
@@ -20864,11 +20864,11 @@
         <v>3727.0689948461199</v>
       </c>
       <c r="AC60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3740268599.5106869</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3740.2685995106867</v>
       </c>
       <c r="AE60">
@@ -20889,11 +20889,11 @@
         <v>35353060634.202171</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3535.306063420217</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1273.8855862508599</v>
       </c>
       <c r="F61" s="6">
@@ -20909,14 +20909,14 @@
         <v>1000.1617357392022</v>
       </c>
       <c r="J61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1273.8855862508599</v>
       </c>
       <c r="K61" s="3">
         <v>-1273559949.03929</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1273.5599490392899</v>
       </c>
       <c r="M61">
@@ -20926,26 +20926,26 @@
         <v>-1273.5599490392899</v>
       </c>
       <c r="O61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1273.5599490392899</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3800074888.9234867</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3800.0748889234869</v>
       </c>
       <c r="R61">
         <v>3984.1356589625379</v>
       </c>
       <c r="S61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3800.0748889234869</v>
       </c>
       <c r="T61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3800074888.9234867</v>
       </c>
       <c r="U61">
@@ -20964,7 +20964,7 @@
         <v>93.296236571518506</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93.296236571518506</v>
       </c>
       <c r="AA61">
@@ -20974,11 +20974,11 @@
         <v>3704.0490716968102</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3800074888.9234867</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3800.0748889234869</v>
       </c>
       <c r="AE61">
@@ -20999,11 +20999,11 @@
         <v>37600368180.939949</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3760.036818093995</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>873.79283455531709</v>
       </c>
       <c r="F62" s="6">
@@ -21019,14 +21019,14 @@
         <v>1015.9446325530004</v>
       </c>
       <c r="J62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>873.79283455531709</v>
       </c>
       <c r="K62" s="3">
         <v>-873468225.23084199</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-873.46822523084199</v>
       </c>
       <c r="M62">
@@ -21036,26 +21036,26 @@
         <v>-873.46822523084199</v>
       </c>
       <c r="O62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>873.46822523084199</v>
       </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4304772252.1639128</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4304.7722521639125</v>
       </c>
       <c r="R62">
         <v>4118.6468397610524</v>
       </c>
       <c r="S62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4304.7722521639125</v>
       </c>
       <c r="T62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4304772252.1639128</v>
       </c>
       <c r="U62">
@@ -21074,7 +21074,7 @@
         <v>94.995621691551804</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94.995621691551804</v>
       </c>
       <c r="AA62">
@@ -21084,11 +21084,11 @@
         <v>3718.2489227092401</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4304772252.1639128</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4304.7722521639125</v>
       </c>
       <c r="AE62">
@@ -21116,8 +21116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087DEE86-06A2-41A7-B0C0-F7E482406901}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21128,6 +21128,8 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -21164,13 +21166,12 @@
         <v>4.1599515705795405E-2</v>
       </c>
       <c r="D2">
-        <v>-4.6285602728853487E-2</v>
+        <v>4.6285602728853487E-2</v>
       </c>
       <c r="E2">
         <v>-5.8861599139573242</v>
       </c>
       <c r="F2">
-        <f>B2-E2</f>
         <v>48.186998488380802</v>
       </c>
       <c r="G2">
@@ -21188,13 +21189,12 @@
         <v>1.6694679146419852E-2</v>
       </c>
       <c r="D3">
-        <v>-3.6153897331185181E-2</v>
+        <v>3.6153897331185181E-2</v>
       </c>
       <c r="E3">
         <v>0.20908175349728353</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F62" si="0">B3-E3</f>
         <v>43.943329147970218</v>
       </c>
       <c r="G3">
@@ -21209,16 +21209,15 @@
         <v>44.901257861635223</v>
       </c>
       <c r="C4">
-        <v>-8.6261525700136593E-3</v>
+        <v>8.6261525700136593E-3</v>
       </c>
       <c r="D4">
-        <v>-2.5559335906228334E-2</v>
+        <v>2.5559335906228334E-2</v>
       </c>
       <c r="E4">
         <v>6.3631850200914641</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
         <v>38.538072841543759</v>
       </c>
       <c r="G4">
@@ -21233,16 +21232,15 @@
         <v>51.614779874213838</v>
       </c>
       <c r="C5">
-        <v>-3.4945921392027277E-2</v>
+        <v>3.4945921392027277E-2</v>
       </c>
       <c r="D5">
-        <v>-1.3677523453382568E-2</v>
+        <v>1.3677523453382568E-2</v>
       </c>
       <c r="E5">
         <v>12.632920667429818</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
         <v>38.981859206784023</v>
       </c>
       <c r="G5">
@@ -21257,7 +21255,7 @@
         <v>58.905660377358494</v>
       </c>
       <c r="C6">
-        <v>-6.2761307742443012E-2</v>
+        <v>6.2761307742443012E-2</v>
       </c>
       <c r="D6">
         <v>5.7152838701477957E-4</v>
@@ -21266,7 +21264,6 @@
         <v>19.011427626916035</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
         <v>39.894232750442455</v>
       </c>
       <c r="G6">
@@ -21281,7 +21278,7 @@
         <v>88.487394957983184</v>
       </c>
       <c r="C7">
-        <v>-9.2219532830162598E-2</v>
+        <v>9.2219532830162598E-2</v>
       </c>
       <c r="D7">
         <v>1.8404583209160205E-2</v>
@@ -21290,7 +21287,6 @@
         <v>25.365515623279499</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>63.121879334703685</v>
       </c>
       <c r="G7">
@@ -21305,7 +21301,7 @@
         <v>92.577030812324921</v>
       </c>
       <c r="C8">
-        <v>-0.12284020478666334</v>
+        <v>0.12284020478666334</v>
       </c>
       <c r="D8">
         <v>4.1032689323380056E-2</v>
@@ -21314,7 +21310,6 @@
         <v>30.239395181856363</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
         <v>62.337635630468554</v>
       </c>
       <c r="G8">
@@ -21329,7 +21324,7 @@
         <v>96.764705882352942</v>
       </c>
       <c r="C9">
-        <v>-0.15322073641512088</v>
+        <v>0.15322073641512088</v>
       </c>
       <c r="D9">
         <v>6.9482849207909078E-2</v>
@@ -21338,7 +21333,6 @@
         <v>37.197954603709228</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
         <v>59.566751278643714</v>
       </c>
       <c r="G9">
@@ -21353,7 +21347,7 @@
         <v>103.78151260504201</v>
       </c>
       <c r="C10">
-        <v>-0.18073013847084421</v>
+        <v>0.18073013847084421</v>
       </c>
       <c r="D10">
         <v>0.10437173844774821</v>
@@ -21362,7 +21356,6 @@
         <v>48.774785055523132</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
         <v>55.006727549518878</v>
       </c>
       <c r="G10">
@@ -21377,7 +21370,7 @@
         <v>116.90476190476188</v>
       </c>
       <c r="C11">
-        <v>-0.20120521434499111</v>
+        <v>0.20120521434499111</v>
       </c>
       <c r="D11">
         <v>0.14562120413581928</v>
@@ -21386,7 +21379,6 @@
         <v>59.907407191947556</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
         <v>56.997354712814328</v>
       </c>
       <c r="G11">
@@ -21401,7 +21393,7 @@
         <v>126.00840336134453</v>
       </c>
       <c r="C12">
-        <v>-0.2086754660440111</v>
+        <v>0.2086754660440111</v>
       </c>
       <c r="D12">
         <v>4.2</v>
@@ -21410,7 +21402,6 @@
         <v>64.750797919289525</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
         <v>61.257605442055009</v>
       </c>
       <c r="G12">
@@ -21425,16 +21416,15 @@
         <v>141.77871148459383</v>
       </c>
       <c r="C13">
-        <v>-0.19515834343090385</v>
+        <v>0.19515834343090385</v>
       </c>
       <c r="D13">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
       <c r="E13">
         <v>19.156524971745259</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
         <v>122.62218651284857</v>
       </c>
       <c r="G13">
@@ -21449,16 +21439,15 @@
         <v>149.15966386554621</v>
       </c>
       <c r="C14">
-        <v>-0.15058454170822888</v>
+        <v>0.15058454170822888</v>
       </c>
       <c r="D14">
-        <v>-11.9</v>
+        <v>11.9</v>
       </c>
       <c r="E14">
         <v>20.458245837947395</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
         <v>128.70141802759881</v>
       </c>
       <c r="G14">
@@ -21473,7 +21462,7 @@
         <v>170.25210084033614</v>
       </c>
       <c r="C15">
-        <v>-6.2933172644236757E-2</v>
+        <v>6.2933172644236757E-2</v>
       </c>
       <c r="D15">
         <v>5.2</v>
@@ -21482,7 +21471,6 @@
         <v>13.206360509624986</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
         <v>157.04574033071117</v>
       </c>
       <c r="G15">
@@ -21506,7 +21494,6 @@
         <v>-4.5847016226436983</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
         <v>214.5989669578791</v>
       </c>
       <c r="G16">
@@ -21530,7 +21517,6 @@
         <v>9.9822234951098423</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
         <v>225.97333206044573</v>
       </c>
       <c r="G17">
@@ -21554,7 +21540,6 @@
         <v>13.270868593361518</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
         <v>231.45913140663848</v>
       </c>
       <c r="G18">
@@ -21578,7 +21563,6 @@
         <v>20.649110502945412</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
         <v>272.99794832058399</v>
       </c>
       <c r="G19">
@@ -21602,7 +21586,6 @@
         <v>33.67899583495138</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
         <v>208.34709112157037</v>
       </c>
       <c r="G20">
@@ -21626,7 +21609,6 @@
         <v>-17.286021155568488</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
         <v>231.18852115556848</v>
       </c>
       <c r="G21">
@@ -21650,7 +21632,6 @@
         <v>-87.136723151695918</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
         <v>211.5977231516959</v>
       </c>
       <c r="G22">
@@ -21668,13 +21649,12 @@
         <v>3.4179475290941856</v>
       </c>
       <c r="D23">
-        <v>-2.3625572045533882</v>
+        <v>2.3625572045533882</v>
       </c>
       <c r="E23">
         <v>-342.31830259454443</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
         <v>476.04830259454445</v>
       </c>
       <c r="G23">
@@ -21698,7 +21678,6 @@
         <v>-263.90413510722169</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
         <v>481.65413510722169</v>
       </c>
       <c r="G24">
@@ -21716,13 +21695,12 @@
         <v>4.5901186282132667</v>
       </c>
       <c r="D25">
-        <v>-4.0216204623069256</v>
+        <v>4.0216204623069256</v>
       </c>
       <c r="E25">
         <v>-397.54983049507683</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
         <v>621.58316382841019</v>
       </c>
       <c r="G25">
@@ -21740,13 +21718,12 @@
         <v>4.8254370009247296</v>
       </c>
       <c r="D26">
-        <v>-4.5194269129036027</v>
+        <v>4.5194269129036027</v>
       </c>
       <c r="E26">
         <v>-374.49014313936448</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
         <v>736.05489084479814</v>
       </c>
       <c r="G26">
@@ -21764,13 +21741,12 @@
         <v>4.5901629372564603</v>
       </c>
       <c r="D27">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>-568.23740927342146</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
         <v>920.20404312587561</v>
       </c>
       <c r="G27">
@@ -21788,13 +21764,12 @@
         <v>3.6470060317679205</v>
       </c>
       <c r="D28">
-        <v>-3.7751828242117442</v>
+        <v>3.7751828242117442</v>
       </c>
       <c r="E28">
         <v>-213.19151878</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
         <v>605.51473099278394</v>
       </c>
       <c r="G28">
@@ -21812,13 +21787,12 @@
         <v>1.7127742496460057</v>
       </c>
       <c r="D29">
-        <v>-2.0089345755258172</v>
+        <v>2.0089345755258172</v>
       </c>
       <c r="E29">
         <v>-203.77784497913109</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
         <v>830.72900644536571</v>
       </c>
       <c r="G29">
@@ -21833,7 +21807,7 @@
         <v>650.89316516666668</v>
       </c>
       <c r="C30">
-        <v>-1.5321945042400689</v>
+        <v>1.5321945042400689</v>
       </c>
       <c r="D30">
         <v>4.7</v>
@@ -21842,7 +21816,6 @@
         <v>-176.26671707326352</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
         <v>827.1598822399302</v>
       </c>
       <c r="G30">
@@ -21857,16 +21830,15 @@
         <v>527.64809859993659</v>
       </c>
       <c r="C31">
-        <v>-6.4246900675175471</v>
+        <v>6.4246900675175471</v>
       </c>
       <c r="D31">
-        <v>-1.76</v>
+        <v>1.76</v>
       </c>
       <c r="E31">
         <v>-146.56426549245859</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
         <v>674.21236409239521</v>
       </c>
       <c r="G31">
@@ -21881,16 +21853,15 @@
         <v>430.439886588268</v>
       </c>
       <c r="C32">
-        <v>-13.286180332771274</v>
+        <v>13.286180332771274</v>
       </c>
       <c r="D32">
-        <v>-5.91</v>
+        <v>5.91</v>
       </c>
       <c r="E32">
         <v>-114.54800799931076</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
         <v>544.98789458757869</v>
       </c>
       <c r="G32">
@@ -21905,7 +21876,7 @@
         <v>332.17290571221542</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -21914,7 +21885,6 @@
         <v>-78.629819701489922</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
         <v>410.80272541370533</v>
       </c>
       <c r="G33">
@@ -21929,7 +21899,7 @@
         <v>285.74578600508755</v>
       </c>
       <c r="C34">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -21938,7 +21908,6 @@
         <v>-214.35482162591128</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
         <v>500.10060763099887</v>
       </c>
       <c r="G34">
@@ -21953,7 +21922,7 @@
         <v>322.04390441894867</v>
       </c>
       <c r="C35">
-        <v>-54.6</v>
+        <v>54.6</v>
       </c>
       <c r="D35">
         <v>54.6</v>
@@ -21962,7 +21931,6 @@
         <v>-87.422554597516736</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
         <v>409.46645901646542</v>
       </c>
       <c r="G35">
@@ -21977,7 +21945,7 @@
         <v>399.04304467121597</v>
       </c>
       <c r="C36">
-        <v>-88.2</v>
+        <v>88.2</v>
       </c>
       <c r="D36">
         <v>88.2</v>
@@ -21986,7 +21954,6 @@
         <v>65.293135678460231</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
         <v>333.74990899275576</v>
       </c>
       <c r="G36">
@@ -22001,7 +21968,7 @@
         <v>575.58189474212497</v>
       </c>
       <c r="C37">
-        <v>-121.2</v>
+        <v>121.2</v>
       </c>
       <c r="D37">
         <v>121.2</v>
@@ -22010,7 +21977,6 @@
         <v>182.32500339069813</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
         <v>393.25689135142682</v>
       </c>
       <c r="G37">
@@ -22025,7 +21991,7 @@
         <v>604.45853269380007</v>
       </c>
       <c r="C38">
-        <v>-121</v>
+        <v>121</v>
       </c>
       <c r="D38">
         <v>121</v>
@@ -22034,7 +22000,6 @@
         <v>241.21297186049603</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
         <v>363.24556083330401</v>
       </c>
       <c r="G38">
@@ -22049,7 +22014,7 @@
         <v>626.93333131710835</v>
       </c>
       <c r="C39">
-        <v>-175</v>
+        <v>175</v>
       </c>
       <c r="D39">
         <v>175</v>
@@ -22058,7 +22023,6 @@
         <v>361.62493976521836</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
         <v>265.30839155189</v>
       </c>
       <c r="G39">
@@ -22073,7 +22037,7 @@
         <v>658.48158465275378</v>
       </c>
       <c r="C40">
-        <v>-210</v>
+        <v>210</v>
       </c>
       <c r="D40">
         <v>210</v>
@@ -22082,7 +22046,6 @@
         <v>527.84147259869701</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
         <v>130.64011205405677</v>
       </c>
       <c r="G40">
@@ -22097,7 +22060,7 @@
         <v>599.85632579465891</v>
       </c>
       <c r="C41">
-        <v>-140.19999999999999</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="D41">
         <v>140.19999999999999</v>
@@ -22106,7 +22069,6 @@
         <v>543.14241943915977</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
         <v>56.713906355499148</v>
       </c>
       <c r="G41">
@@ -22121,7 +22083,7 @@
         <v>619.32468370968729</v>
       </c>
       <c r="C42">
-        <v>-160.69999999999999</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="D42">
         <v>160.69999999999999</v>
@@ -22130,8 +22092,7 @@
         <v>727.67381694210826</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>-108.34913323242097</v>
+        <v>108.34913323242097</v>
       </c>
       <c r="G42">
         <v>117.002584885845</v>
@@ -22145,7 +22106,7 @@
         <v>584.05038685724548</v>
       </c>
       <c r="C43">
-        <v>-151.496150651927</v>
+        <v>151.496150651927</v>
       </c>
       <c r="D43">
         <v>151.496150651927</v>
@@ -22154,8 +22115,7 @@
         <v>819.99764401627601</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>-235.94725715903053</v>
+        <v>235.94725715903053</v>
       </c>
       <c r="G43">
         <v>114.128259060837</v>
@@ -22169,7 +22129,7 @@
         <v>617.85635908925371</v>
       </c>
       <c r="C44">
-        <v>-184.6480591975</v>
+        <v>184.6480591975</v>
       </c>
       <c r="D44">
         <v>184.6480591975</v>
@@ -22178,8 +22138,7 @@
         <v>819.02642710593102</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>-201.17006801667731</v>
+        <v>201.17006801667731</v>
       </c>
       <c r="G44">
         <v>109.21191184217101</v>
@@ -22193,7 +22152,7 @@
         <v>660.68843907801886</v>
       </c>
       <c r="C45">
-        <v>-202.19259361849998</v>
+        <v>202.19259361849998</v>
       </c>
       <c r="D45">
         <v>202.19259361849998</v>
@@ -22202,8 +22161,7 @@
         <v>1129.6618112019482</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>-468.97337212392938</v>
+        <v>468.97337212392938</v>
       </c>
       <c r="G45">
         <v>95.845581597459301</v>
@@ -22217,7 +22175,7 @@
         <v>793.94874738631825</v>
       </c>
       <c r="C46">
-        <v>-295.416479800692</v>
+        <v>295.416479800692</v>
       </c>
       <c r="D46">
         <v>295.416479800692</v>
@@ -22226,8 +22184,7 @@
         <v>1386.6590746619283</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>-592.7103272756101</v>
+        <v>592.7103272756101</v>
       </c>
       <c r="G46">
         <v>99.447858634069306</v>
@@ -22241,7 +22198,7 @@
         <v>923.92218585583873</v>
       </c>
       <c r="C47">
-        <v>-379.80834066706097</v>
+        <v>379.80834066706097</v>
       </c>
       <c r="D47">
         <v>379.80834066706097</v>
@@ -22250,8 +22207,7 @@
         <v>1504.8398081482399</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>-580.91762229240112</v>
+        <v>580.91762229240112</v>
       </c>
       <c r="G47">
         <v>104.161592504748</v>
@@ -22265,7 +22221,7 @@
         <v>997.76476446995264</v>
       </c>
       <c r="C48">
-        <v>-644.26249994651198</v>
+        <v>644.26249994651198</v>
       </c>
       <c r="D48">
         <v>644.26249994651198</v>
@@ -22274,8 +22230,7 @@
         <v>2066.6625559455038</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>-1068.897791475551</v>
+        <v>1068.897791475551</v>
       </c>
       <c r="G48">
         <v>104.377585567366</v>
@@ -22289,7 +22244,7 @@
         <v>1190.2564401323843</v>
       </c>
       <c r="C49">
-        <v>-792.30578089124401</v>
+        <v>792.30578089124401</v>
       </c>
       <c r="D49">
         <v>792.30578089124401</v>
@@ -22298,8 +22253,7 @@
         <v>2867.6783537252095</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>-1677.4219135928251</v>
+        <v>1677.4219135928251</v>
       </c>
       <c r="G49">
         <v>107.96589537320899</v>
@@ -22313,7 +22267,7 @@
         <v>1444.0404021488146</v>
       </c>
       <c r="C50">
-        <v>-728.86090065240796</v>
+        <v>728.86090065240796</v>
       </c>
       <c r="D50">
         <v>728.86090065240796</v>
@@ -22322,8 +22276,7 @@
         <v>2914.6018480916368</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>-1470.5614459428223</v>
+        <v>1470.5614459428223</v>
       </c>
       <c r="G50">
         <v>111.311992506636</v>
@@ -22337,7 +22290,7 @@
         <v>2512.7805566451116</v>
       </c>
       <c r="C51">
-        <v>-812.72032169957606</v>
+        <v>812.72032169957606</v>
       </c>
       <c r="D51">
         <v>841.57080274763598</v>
@@ -22346,8 +22299,7 @@
         <v>2568.892539421769</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>-56.111982776657442</v>
+        <v>56.111982776657442</v>
       </c>
       <c r="G51">
         <v>108.319176300047</v>
@@ -22361,7 +22313,7 @@
         <v>2667.3441667281536</v>
       </c>
       <c r="C52">
-        <v>-506.65842345964001</v>
+        <v>506.65842345964001</v>
       </c>
       <c r="D52">
         <v>543.87272727272796</v>
@@ -22370,8 +22322,7 @@
         <v>2834.0475590769793</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
-        <v>-166.70339234882567</v>
+        <v>166.70339234882567</v>
       </c>
       <c r="G52">
         <v>100</v>
@@ -22385,7 +22336,7 @@
         <v>2787.1725205571438</v>
       </c>
       <c r="C53">
-        <v>-906.14042758727601</v>
+        <v>906.14042758727601</v>
       </c>
       <c r="D53">
         <v>894.293858</v>
@@ -22394,7 +22345,6 @@
         <v>2502.1606729999462</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
         <v>285.0118475571976</v>
       </c>
       <c r="G53">
@@ -22409,7 +22359,7 @@
         <v>2730.5915761291758</v>
       </c>
       <c r="C54">
-        <v>-1159.0514597205299</v>
+        <v>1159.0514597205299</v>
       </c>
       <c r="D54">
         <v>1205.3884877937401</v>
@@ -22418,8 +22368,7 @@
         <v>3375.6187214940119</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
-        <v>-645.02714536483609</v>
+        <v>645.02714536483609</v>
       </c>
       <c r="G54">
         <v>103.581529116697</v>
@@ -22433,7 +22382,7 @@
         <v>2891.5786996551833</v>
       </c>
       <c r="C55">
-        <v>-1051.62292249344</v>
+        <v>1051.62292249344</v>
       </c>
       <c r="D55">
         <v>1096</v>
@@ -22442,8 +22391,7 @@
         <v>3289.6659093899993</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
-        <v>-398.08720973481604</v>
+        <v>398.08720973481604</v>
       </c>
       <c r="G55">
         <v>104.487341700489</v>
@@ -22457,7 +22405,7 @@
         <v>3261.2397758457892</v>
       </c>
       <c r="C56">
-        <v>-1031.54624299492</v>
+        <v>1031.54624299492</v>
       </c>
       <c r="D56">
         <v>1058.56454034685</v>
@@ -22466,8 +22414,7 @@
         <v>3318.1651743066823</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
-        <v>-56.925398460893121</v>
+        <v>56.925398460893121</v>
       </c>
       <c r="G56">
         <v>106.106235195211</v>
@@ -22481,7 +22428,7 @@
         <v>3238.7183844669862</v>
       </c>
       <c r="C57">
-        <v>-737.36952105303396</v>
+        <v>737.36952105303396</v>
       </c>
       <c r="D57">
         <v>737.65214015142794</v>
@@ -22490,7 +22437,6 @@
         <v>3164.6486587574968</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
         <v>74.069725709489376</v>
       </c>
       <c r="G57">
@@ -22505,7 +22451,7 @@
         <v>2920.3988814897266</v>
       </c>
       <c r="C58">
-        <v>-625.55896416211999</v>
+        <v>625.55896416211999</v>
       </c>
       <c r="D58">
         <v>625.70436186706809</v>
@@ -22514,8 +22460,7 @@
         <v>3542.4617599501257</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
-        <v>-622.06287846039913</v>
+        <v>622.06287846039913</v>
       </c>
       <c r="G58">
         <v>96.130690827214494</v>
@@ -22529,7 +22474,7 @@
         <v>3074.4473911531209</v>
       </c>
       <c r="C59">
-        <v>-802.40000875549993</v>
+        <v>802.40000875549993</v>
       </c>
       <c r="D59">
         <v>802.70414100856806</v>
@@ -22538,8 +22483,7 @@
         <v>3828.4870351917939</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>-754.03964403867303</v>
+        <v>754.03964403867303</v>
       </c>
       <c r="G59">
         <v>93.678152818193894</v>
@@ -22553,7 +22497,7 @@
         <v>3292.7025573429642</v>
       </c>
       <c r="C60">
-        <v>-1055.03170652842</v>
+        <v>1055.03170652842</v>
       </c>
       <c r="D60">
         <v>1055.3533526303299</v>
@@ -22562,8 +22506,7 @@
         <v>3740.2685995106867</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>-447.56604216772257</v>
+        <v>447.56604216772257</v>
       </c>
       <c r="G60">
         <v>90.086175339845695</v>
@@ -22577,7 +22520,7 @@
         <v>3535.306063420217</v>
       </c>
       <c r="C61">
-        <v>-1273.5599490392899</v>
+        <v>1273.5599490392899</v>
       </c>
       <c r="D61">
         <v>1273.8855862508599</v>
@@ -22586,8 +22529,7 @@
         <v>3800.0748889234869</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>-264.76882550326991</v>
+        <v>264.76882550326991</v>
       </c>
       <c r="G61">
         <v>93.296236571518506</v>
@@ -22601,7 +22543,7 @@
         <v>3760.036818093995</v>
       </c>
       <c r="C62">
-        <v>-873.46822523084199</v>
+        <v>873.46822523084199</v>
       </c>
       <c r="D62">
         <v>873.79283455531709</v>
@@ -22610,8 +22552,7 @@
         <v>4304.7722521639125</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>-544.73543406991757</v>
+        <v>544.73543406991757</v>
       </c>
       <c r="G62">
         <v>94.995621691551804</v>
@@ -24106,10 +24047,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24124,7 +24065,7 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
@@ -24149,8 +24090,20 @@
       <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>22098</v>
       </c>
@@ -24175,8 +24128,21 @@
       <c r="H2">
         <v>91.399000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>4.1599515705795405E-2</v>
+      </c>
+      <c r="J2">
+        <v>-4.6285602728853487E-2</v>
+      </c>
+      <c r="K2">
+        <v>-5.8861599139573242</v>
+      </c>
+      <c r="L2">
+        <f>H2-K2</f>
+        <v>97.28515991395733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>22463</v>
       </c>
@@ -24201,8 +24167,21 @@
       <c r="H3">
         <v>84.316000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1.6694679146419852E-2</v>
+      </c>
+      <c r="J3">
+        <v>-3.6153897331185181E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.20908175349728353</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L62" si="0">H3-K3</f>
+        <v>84.106918246502715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>22828</v>
       </c>
@@ -24227,8 +24206,21 @@
       <c r="H4">
         <v>76.262</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>-8.6261525700136593E-3</v>
+      </c>
+      <c r="J4">
+        <v>-2.5559335906228334E-2</v>
+      </c>
+      <c r="K4">
+        <v>6.3631850200914641</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>69.898814979908536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>23193</v>
       </c>
@@ -24253,8 +24245,21 @@
       <c r="H5">
         <v>67.432000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>-3.4945921392027277E-2</v>
+      </c>
+      <c r="J5">
+        <v>-1.3677523453382568E-2</v>
+      </c>
+      <c r="K5">
+        <v>12.632920667429818</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>54.799079332570187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>23559</v>
       </c>
@@ -24279,8 +24284,21 @@
       <c r="H6">
         <v>58.021000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>-6.2761307742443012E-2</v>
+      </c>
+      <c r="J6">
+        <v>5.7152838701477957E-4</v>
+      </c>
+      <c r="K6">
+        <v>19.011427626916035</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>39.009572373083969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>23924</v>
       </c>
@@ -24305,8 +24323,21 @@
       <c r="H7">
         <v>48.224000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>-9.2219532830162598E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.8404583209160205E-2</v>
+      </c>
+      <c r="K7">
+        <v>25.365515623279499</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>22.858484376720504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>24289</v>
       </c>
@@ -24331,8 +24362,21 @@
       <c r="H8">
         <v>30.239395181856363</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>-0.12284020478666334</v>
+      </c>
+      <c r="J8">
+        <v>4.1032689323380056E-2</v>
+      </c>
+      <c r="K8">
+        <v>30.239395181856363</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>24654</v>
       </c>
@@ -24357,8 +24401,21 @@
       <c r="H9">
         <v>37.197954603709228</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>-0.15322073641512088</v>
+      </c>
+      <c r="J9">
+        <v>6.9482849207909078E-2</v>
+      </c>
+      <c r="K9">
+        <v>37.197954603709228</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>25020</v>
       </c>
@@ -24383,8 +24440,21 @@
       <c r="H10">
         <v>48.774785055523132</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>-0.18073013847084421</v>
+      </c>
+      <c r="J10">
+        <v>0.10437173844774821</v>
+      </c>
+      <c r="K10">
+        <v>48.774785055523132</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>25385</v>
       </c>
@@ -24410,8 +24480,21 @@
       <c r="H11">
         <v>59.907407191947556</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>-0.20120521434499111</v>
+      </c>
+      <c r="J11">
+        <v>0.14562120413581928</v>
+      </c>
+      <c r="K11">
+        <v>59.907407191947556</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>25750</v>
       </c>
@@ -24436,8 +24519,21 @@
       <c r="H12">
         <v>64.750797919289525</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>-0.2086754660440111</v>
+      </c>
+      <c r="J12">
+        <v>4.2</v>
+      </c>
+      <c r="K12">
+        <v>64.750797919289525</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>26115</v>
       </c>
@@ -24462,8 +24558,21 @@
       <c r="H13">
         <v>19.156524971745259</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>-0.19515834343090385</v>
+      </c>
+      <c r="J13">
+        <v>-1.2</v>
+      </c>
+      <c r="K13">
+        <v>19.156524971745259</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>26481</v>
       </c>
@@ -24488,8 +24597,21 @@
       <c r="H14">
         <v>20.458245837947395</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>-0.15058454170822888</v>
+      </c>
+      <c r="J14">
+        <v>-11.9</v>
+      </c>
+      <c r="K14">
+        <v>20.458245837947395</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>26846</v>
       </c>
@@ -24514,8 +24636,21 @@
       <c r="H15">
         <v>13.206360509624986</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>-6.2933172644236757E-2</v>
+      </c>
+      <c r="J15">
+        <v>5.2</v>
+      </c>
+      <c r="K15">
+        <v>13.206360509624986</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>27211</v>
       </c>
@@ -24540,8 +24675,21 @@
       <c r="H16">
         <v>4.5847016226436983</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>8.1322497409904215E-2</v>
+      </c>
+      <c r="J16">
+        <v>1.7</v>
+      </c>
+      <c r="K16">
+        <v>-4.5847016226436983</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>9.1694032452873966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>27576</v>
       </c>
@@ -24566,8 +24714,21 @@
       <c r="H17">
         <v>9.9822234951098423</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0.29633853382946806</v>
+      </c>
+      <c r="J17">
+        <v>2.1</v>
+      </c>
+      <c r="K17">
+        <v>9.9822234951098423</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>27942</v>
       </c>
@@ -24592,8 +24753,21 @@
       <c r="H18">
         <v>13.270868593361518</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>0.59545777701562985</v>
+      </c>
+      <c r="J18">
+        <v>2.0499999</v>
+      </c>
+      <c r="K18">
+        <v>13.270868593361518</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>28307</v>
       </c>
@@ -24618,8 +24792,21 @@
       <c r="H19">
         <v>20.649110502945412</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>0.98905968203127004</v>
+      </c>
+      <c r="J19">
+        <v>0.8</v>
+      </c>
+      <c r="K19">
+        <v>20.649110502945412</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>28672</v>
       </c>
@@ -24644,8 +24831,21 @@
       <c r="H20">
         <v>33.67899583495138</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1.4815691261691126</v>
+      </c>
+      <c r="J20">
+        <v>1.97</v>
+      </c>
+      <c r="K20">
+        <v>33.67899583495138</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>29037</v>
       </c>
@@ -24670,8 +24870,21 @@
       <c r="H21">
         <v>17.286021155568488</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>2.0675203899015684</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>-17.286021155568488</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>34.572042311136975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>29403</v>
       </c>
@@ -24696,8 +24909,21 @@
       <c r="H22">
         <v>87.136723151695918</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>2.7266320624393576</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>-87.136723151695918</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>174.27344630339184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>29768</v>
       </c>
@@ -24723,8 +24949,21 @@
       <c r="H23">
         <v>342.31830259454443</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>3.4179475290941856</v>
+      </c>
+      <c r="J23">
+        <v>-2.3625572045533882</v>
+      </c>
+      <c r="K23">
+        <v>-342.31830259454443</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>684.63660518908887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>30133</v>
       </c>
@@ -24749,8 +24988,21 @@
       <c r="H24">
         <v>263.90413510722169</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>4.0732438545533647</v>
+      </c>
+      <c r="J24">
+        <v>2.02</v>
+      </c>
+      <c r="K24">
+        <v>-263.90413510722169</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>527.80827021444338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>30498</v>
       </c>
@@ -24776,8 +25028,21 @@
       <c r="H25">
         <v>397.54983049507683</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>4.5901186282132667</v>
+      </c>
+      <c r="J25">
+        <v>-4.0216204623069256</v>
+      </c>
+      <c r="K25">
+        <v>-397.54983049507683</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>795.09966099015367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>30864</v>
       </c>
@@ -24803,8 +25068,21 @@
       <c r="H26">
         <v>374.49014313936448</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>4.8254370009247296</v>
+      </c>
+      <c r="J26">
+        <v>-4.5194269129036027</v>
+      </c>
+      <c r="K26">
+        <v>-374.49014313936448</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>748.98028627872895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31229</v>
       </c>
@@ -24829,8 +25107,21 @@
       <c r="H27">
         <v>568.23740927342146</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>4.5901629372564603</v>
+      </c>
+      <c r="J27">
+        <v>-4</v>
+      </c>
+      <c r="K27">
+        <v>-568.23740927342146</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1136.4748185468429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>31594</v>
       </c>
@@ -24856,8 +25147,21 @@
       <c r="H28">
         <v>213.19151878</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>3.6470060317679205</v>
+      </c>
+      <c r="J28">
+        <v>-3.7751828242117442</v>
+      </c>
+      <c r="K28">
+        <v>-213.19151878</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>426.38303755999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>31959</v>
       </c>
@@ -24884,8 +25188,21 @@
         <f>0.0325*B2^3 - 0.6805*B2^2 - 5.269*B2 + 97.316</f>
         <v>91.399000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1.7127742496460057</v>
+      </c>
+      <c r="J29">
+        <v>-2.0089345755258172</v>
+      </c>
+      <c r="K29">
+        <v>-203.77784497913109</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>295.17684497913109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>32325</v>
       </c>
@@ -24908,11 +25225,24 @@
         <v>470.09228354012299</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H33" si="0">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
+        <f t="shared" ref="H30:H33" si="1">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
         <v>84.316000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>-1.5321945042400689</v>
+      </c>
+      <c r="J30">
+        <v>4.7</v>
+      </c>
+      <c r="K30">
+        <v>-176.26671707326352</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>260.58271707326355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>32690</v>
       </c>
@@ -24935,11 +25265,24 @@
         <v>384.99517293613701</v>
       </c>
       <c r="H31">
+        <f t="shared" si="1"/>
+        <v>76.262</v>
+      </c>
+      <c r="I31">
+        <v>-6.4246900675175471</v>
+      </c>
+      <c r="J31">
+        <v>-1.76</v>
+      </c>
+      <c r="K31">
+        <v>-146.56426549245859</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="0"/>
-        <v>76.262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>222.82626549245859</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>33055</v>
       </c>
@@ -24962,11 +25305,24 @@
         <v>244.39075838208399</v>
       </c>
       <c r="H32">
+        <f t="shared" si="1"/>
+        <v>67.432000000000002</v>
+      </c>
+      <c r="I32">
+        <v>-13.286180332771274</v>
+      </c>
+      <c r="J32">
+        <v>-5.91</v>
+      </c>
+      <c r="K32">
+        <v>-114.54800799931076</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="0"/>
-        <v>67.432000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>181.98000799931077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>33420</v>
       </c>
@@ -24989,11 +25345,24 @@
         <v>179.474769912619</v>
       </c>
       <c r="H33">
+        <f t="shared" si="1"/>
+        <v>58.021000000000001</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>-78.629819701489922</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="0"/>
-        <v>58.021000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136.65081970148992</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33786</v>
       </c>
@@ -25018,8 +25387,21 @@
       <c r="H34">
         <v>214.35482162591128</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>-3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>-214.35482162591128</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>428.70964325182257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34151</v>
       </c>
@@ -25044,8 +25426,21 @@
       <c r="H35">
         <v>87.422554597516736</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>-54.6</v>
+      </c>
+      <c r="J35">
+        <v>54.6</v>
+      </c>
+      <c r="K35">
+        <v>-87.422554597516736</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>174.84510919503347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34516</v>
       </c>
@@ -25070,8 +25465,21 @@
       <c r="H36">
         <v>65.293135678460231</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>-88.2</v>
+      </c>
+      <c r="J36">
+        <v>88.2</v>
+      </c>
+      <c r="K36">
+        <v>65.293135678460231</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34881</v>
       </c>
@@ -25096,8 +25504,21 @@
       <c r="H37">
         <v>182.32500339069813</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>-121.2</v>
+      </c>
+      <c r="J37">
+        <v>121.2</v>
+      </c>
+      <c r="K37">
+        <v>182.32500339069813</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35247</v>
       </c>
@@ -25122,8 +25543,21 @@
       <c r="H38">
         <v>241.21297186049603</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>-121</v>
+      </c>
+      <c r="J38">
+        <v>121</v>
+      </c>
+      <c r="K38">
+        <v>241.21297186049603</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35612</v>
       </c>
@@ -25148,8 +25582,21 @@
       <c r="H39">
         <v>361.62493976521836</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>-175</v>
+      </c>
+      <c r="J39">
+        <v>175</v>
+      </c>
+      <c r="K39">
+        <v>361.62493976521836</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>35977</v>
       </c>
@@ -25174,8 +25621,21 @@
       <c r="H40">
         <v>527.84147259869701</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>-210</v>
+      </c>
+      <c r="J40">
+        <v>210</v>
+      </c>
+      <c r="K40">
+        <v>527.84147259869701</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>36342</v>
       </c>
@@ -25200,8 +25660,21 @@
       <c r="H41">
         <v>543.14241943915977</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>-140.19999999999999</v>
+      </c>
+      <c r="J41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="K41">
+        <v>543.14241943915977</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>36708</v>
       </c>
@@ -25226,8 +25699,21 @@
       <c r="H42">
         <v>727.67381694210826</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>-160.69999999999999</v>
+      </c>
+      <c r="J42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="K42">
+        <v>727.67381694210826</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>37073</v>
       </c>
@@ -25252,8 +25738,21 @@
       <c r="H43">
         <v>819.99764401627601</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>-151.496150651927</v>
+      </c>
+      <c r="J43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="K43">
+        <v>819.99764401627601</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37438</v>
       </c>
@@ -25278,8 +25777,21 @@
       <c r="H44">
         <v>819.02642710593102</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>-184.6480591975</v>
+      </c>
+      <c r="J44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="K44">
+        <v>819.02642710593102</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>37803</v>
       </c>
@@ -25304,8 +25816,21 @@
       <c r="H45">
         <v>1129.6618112019482</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>-202.19259361849998</v>
+      </c>
+      <c r="J45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="K45">
+        <v>1129.6618112019482</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>38169</v>
       </c>
@@ -25330,8 +25855,21 @@
       <c r="H46">
         <v>1386.6590746619283</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>-295.416479800692</v>
+      </c>
+      <c r="J46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="K46">
+        <v>1386.6590746619283</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>38534</v>
       </c>
@@ -25356,8 +25894,21 @@
       <c r="H47">
         <v>1504.8398081482399</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>-379.80834066706097</v>
+      </c>
+      <c r="J47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="K47">
+        <v>1504.8398081482399</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>38899</v>
       </c>
@@ -25382,8 +25933,21 @@
       <c r="H48">
         <v>2066.6625559455038</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>-644.26249994651198</v>
+      </c>
+      <c r="J48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="K48">
+        <v>2066.6625559455038</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>39264</v>
       </c>
@@ -25408,8 +25972,21 @@
       <c r="H49">
         <v>2867.6783537252095</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>-792.30578089124401</v>
+      </c>
+      <c r="J49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="K49">
+        <v>2867.6783537252095</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>39630</v>
       </c>
@@ -25434,8 +26011,21 @@
       <c r="H50">
         <v>2914.6018480916368</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>-728.86090065240796</v>
+      </c>
+      <c r="J50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="K50">
+        <v>2914.6018480916368</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>39995</v>
       </c>
@@ -25460,8 +26050,21 @@
       <c r="H51">
         <v>2568.892539421769</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>-812.72032169957606</v>
+      </c>
+      <c r="J51">
+        <v>841.57080274763598</v>
+      </c>
+      <c r="K51">
+        <v>2568.892539421769</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>40360</v>
       </c>
@@ -25486,8 +26089,21 @@
       <c r="H52">
         <v>2834.0475590769793</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>-506.65842345964001</v>
+      </c>
+      <c r="J52">
+        <v>543.87272727272796</v>
+      </c>
+      <c r="K52">
+        <v>2834.0475590769793</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>40725</v>
       </c>
@@ -25512,8 +26128,21 @@
       <c r="H53">
         <v>2502.1606729999462</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>-906.14042758727601</v>
+      </c>
+      <c r="J53">
+        <v>894.293858</v>
+      </c>
+      <c r="K53">
+        <v>2502.1606729999462</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>41091</v>
       </c>
@@ -25538,8 +26167,21 @@
       <c r="H54">
         <v>3375.6187214940119</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>-1159.0514597205299</v>
+      </c>
+      <c r="J54">
+        <v>1205.3884877937401</v>
+      </c>
+      <c r="K54">
+        <v>3375.6187214940119</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>41456</v>
       </c>
@@ -25564,8 +26206,21 @@
       <c r="H55">
         <v>3289.6659093899993</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>-1051.62292249344</v>
+      </c>
+      <c r="J55">
+        <v>1096</v>
+      </c>
+      <c r="K55">
+        <v>3289.6659093899993</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>41821</v>
       </c>
@@ -25590,8 +26245,21 @@
       <c r="H56">
         <v>3318.1651743066823</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>-1031.54624299492</v>
+      </c>
+      <c r="J56">
+        <v>1058.56454034685</v>
+      </c>
+      <c r="K56">
+        <v>3318.1651743066823</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>42186</v>
       </c>
@@ -25616,8 +26284,21 @@
       <c r="H57">
         <v>3164.6486587574968</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>-737.36952105303396</v>
+      </c>
+      <c r="J57">
+        <v>737.65214015142794</v>
+      </c>
+      <c r="K57">
+        <v>3164.6486587574968</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>42552</v>
       </c>
@@ -25642,8 +26323,21 @@
       <c r="H58">
         <v>3542.4617599501257</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>-625.55896416211999</v>
+      </c>
+      <c r="J58">
+        <v>625.70436186706809</v>
+      </c>
+      <c r="K58">
+        <v>3542.4617599501257</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>42917</v>
       </c>
@@ -25668,8 +26362,21 @@
       <c r="H59">
         <v>3828.4870351917939</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>-802.40000875549993</v>
+      </c>
+      <c r="J59">
+        <v>802.70414100856806</v>
+      </c>
+      <c r="K59">
+        <v>3828.4870351917939</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43282</v>
       </c>
@@ -25694,8 +26401,21 @@
       <c r="H60">
         <v>3740.2685995106867</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>-1055.03170652842</v>
+      </c>
+      <c r="J60">
+        <v>1055.3533526303299</v>
+      </c>
+      <c r="K60">
+        <v>3740.2685995106867</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43647</v>
       </c>
@@ -25720,8 +26440,21 @@
       <c r="H61">
         <v>3800.0748889234869</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>-1273.5599490392899</v>
+      </c>
+      <c r="J61">
+        <v>1273.8855862508599</v>
+      </c>
+      <c r="K61">
+        <v>3800.0748889234869</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44013</v>
       </c>
@@ -25745,6 +26478,19 @@
       </c>
       <c r="H62">
         <v>4304.7722521639125</v>
+      </c>
+      <c r="I62">
+        <v>-873.46822523084199</v>
+      </c>
+      <c r="J62">
+        <v>873.79283455531709</v>
+      </c>
+      <c r="K62">
+        <v>4304.7722521639125</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gobz\Desktop\Final-Research-Project-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F27A30-762C-431E-BE49-BD5144E9AFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D06F86-ED03-4932-8B3F-8762EFE74102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{5A61E85F-AC94-470C-89DD-2E206C8F7909}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
     <sheet name="Trans1" sheetId="2" r:id="rId2"/>
-    <sheet name="data cleaning" sheetId="5" r:id="rId3"/>
-    <sheet name="Final" sheetId="6" r:id="rId4"/>
-    <sheet name="Trans2" sheetId="3" r:id="rId5"/>
+    <sheet name="Trans2" sheetId="3" r:id="rId3"/>
+    <sheet name="data cleaning" sheetId="5" r:id="rId4"/>
+    <sheet name="Final" sheetId="6" r:id="rId5"/>
     <sheet name="data" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
   <si>
     <t xml:space="preserve"> Financial Year</t>
   </si>
@@ -14267,6 +14267,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>22098</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>42.30083857442348</v>
+      </c>
+      <c r="D2">
+        <f>E2</f>
+        <v>19.768089799999998</v>
+      </c>
+      <c r="E2">
+        <v>19.768089799999998</v>
+      </c>
+      <c r="F2">
+        <v>-42.300838574423501</v>
+      </c>
+      <c r="G2">
+        <v>69.06119799999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>22463</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>44.152410901467505</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">E3</f>
+        <v>5.2824671999999993</v>
+      </c>
+      <c r="E3">
+        <v>5.2824671999999993</v>
+      </c>
+      <c r="F3">
+        <v>-44.152410901467505</v>
+      </c>
+      <c r="G3">
+        <v>17.147871999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>22828</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>44.901257861635223</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-4.3430757999999869</v>
+      </c>
+      <c r="E4">
+        <v>-4.3430757999999869</v>
+      </c>
+      <c r="F4">
+        <v>-44.901257861635223</v>
+      </c>
+      <c r="G4">
+        <v>-35.039658000000017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>23193</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>51.614779874213838</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-9.9870591999999974</v>
+      </c>
+      <c r="E5">
+        <v>-9.9870591999999974</v>
+      </c>
+      <c r="F5">
+        <v>-51.614779874213838</v>
+      </c>
+      <c r="G5">
+        <v>-88.144592000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>23559</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>58.905660377358494</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-12.445875000000008</v>
+      </c>
+      <c r="E6">
+        <v>-12.445875000000008</v>
+      </c>
+      <c r="F6">
+        <v>-58.905660377358494</v>
+      </c>
+      <c r="G6">
+        <v>-143.01124999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>23924</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>88.487394957983184</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-12.43549119999998</v>
+      </c>
+      <c r="E7">
+        <v>-12.43549119999998</v>
+      </c>
+      <c r="F7">
+        <v>-88.487394957983184</v>
+      </c>
+      <c r="G7">
+        <v>-200.65411200000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>24289</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>92.577030812324921</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-10.593299799999976</v>
+      </c>
+      <c r="E8">
+        <v>-10.593299799999976</v>
+      </c>
+      <c r="F8">
+        <v>-62.337635630468554</v>
+      </c>
+      <c r="G8">
+        <v>-262.228298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>24654</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96.764705882352942</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-7.4801088000000036</v>
+      </c>
+      <c r="E9">
+        <v>-7.4801088000000036</v>
+      </c>
+      <c r="F9">
+        <v>-59.566751278643714</v>
+      </c>
+      <c r="G9">
+        <v>-329.00148799999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>25020</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>103.78151260504201</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-3.5822782000000117</v>
+      </c>
+      <c r="E10">
+        <v>-3.5822782000000117</v>
+      </c>
+      <c r="F10">
+        <v>-55.006727549518878</v>
+      </c>
+      <c r="G10">
+        <v>-402.32728199999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>25385</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>116.90476190476188</v>
+      </c>
+      <c r="D11">
+        <f>E11</f>
+        <v>0.68600000000001415</v>
+      </c>
+      <c r="E11">
+        <v>0.68600000000001415</v>
+      </c>
+      <c r="F11">
+        <v>-56.997354712814328</v>
+      </c>
+      <c r="G11">
+        <v>-483.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>25750</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>126.00840336134453</v>
+      </c>
+      <c r="D12">
+        <v>4.2</v>
+      </c>
+      <c r="E12">
+        <v>4.2</v>
+      </c>
+      <c r="F12">
+        <v>-61.257605442055009</v>
+      </c>
+      <c r="G12">
+        <v>-574.33092199999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>26115</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>141.77871148459383</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <v>-122.62218651284857</v>
+      </c>
+      <c r="G13">
+        <v>-675.92596800000013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>26481</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>149.15966386554621</v>
+      </c>
+      <c r="D14">
+        <v>11.9</v>
+      </c>
+      <c r="E14">
+        <v>11.9</v>
+      </c>
+      <c r="F14">
+        <v>-128.70141802759881</v>
+      </c>
+      <c r="G14">
+        <v>-789.86481800000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>26846</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>170.25210084033614</v>
+      </c>
+      <c r="D15">
+        <v>5.2</v>
+      </c>
+      <c r="E15">
+        <v>5.2</v>
+      </c>
+      <c r="F15">
+        <v>-157.04574033071117</v>
+      </c>
+      <c r="G15">
+        <v>-917.58147199999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>27211</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>210.01426533523539</v>
+      </c>
+      <c r="D16">
+        <v>1.7</v>
+      </c>
+      <c r="E16">
+        <v>1.7</v>
+      </c>
+      <c r="F16">
+        <v>-205.42956371259169</v>
+      </c>
+      <c r="G16">
+        <v>-1060.4662500000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>27576</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>235.95555555555558</v>
+      </c>
+      <c r="D17">
+        <v>2.1</v>
+      </c>
+      <c r="E17">
+        <v>2.1</v>
+      </c>
+      <c r="F17">
+        <v>-225.97333206044573</v>
+      </c>
+      <c r="G17">
+        <v>-1219.8492320000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>27942</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>244.73</v>
+      </c>
+      <c r="D18">
+        <v>2.0499999</v>
+      </c>
+      <c r="E18">
+        <v>2.0499999</v>
+      </c>
+      <c r="F18">
+        <v>-231.45913140663848</v>
+      </c>
+      <c r="G18">
+        <v>-1396.9851380000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>28307</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>293.64705882352939</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>-272.99794832058399</v>
+      </c>
+      <c r="G19">
+        <v>-1593.0396480000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>28672</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>242.02608695652174</v>
+      </c>
+      <c r="D20">
+        <v>1.97</v>
+      </c>
+      <c r="E20">
+        <v>1.97</v>
+      </c>
+      <c r="F20">
+        <v>-208.34709112157037</v>
+      </c>
+      <c r="G20">
+        <v>-1809.0771620000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>29037</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>213.9025</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>-196.61647884443153</v>
+      </c>
+      <c r="G21">
+        <v>-2046.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>29403</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>124.461</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>-37.324276848304081</v>
+      </c>
+      <c r="G22">
+        <v>-2304.7890419999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>29768</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>133.72999999999999</v>
+      </c>
+      <c r="D23">
+        <f>E23</f>
+        <v>16.802499200000149</v>
+      </c>
+      <c r="E23">
+        <v>16.802499200000149</v>
+      </c>
+      <c r="F23">
+        <v>208.58830259454444</v>
+      </c>
+      <c r="G23">
+        <v>1565.2162708415501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>30133</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>217.75</v>
+      </c>
+      <c r="D24">
+        <v>2.02</v>
+      </c>
+      <c r="E24">
+        <v>2.02</v>
+      </c>
+      <c r="F24">
+        <v>46.154135107221691</v>
+      </c>
+      <c r="G24">
+        <v>543.26640510304696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>30498</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>224.03333333333336</v>
+      </c>
+      <c r="D25">
+        <f>E25</f>
+        <v>15.709164800000032</v>
+      </c>
+      <c r="E25">
+        <v>15.709164800000032</v>
+      </c>
+      <c r="F25">
+        <v>173.51649716174347</v>
+      </c>
+      <c r="G25">
+        <v>429.77464486072699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>30864</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>361.56474770543372</v>
+      </c>
+      <c r="D26">
+        <f>E26</f>
+        <v>16.254125000000023</v>
+      </c>
+      <c r="E26">
+        <v>16.254125000000023</v>
+      </c>
+      <c r="F26">
+        <v>12.92539543393076</v>
+      </c>
+      <c r="G26">
+        <v>293.63133617189402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>31229</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>351.96663385245415</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>216.27077542096731</v>
+      </c>
+      <c r="G27">
+        <v>384.63216488538097</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>31594</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>392.32321221278397</v>
+      </c>
+      <c r="D28">
+        <f>E28</f>
+        <v>21.087132199999679</v>
+      </c>
+      <c r="E28">
+        <v>21.087132199999679</v>
+      </c>
+      <c r="F28">
+        <v>-179.13169343278398</v>
+      </c>
+      <c r="G28">
+        <v>401.52703667273499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>31959</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>626.95116146623457</v>
+      </c>
+      <c r="D29">
+        <f>E29</f>
+        <v>26.030259200000366</v>
+      </c>
+      <c r="E29">
+        <v>26.030259200000366</v>
+      </c>
+      <c r="F29">
+        <v>-626.95116146623457</v>
+      </c>
+      <c r="G29">
+        <v>511.28822370242102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>32325</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>650.89316516666668</v>
+      </c>
+      <c r="D30">
+        <v>4.7</v>
+      </c>
+      <c r="E30">
+        <v>4.7</v>
+      </c>
+      <c r="F30">
+        <v>-650.89316516666668</v>
+      </c>
+      <c r="G30">
+        <v>470.09228354012299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>32690</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>527.64809859993659</v>
+      </c>
+      <c r="D31">
+        <v>1.76</v>
+      </c>
+      <c r="E31">
+        <v>1.76</v>
+      </c>
+      <c r="F31">
+        <v>-527.64809859993659</v>
+      </c>
+      <c r="G31">
+        <v>384.99517293613701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>33055</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>430.439886588268</v>
+      </c>
+      <c r="D32">
+        <v>5.91</v>
+      </c>
+      <c r="E32">
+        <v>5.91</v>
+      </c>
+      <c r="F32">
+        <v>-430.439886588268</v>
+      </c>
+      <c r="G32">
+        <v>244.39075838208399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>33420</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>332.17290571221542</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>-332.17290571221542</v>
+      </c>
+      <c r="G33">
+        <v>179.474769912619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>33786</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>285.74578600508755</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>-71.390964379176268</v>
+      </c>
+      <c r="G34">
+        <v>120.252259985827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>34151</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>322.04390441894867</v>
+      </c>
+      <c r="D35">
+        <v>54.6</v>
+      </c>
+      <c r="E35">
+        <v>54.6</v>
+      </c>
+      <c r="F35">
+        <v>-234.62134982143192</v>
+      </c>
+      <c r="G35">
+        <v>118.786060581379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>34516</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>399.04304467121597</v>
+      </c>
+      <c r="D36">
+        <v>88.2</v>
+      </c>
+      <c r="E36">
+        <v>88.2</v>
+      </c>
+      <c r="F36">
+        <v>-333.74990899275576</v>
+      </c>
+      <c r="G36">
+        <v>148.49891681729699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34881</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>575.58189474212497</v>
+      </c>
+      <c r="D37">
+        <v>121.2</v>
+      </c>
+      <c r="E37">
+        <v>121.2</v>
+      </c>
+      <c r="F37">
+        <v>-393.25689135142682</v>
+      </c>
+      <c r="G37">
+        <v>145.151216117594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>35247</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>604.45853269380007</v>
+      </c>
+      <c r="D38">
+        <v>121</v>
+      </c>
+      <c r="E38">
+        <v>121</v>
+      </c>
+      <c r="F38">
+        <v>-363.24556083330401</v>
+      </c>
+      <c r="G38">
+        <v>145.534630500829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>35612</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>626.93333131710835</v>
+      </c>
+      <c r="D39">
+        <v>175</v>
+      </c>
+      <c r="E39">
+        <v>175</v>
+      </c>
+      <c r="F39">
+        <v>-265.30839155189</v>
+      </c>
+      <c r="G39">
+        <v>152.516808731092</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>35977</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>658.48158465275378</v>
+      </c>
+      <c r="D40">
+        <v>210</v>
+      </c>
+      <c r="E40">
+        <v>210</v>
+      </c>
+      <c r="F40">
+        <v>-130.64011205405677</v>
+      </c>
+      <c r="G40">
+        <v>135.617944882106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>36342</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>599.85632579465891</v>
+      </c>
+      <c r="D41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E41">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="F41">
+        <v>-56.713906355499148</v>
+      </c>
+      <c r="G41">
+        <v>123.43242395845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>36708</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>619.32468370968729</v>
+      </c>
+      <c r="D42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="E42">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="F42">
+        <v>108.34913323242097</v>
+      </c>
+      <c r="G42">
+        <v>117.002584885845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>37073</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>584.05038685724548</v>
+      </c>
+      <c r="D43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="E43">
+        <v>151.496150651927</v>
+      </c>
+      <c r="F43">
+        <v>235.94725715903053</v>
+      </c>
+      <c r="G43">
+        <v>114.128259060837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>37438</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>617.85635908925371</v>
+      </c>
+      <c r="D44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="E44">
+        <v>184.6480591975</v>
+      </c>
+      <c r="F44">
+        <v>201.17006801667731</v>
+      </c>
+      <c r="G44">
+        <v>109.21191184217101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>37803</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>660.68843907801886</v>
+      </c>
+      <c r="D45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="E45">
+        <v>202.19259361849998</v>
+      </c>
+      <c r="F45">
+        <v>468.97337212392938</v>
+      </c>
+      <c r="G45">
+        <v>95.845581597459301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>38169</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>793.94874738631825</v>
+      </c>
+      <c r="D46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="E46">
+        <v>295.416479800692</v>
+      </c>
+      <c r="F46">
+        <v>592.7103272756101</v>
+      </c>
+      <c r="G46">
+        <v>99.447858634069306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>38534</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>923.92218585583873</v>
+      </c>
+      <c r="D47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="E47">
+        <v>379.80834066706097</v>
+      </c>
+      <c r="F47">
+        <v>580.91762229240112</v>
+      </c>
+      <c r="G47">
+        <v>104.161592504748</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>38899</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>997.76476446995264</v>
+      </c>
+      <c r="D48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="E48">
+        <v>644.26249994651198</v>
+      </c>
+      <c r="F48">
+        <v>1068.897791475551</v>
+      </c>
+      <c r="G48">
+        <v>104.377585567366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>39264</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>1190.2564401323843</v>
+      </c>
+      <c r="D49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="E49">
+        <v>792.30578089124401</v>
+      </c>
+      <c r="F49">
+        <v>1677.4219135928251</v>
+      </c>
+      <c r="G49">
+        <v>107.96589537320899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>39630</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>1444.0404021488146</v>
+      </c>
+      <c r="D50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="E50">
+        <v>728.86090065240796</v>
+      </c>
+      <c r="F50">
+        <v>1470.5614459428223</v>
+      </c>
+      <c r="G50">
+        <v>111.311992506636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>39995</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>2512.7805566451116</v>
+      </c>
+      <c r="D51">
+        <v>841.57080274763598</v>
+      </c>
+      <c r="E51">
+        <v>812.72032169957606</v>
+      </c>
+      <c r="F51">
+        <v>56.111982776657442</v>
+      </c>
+      <c r="G51">
+        <v>108.319176300047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>40360</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>2667.3441667281536</v>
+      </c>
+      <c r="D52">
+        <v>543.87272727272796</v>
+      </c>
+      <c r="E52">
+        <v>506.65842345964001</v>
+      </c>
+      <c r="F52">
+        <v>166.70339234882567</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>40725</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>2787.1725205571438</v>
+      </c>
+      <c r="D53">
+        <v>894.293858</v>
+      </c>
+      <c r="E53">
+        <v>906.14042758727601</v>
+      </c>
+      <c r="F53">
+        <v>-285.0118475571976</v>
+      </c>
+      <c r="G53">
+        <v>93.066503735108299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>41091</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>2730.5915761291758</v>
+      </c>
+      <c r="D54">
+        <v>1205.3884877937401</v>
+      </c>
+      <c r="E54">
+        <v>1159.0514597205299</v>
+      </c>
+      <c r="F54">
+        <v>645.02714536483609</v>
+      </c>
+      <c r="G54">
+        <v>103.581529116697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>41456</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>2891.5786996551833</v>
+      </c>
+      <c r="D55">
+        <v>1096</v>
+      </c>
+      <c r="E55">
+        <v>1051.62292249344</v>
+      </c>
+      <c r="F55">
+        <v>398.08720973481604</v>
+      </c>
+      <c r="G55">
+        <v>104.487341700489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>41821</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>3261.2397758457892</v>
+      </c>
+      <c r="D56">
+        <v>1058.56454034685</v>
+      </c>
+      <c r="E56">
+        <v>1031.54624299492</v>
+      </c>
+      <c r="F56">
+        <v>56.925398460893121</v>
+      </c>
+      <c r="G56">
+        <v>106.106235195211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>42186</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>3238.7183844669862</v>
+      </c>
+      <c r="D57">
+        <v>737.65214015142794</v>
+      </c>
+      <c r="E57">
+        <v>737.36952105303396</v>
+      </c>
+      <c r="F57">
+        <v>-74.069725709489376</v>
+      </c>
+      <c r="G57">
+        <v>100.98705396656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>42552</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>2920.3988814897266</v>
+      </c>
+      <c r="D58">
+        <v>625.70436186706809</v>
+      </c>
+      <c r="E58">
+        <v>625.55896416211999</v>
+      </c>
+      <c r="F58">
+        <v>622.06287846039913</v>
+      </c>
+      <c r="G58">
+        <v>96.130690827214494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>42917</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>3074.4473911531209</v>
+      </c>
+      <c r="D59">
+        <v>802.70414100856806</v>
+      </c>
+      <c r="E59">
+        <v>802.40000875549993</v>
+      </c>
+      <c r="F59">
+        <v>754.03964403867303</v>
+      </c>
+      <c r="G59">
+        <v>93.678152818193894</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>43282</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>3292.7025573429642</v>
+      </c>
+      <c r="D60">
+        <v>1055.3533526303299</v>
+      </c>
+      <c r="E60">
+        <v>1055.03170652842</v>
+      </c>
+      <c r="F60">
+        <v>447.56604216772257</v>
+      </c>
+      <c r="G60">
+        <v>90.086175339845695</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>43647</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>3535.306063420217</v>
+      </c>
+      <c r="D61">
+        <v>1273.8855862508599</v>
+      </c>
+      <c r="E61">
+        <v>1273.5599490392899</v>
+      </c>
+      <c r="F61">
+        <v>264.76882550326991</v>
+      </c>
+      <c r="G61">
+        <v>93.296236571518506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>44013</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>3760.036818093995</v>
+      </c>
+      <c r="D62">
+        <v>873.79283455531709</v>
+      </c>
+      <c r="E62">
+        <v>873.46822523084199</v>
+      </c>
+      <c r="F62">
+        <v>544.73543406991757</v>
+      </c>
+      <c r="G62">
+        <v>94.995621691551804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A63">
+    <cfRule type="uniqueValues" dxfId="7" priority="1"/>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text=" Financial Year">
+      <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F364C-80C9-4A72-BF97-84F6B912A408}">
   <dimension ref="A1:AF62"/>
   <sheetViews>
@@ -21100,8 +22575,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A62">
-    <cfRule type="uniqueValues" dxfId="7" priority="1"/>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text=" Financial Year">
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21112,12 +22587,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087DEE86-06A2-41A7-B0C0-F7E482406901}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22560,1481 +24035,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A62">
-    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" Financial Year">
-      <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750171C9-C24E-4302-9158-F16F3E39D7C7}">
-  <dimension ref="A1:G63"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>22098</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>42.30083857442348</v>
-      </c>
-      <c r="D2">
-        <f>E2</f>
-        <v>19.768089799999998</v>
-      </c>
-      <c r="E2">
-        <v>19.768089799999998</v>
-      </c>
-      <c r="F2">
-        <v>-42.300838574423501</v>
-      </c>
-      <c r="G2">
-        <v>69.06119799999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>22463</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>44.152410901467505</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">E3</f>
-        <v>5.2824671999999993</v>
-      </c>
-      <c r="E3">
-        <v>5.2824671999999993</v>
-      </c>
-      <c r="F3">
-        <v>-44.152410901467505</v>
-      </c>
-      <c r="G3">
-        <v>17.147871999999992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>22828</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>44.901257861635223</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>-4.3430757999999869</v>
-      </c>
-      <c r="E4">
-        <v>-4.3430757999999869</v>
-      </c>
-      <c r="F4">
-        <v>-44.901257861635223</v>
-      </c>
-      <c r="G4">
-        <v>-35.039658000000017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>23193</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>51.614779874213838</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-9.9870591999999974</v>
-      </c>
-      <c r="E5">
-        <v>-9.9870591999999974</v>
-      </c>
-      <c r="F5">
-        <v>-51.614779874213838</v>
-      </c>
-      <c r="G5">
-        <v>-88.144592000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>23559</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>58.905660377358494</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>-12.445875000000008</v>
-      </c>
-      <c r="E6">
-        <v>-12.445875000000008</v>
-      </c>
-      <c r="F6">
-        <v>-58.905660377358494</v>
-      </c>
-      <c r="G6">
-        <v>-143.01124999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>23924</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>88.487394957983184</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-12.43549119999998</v>
-      </c>
-      <c r="E7">
-        <v>-12.43549119999998</v>
-      </c>
-      <c r="F7">
-        <v>-88.487394957983184</v>
-      </c>
-      <c r="G7">
-        <v>-200.65411200000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>24289</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>92.577030812324921</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-10.593299799999976</v>
-      </c>
-      <c r="E8">
-        <v>-10.593299799999976</v>
-      </c>
-      <c r="F8">
-        <v>-62.337635630468554</v>
-      </c>
-      <c r="G8">
-        <v>-262.228298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>24654</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>96.764705882352942</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-7.4801088000000036</v>
-      </c>
-      <c r="E9">
-        <v>-7.4801088000000036</v>
-      </c>
-      <c r="F9">
-        <v>-59.566751278643714</v>
-      </c>
-      <c r="G9">
-        <v>-329.00148799999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>25020</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>103.78151260504201</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-3.5822782000000117</v>
-      </c>
-      <c r="E10">
-        <v>-3.5822782000000117</v>
-      </c>
-      <c r="F10">
-        <v>-55.006727549518878</v>
-      </c>
-      <c r="G10">
-        <v>-402.32728199999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>25385</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>116.90476190476188</v>
-      </c>
-      <c r="D11">
-        <f>E11</f>
-        <v>0.68600000000001415</v>
-      </c>
-      <c r="E11">
-        <v>0.68600000000001415</v>
-      </c>
-      <c r="F11">
-        <v>-56.997354712814328</v>
-      </c>
-      <c r="G11">
-        <v>-483.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>25750</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>126.00840336134453</v>
-      </c>
-      <c r="D12">
-        <v>4.2</v>
-      </c>
-      <c r="E12">
-        <v>4.2</v>
-      </c>
-      <c r="F12">
-        <v>-61.257605442055009</v>
-      </c>
-      <c r="G12">
-        <v>-574.33092199999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>26115</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>141.77871148459383</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.2</v>
-      </c>
-      <c r="F13">
-        <v>-122.62218651284857</v>
-      </c>
-      <c r="G13">
-        <v>-675.92596800000013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>26481</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>149.15966386554621</v>
-      </c>
-      <c r="D14">
-        <v>11.9</v>
-      </c>
-      <c r="E14">
-        <v>11.9</v>
-      </c>
-      <c r="F14">
-        <v>-128.70141802759881</v>
-      </c>
-      <c r="G14">
-        <v>-789.86481800000013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>26846</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>170.25210084033614</v>
-      </c>
-      <c r="D15">
-        <v>5.2</v>
-      </c>
-      <c r="E15">
-        <v>5.2</v>
-      </c>
-      <c r="F15">
-        <v>-157.04574033071117</v>
-      </c>
-      <c r="G15">
-        <v>-917.58147199999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>27211</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>210.01426533523539</v>
-      </c>
-      <c r="D16">
-        <v>1.7</v>
-      </c>
-      <c r="E16">
-        <v>1.7</v>
-      </c>
-      <c r="F16">
-        <v>-205.42956371259169</v>
-      </c>
-      <c r="G16">
-        <v>-1060.4662500000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>27576</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>235.95555555555558</v>
-      </c>
-      <c r="D17">
-        <v>2.1</v>
-      </c>
-      <c r="E17">
-        <v>2.1</v>
-      </c>
-      <c r="F17">
-        <v>-225.97333206044573</v>
-      </c>
-      <c r="G17">
-        <v>-1219.8492320000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>27942</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6">
-        <v>244.73</v>
-      </c>
-      <c r="D18">
-        <v>2.0499999</v>
-      </c>
-      <c r="E18">
-        <v>2.0499999</v>
-      </c>
-      <c r="F18">
-        <v>-231.45913140663848</v>
-      </c>
-      <c r="G18">
-        <v>-1396.9851380000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>28307</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>293.64705882352939</v>
-      </c>
-      <c r="D19">
-        <v>0.8</v>
-      </c>
-      <c r="E19">
-        <v>0.8</v>
-      </c>
-      <c r="F19">
-        <v>-272.99794832058399</v>
-      </c>
-      <c r="G19">
-        <v>-1593.0396480000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>28672</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>242.02608695652174</v>
-      </c>
-      <c r="D20">
-        <v>1.97</v>
-      </c>
-      <c r="E20">
-        <v>1.97</v>
-      </c>
-      <c r="F20">
-        <v>-208.34709112157037</v>
-      </c>
-      <c r="G20">
-        <v>-1809.0771620000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>29037</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>213.9025</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>-196.61647884443153</v>
-      </c>
-      <c r="G21">
-        <v>-2046.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>29403</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>124.461</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>-37.324276848304081</v>
-      </c>
-      <c r="G22">
-        <v>-2304.7890419999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>29768</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>133.72999999999999</v>
-      </c>
-      <c r="D23">
-        <f>E23</f>
-        <v>16.802499200000149</v>
-      </c>
-      <c r="E23">
-        <v>16.802499200000149</v>
-      </c>
-      <c r="F23">
-        <v>208.58830259454444</v>
-      </c>
-      <c r="G23">
-        <v>1565.2162708415501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>30133</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>217.75</v>
-      </c>
-      <c r="D24">
-        <v>2.02</v>
-      </c>
-      <c r="E24">
-        <v>2.02</v>
-      </c>
-      <c r="F24">
-        <v>46.154135107221691</v>
-      </c>
-      <c r="G24">
-        <v>543.26640510304696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>30498</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>224.03333333333336</v>
-      </c>
-      <c r="D25">
-        <f>E25</f>
-        <v>15.709164800000032</v>
-      </c>
-      <c r="E25">
-        <v>15.709164800000032</v>
-      </c>
-      <c r="F25">
-        <v>173.51649716174347</v>
-      </c>
-      <c r="G25">
-        <v>429.77464486072699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>30864</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>361.56474770543372</v>
-      </c>
-      <c r="D26">
-        <f>E26</f>
-        <v>16.254125000000023</v>
-      </c>
-      <c r="E26">
-        <v>16.254125000000023</v>
-      </c>
-      <c r="F26">
-        <v>12.92539543393076</v>
-      </c>
-      <c r="G26">
-        <v>293.63133617189402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>31229</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>351.96663385245415</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27">
-        <v>216.27077542096731</v>
-      </c>
-      <c r="G27">
-        <v>384.63216488538097</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>31594</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>392.32321221278397</v>
-      </c>
-      <c r="D28">
-        <f>E28</f>
-        <v>21.087132199999679</v>
-      </c>
-      <c r="E28">
-        <v>21.087132199999679</v>
-      </c>
-      <c r="F28">
-        <v>-179.13169343278398</v>
-      </c>
-      <c r="G28">
-        <v>401.52703667273499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>31959</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>626.95116146623457</v>
-      </c>
-      <c r="D29">
-        <f>E29</f>
-        <v>26.030259200000366</v>
-      </c>
-      <c r="E29">
-        <v>26.030259200000366</v>
-      </c>
-      <c r="F29">
-        <v>-626.95116146623457</v>
-      </c>
-      <c r="G29">
-        <v>511.28822370242102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>32325</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>650.89316516666668</v>
-      </c>
-      <c r="D30">
-        <v>4.7</v>
-      </c>
-      <c r="E30">
-        <v>4.7</v>
-      </c>
-      <c r="F30">
-        <v>-650.89316516666668</v>
-      </c>
-      <c r="G30">
-        <v>470.09228354012299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>32690</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>527.64809859993659</v>
-      </c>
-      <c r="D31">
-        <v>1.76</v>
-      </c>
-      <c r="E31">
-        <v>1.76</v>
-      </c>
-      <c r="F31">
-        <v>-527.64809859993659</v>
-      </c>
-      <c r="G31">
-        <v>384.99517293613701</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>33055</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>430.439886588268</v>
-      </c>
-      <c r="D32">
-        <v>5.91</v>
-      </c>
-      <c r="E32">
-        <v>5.91</v>
-      </c>
-      <c r="F32">
-        <v>-430.439886588268</v>
-      </c>
-      <c r="G32">
-        <v>244.39075838208399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>33420</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>332.17290571221542</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>-332.17290571221542</v>
-      </c>
-      <c r="G33">
-        <v>179.474769912619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>33786</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>285.74578600508755</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>-71.390964379176268</v>
-      </c>
-      <c r="G34">
-        <v>120.252259985827</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>34151</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>322.04390441894867</v>
-      </c>
-      <c r="D35">
-        <v>54.6</v>
-      </c>
-      <c r="E35">
-        <v>54.6</v>
-      </c>
-      <c r="F35">
-        <v>-234.62134982143192</v>
-      </c>
-      <c r="G35">
-        <v>118.786060581379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>34516</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36">
-        <v>399.04304467121597</v>
-      </c>
-      <c r="D36">
-        <v>88.2</v>
-      </c>
-      <c r="E36">
-        <v>88.2</v>
-      </c>
-      <c r="F36">
-        <v>-333.74990899275576</v>
-      </c>
-      <c r="G36">
-        <v>148.49891681729699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>34881</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37">
-        <v>575.58189474212497</v>
-      </c>
-      <c r="D37">
-        <v>121.2</v>
-      </c>
-      <c r="E37">
-        <v>121.2</v>
-      </c>
-      <c r="F37">
-        <v>-393.25689135142682</v>
-      </c>
-      <c r="G37">
-        <v>145.151216117594</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>35247</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>604.45853269380007</v>
-      </c>
-      <c r="D38">
-        <v>121</v>
-      </c>
-      <c r="E38">
-        <v>121</v>
-      </c>
-      <c r="F38">
-        <v>-363.24556083330401</v>
-      </c>
-      <c r="G38">
-        <v>145.534630500829</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>35612</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>626.93333131710835</v>
-      </c>
-      <c r="D39">
-        <v>175</v>
-      </c>
-      <c r="E39">
-        <v>175</v>
-      </c>
-      <c r="F39">
-        <v>-265.30839155189</v>
-      </c>
-      <c r="G39">
-        <v>152.516808731092</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>35977</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>658.48158465275378</v>
-      </c>
-      <c r="D40">
-        <v>210</v>
-      </c>
-      <c r="E40">
-        <v>210</v>
-      </c>
-      <c r="F40">
-        <v>-130.64011205405677</v>
-      </c>
-      <c r="G40">
-        <v>135.617944882106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>36342</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41">
-        <v>599.85632579465891</v>
-      </c>
-      <c r="D41">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="E41">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="F41">
-        <v>-56.713906355499148</v>
-      </c>
-      <c r="G41">
-        <v>123.43242395845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>36708</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>619.32468370968729</v>
-      </c>
-      <c r="D42">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="E42">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="F42">
-        <v>108.34913323242097</v>
-      </c>
-      <c r="G42">
-        <v>117.002584885845</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>37073</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43">
-        <v>584.05038685724548</v>
-      </c>
-      <c r="D43">
-        <v>151.496150651927</v>
-      </c>
-      <c r="E43">
-        <v>151.496150651927</v>
-      </c>
-      <c r="F43">
-        <v>235.94725715903053</v>
-      </c>
-      <c r="G43">
-        <v>114.128259060837</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>37438</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44">
-        <v>617.85635908925371</v>
-      </c>
-      <c r="D44">
-        <v>184.6480591975</v>
-      </c>
-      <c r="E44">
-        <v>184.6480591975</v>
-      </c>
-      <c r="F44">
-        <v>201.17006801667731</v>
-      </c>
-      <c r="G44">
-        <v>109.21191184217101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>37803</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45">
-        <v>660.68843907801886</v>
-      </c>
-      <c r="D45">
-        <v>202.19259361849998</v>
-      </c>
-      <c r="E45">
-        <v>202.19259361849998</v>
-      </c>
-      <c r="F45">
-        <v>468.97337212392938</v>
-      </c>
-      <c r="G45">
-        <v>95.845581597459301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>38169</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46">
-        <v>793.94874738631825</v>
-      </c>
-      <c r="D46">
-        <v>295.416479800692</v>
-      </c>
-      <c r="E46">
-        <v>295.416479800692</v>
-      </c>
-      <c r="F46">
-        <v>592.7103272756101</v>
-      </c>
-      <c r="G46">
-        <v>99.447858634069306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>38534</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>923.92218585583873</v>
-      </c>
-      <c r="D47">
-        <v>379.80834066706097</v>
-      </c>
-      <c r="E47">
-        <v>379.80834066706097</v>
-      </c>
-      <c r="F47">
-        <v>580.91762229240112</v>
-      </c>
-      <c r="G47">
-        <v>104.161592504748</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>38899</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48">
-        <v>997.76476446995264</v>
-      </c>
-      <c r="D48">
-        <v>644.26249994651198</v>
-      </c>
-      <c r="E48">
-        <v>644.26249994651198</v>
-      </c>
-      <c r="F48">
-        <v>1068.897791475551</v>
-      </c>
-      <c r="G48">
-        <v>104.377585567366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>39264</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49">
-        <v>1190.2564401323843</v>
-      </c>
-      <c r="D49">
-        <v>792.30578089124401</v>
-      </c>
-      <c r="E49">
-        <v>792.30578089124401</v>
-      </c>
-      <c r="F49">
-        <v>1677.4219135928251</v>
-      </c>
-      <c r="G49">
-        <v>107.96589537320899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>39630</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>1444.0404021488146</v>
-      </c>
-      <c r="D50">
-        <v>728.86090065240796</v>
-      </c>
-      <c r="E50">
-        <v>728.86090065240796</v>
-      </c>
-      <c r="F50">
-        <v>1470.5614459428223</v>
-      </c>
-      <c r="G50">
-        <v>111.311992506636</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <v>39995</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51">
-        <v>2512.7805566451116</v>
-      </c>
-      <c r="D51">
-        <v>841.57080274763598</v>
-      </c>
-      <c r="E51">
-        <v>812.72032169957606</v>
-      </c>
-      <c r="F51">
-        <v>56.111982776657442</v>
-      </c>
-      <c r="G51">
-        <v>108.319176300047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>40360</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>2667.3441667281536</v>
-      </c>
-      <c r="D52">
-        <v>543.87272727272796</v>
-      </c>
-      <c r="E52">
-        <v>506.65842345964001</v>
-      </c>
-      <c r="F52">
-        <v>166.70339234882567</v>
-      </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>40725</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>2787.1725205571438</v>
-      </c>
-      <c r="D53">
-        <v>894.293858</v>
-      </c>
-      <c r="E53">
-        <v>906.14042758727601</v>
-      </c>
-      <c r="F53">
-        <v>-285.0118475571976</v>
-      </c>
-      <c r="G53">
-        <v>93.066503735108299</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <v>41091</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>2730.5915761291758</v>
-      </c>
-      <c r="D54">
-        <v>1205.3884877937401</v>
-      </c>
-      <c r="E54">
-        <v>1159.0514597205299</v>
-      </c>
-      <c r="F54">
-        <v>645.02714536483609</v>
-      </c>
-      <c r="G54">
-        <v>103.581529116697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <v>41456</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>2891.5786996551833</v>
-      </c>
-      <c r="D55">
-        <v>1096</v>
-      </c>
-      <c r="E55">
-        <v>1051.62292249344</v>
-      </c>
-      <c r="F55">
-        <v>398.08720973481604</v>
-      </c>
-      <c r="G55">
-        <v>104.487341700489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <v>41821</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56">
-        <v>3261.2397758457892</v>
-      </c>
-      <c r="D56">
-        <v>1058.56454034685</v>
-      </c>
-      <c r="E56">
-        <v>1031.54624299492</v>
-      </c>
-      <c r="F56">
-        <v>56.925398460893121</v>
-      </c>
-      <c r="G56">
-        <v>106.106235195211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <v>42186</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>3238.7183844669862</v>
-      </c>
-      <c r="D57">
-        <v>737.65214015142794</v>
-      </c>
-      <c r="E57">
-        <v>737.36952105303396</v>
-      </c>
-      <c r="F57">
-        <v>-74.069725709489376</v>
-      </c>
-      <c r="G57">
-        <v>100.98705396656</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <v>42552</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>2920.3988814897266</v>
-      </c>
-      <c r="D58">
-        <v>625.70436186706809</v>
-      </c>
-      <c r="E58">
-        <v>625.55896416211999</v>
-      </c>
-      <c r="F58">
-        <v>622.06287846039913</v>
-      </c>
-      <c r="G58">
-        <v>96.130690827214494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <v>42917</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>3074.4473911531209</v>
-      </c>
-      <c r="D59">
-        <v>802.70414100856806</v>
-      </c>
-      <c r="E59">
-        <v>802.40000875549993</v>
-      </c>
-      <c r="F59">
-        <v>754.03964403867303</v>
-      </c>
-      <c r="G59">
-        <v>93.678152818193894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <v>43282</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>3292.7025573429642</v>
-      </c>
-      <c r="D60">
-        <v>1055.3533526303299</v>
-      </c>
-      <c r="E60">
-        <v>1055.03170652842</v>
-      </c>
-      <c r="F60">
-        <v>447.56604216772257</v>
-      </c>
-      <c r="G60">
-        <v>90.086175339845695</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>43647</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61">
-        <v>3535.306063420217</v>
-      </c>
-      <c r="D61">
-        <v>1273.8855862508599</v>
-      </c>
-      <c r="E61">
-        <v>1273.5599490392899</v>
-      </c>
-      <c r="F61">
-        <v>264.76882550326991</v>
-      </c>
-      <c r="G61">
-        <v>93.296236571518506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <v>44013</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>3760.036818093995</v>
-      </c>
-      <c r="D62">
-        <v>873.79283455531709</v>
-      </c>
-      <c r="E62">
-        <v>873.46822523084199</v>
-      </c>
-      <c r="F62">
-        <v>544.73543406991757</v>
-      </c>
-      <c r="G62">
-        <v>94.995621691551804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A63">
     <cfRule type="uniqueValues" dxfId="3" priority="1"/>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text=" Financial Year">
       <formula>NOT(ISERROR(SEARCH(" Financial Year",A1)))</formula>
@@ -24049,8 +24049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2F29B6-EF92-4EE0-A82D-A0FA9527810B}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24063,6 +24063,7 @@
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -24090,18 +24091,10 @@
       <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -24123,23 +24116,10 @@
         <v>42.300838574423501</v>
       </c>
       <c r="G2">
-        <v>69.06119799999999</v>
+        <v>3.8032179373494142</v>
       </c>
       <c r="H2">
         <v>91.399000000000001</v>
-      </c>
-      <c r="I2">
-        <v>4.1599515705795405E-2</v>
-      </c>
-      <c r="J2">
-        <v>-4.6285602728853487E-2</v>
-      </c>
-      <c r="K2">
-        <v>-5.8861599139573242</v>
-      </c>
-      <c r="L2">
-        <f>H2-K2</f>
-        <v>97.28515991395733</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -24162,23 +24142,10 @@
         <v>44.152410901467505</v>
       </c>
       <c r="G3">
-        <v>17.147871999999992</v>
+        <v>7.6836233014237791</v>
       </c>
       <c r="H3">
         <v>84.316000000000003</v>
-      </c>
-      <c r="I3">
-        <v>1.6694679146419852E-2</v>
-      </c>
-      <c r="J3">
-        <v>-3.6153897331185181E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.20908175349728353</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L62" si="0">H3-K3</f>
-        <v>84.106918246502715</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -24201,23 +24168,10 @@
         <v>44.901257861635223</v>
       </c>
       <c r="G4">
-        <v>35.039658000000017</v>
+        <v>11.500388584178108</v>
       </c>
       <c r="H4">
         <v>76.262</v>
-      </c>
-      <c r="I4">
-        <v>-8.6261525700136593E-3</v>
-      </c>
-      <c r="J4">
-        <v>-2.5559335906228334E-2</v>
-      </c>
-      <c r="K4">
-        <v>6.3631850200914641</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>69.898814979908536</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -24240,23 +24194,10 @@
         <v>51.614779874213838</v>
       </c>
       <c r="G5">
-        <v>88.144592000000003</v>
+        <v>15.115420986822436</v>
       </c>
       <c r="H5">
         <v>67.432000000000002</v>
-      </c>
-      <c r="I5">
-        <v>-3.4945921392027277E-2</v>
-      </c>
-      <c r="J5">
-        <v>-1.3677523453382568E-2</v>
-      </c>
-      <c r="K5">
-        <v>12.632920667429818</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>54.799079332570187</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -24279,23 +24220,10 @@
         <v>58.905660377358494</v>
       </c>
       <c r="G6">
-        <v>143.01124999999996</v>
+        <v>18.306254836779644</v>
       </c>
       <c r="H6">
         <v>58.021000000000001</v>
-      </c>
-      <c r="I6">
-        <v>-6.2761307742443012E-2</v>
-      </c>
-      <c r="J6">
-        <v>5.7152838701477957E-4</v>
-      </c>
-      <c r="K6">
-        <v>19.011427626916035</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>39.009572373083969</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -24318,23 +24246,10 @@
         <v>88.487394957983184</v>
       </c>
       <c r="G7">
-        <v>200.65411200000005</v>
+        <v>20.758637083052811</v>
       </c>
       <c r="H7">
         <v>48.224000000000004</v>
-      </c>
-      <c r="I7">
-        <v>-9.2219532830162598E-2</v>
-      </c>
-      <c r="J7">
-        <v>1.8404583209160205E-2</v>
-      </c>
-      <c r="K7">
-        <v>25.365515623279499</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>22.858484376720504</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -24357,23 +24272,10 @@
         <v>62.337635630468554</v>
       </c>
       <c r="G8">
-        <v>262.228298</v>
+        <v>22.063769033746421</v>
       </c>
       <c r="H8">
         <v>30.239395181856363</v>
-      </c>
-      <c r="I8">
-        <v>-0.12284020478666334</v>
-      </c>
-      <c r="J8">
-        <v>4.1032689323380056E-2</v>
-      </c>
-      <c r="K8">
-        <v>30.239395181856363</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -24396,23 +24298,10 @@
         <v>59.566751278643714</v>
       </c>
       <c r="G9">
-        <v>329.00148799999999</v>
+        <v>21.722679131680337</v>
       </c>
       <c r="H9">
         <v>37.197954603709228</v>
-      </c>
-      <c r="I9">
-        <v>-0.15322073641512088</v>
-      </c>
-      <c r="J9">
-        <v>6.9482849207909078E-2</v>
-      </c>
-      <c r="K9">
-        <v>37.197954603709228</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -24435,23 +24324,10 @@
         <v>55.006727549518878</v>
       </c>
       <c r="G10">
-        <v>402.32728199999997</v>
+        <v>19.16026185136986</v>
       </c>
       <c r="H10">
         <v>48.774785055523132</v>
-      </c>
-      <c r="I10">
-        <v>-0.18073013847084421</v>
-      </c>
-      <c r="J10">
-        <v>0.10437173844774821</v>
-      </c>
-      <c r="K10">
-        <v>48.774785055523132</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -24475,23 +24351,10 @@
         <v>56.997354712814328</v>
       </c>
       <c r="G11">
-        <v>483.62</v>
+        <v>13.751245394242446</v>
       </c>
       <c r="H11">
         <v>59.907407191947556</v>
-      </c>
-      <c r="I11">
-        <v>-0.20120521434499111</v>
-      </c>
-      <c r="J11">
-        <v>0.14562120413581928</v>
-      </c>
-      <c r="K11">
-        <v>59.907407191947556</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -24514,23 +24377,10 @@
         <v>61.257605442055009</v>
       </c>
       <c r="G12">
-        <v>574.33092199999999</v>
+        <v>4.859667161424527</v>
       </c>
       <c r="H12">
         <v>64.750797919289525</v>
-      </c>
-      <c r="I12">
-        <v>-0.2086754660440111</v>
-      </c>
-      <c r="J12">
-        <v>4.2</v>
-      </c>
-      <c r="K12">
-        <v>64.750797919289525</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -24553,23 +24403,10 @@
         <v>122.62218651284857</v>
       </c>
       <c r="G13">
-        <v>675.92596800000013</v>
+        <v>8.1077329590197174</v>
       </c>
       <c r="H13">
         <v>19.156524971745259</v>
-      </c>
-      <c r="I13">
-        <v>-0.19515834343090385</v>
-      </c>
-      <c r="J13">
-        <v>-1.2</v>
-      </c>
-      <c r="K13">
-        <v>19.156524971745259</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -24592,23 +24429,10 @@
         <v>128.70141802759881</v>
       </c>
       <c r="G14">
-        <v>789.86481800000013</v>
+        <v>25.635493663694753</v>
       </c>
       <c r="H14">
         <v>20.458245837947395</v>
-      </c>
-      <c r="I14">
-        <v>-0.15058454170822888</v>
-      </c>
-      <c r="J14">
-        <v>-11.9</v>
-      </c>
-      <c r="K14">
-        <v>20.458245837947395</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -24631,23 +24455,10 @@
         <v>157.04574033071117</v>
       </c>
       <c r="G15">
-        <v>917.58147199999996</v>
+        <v>48.024309011900598</v>
       </c>
       <c r="H15">
         <v>13.206360509624986</v>
-      </c>
-      <c r="I15">
-        <v>-6.2933172644236757E-2</v>
-      </c>
-      <c r="J15">
-        <v>5.2</v>
-      </c>
-      <c r="K15">
-        <v>13.206360509624986</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -24670,26 +24481,13 @@
         <v>205.42956371259169</v>
       </c>
       <c r="G16">
-        <v>1060.4662500000002</v>
+        <v>75.312982652678357</v>
       </c>
       <c r="H16">
         <v>4.5847016226436983</v>
       </c>
-      <c r="I16">
-        <v>8.1322497409904215E-2</v>
-      </c>
-      <c r="J16">
-        <v>1.7</v>
-      </c>
-      <c r="K16">
-        <v>-4.5847016226436983</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>9.1694032452873966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>27576</v>
       </c>
@@ -24709,26 +24507,13 @@
         <v>225.97333206044573</v>
       </c>
       <c r="G17">
-        <v>1219.8492320000003</v>
+        <v>107.20650736292269</v>
       </c>
       <c r="H17">
         <v>9.9822234951098423</v>
       </c>
-      <c r="I17">
-        <v>0.29633853382946806</v>
-      </c>
-      <c r="J17">
-        <v>2.1</v>
-      </c>
-      <c r="K17">
-        <v>9.9822234951098423</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>27942</v>
       </c>
@@ -24748,26 +24533,13 @@
         <v>231.45913140663848</v>
       </c>
       <c r="G18">
-        <v>1396.9851380000002</v>
+        <v>143.02199201744841</v>
       </c>
       <c r="H18">
         <v>13.270868593361518</v>
       </c>
-      <c r="I18">
-        <v>0.59545777701562985</v>
-      </c>
-      <c r="J18">
-        <v>2.0499999</v>
-      </c>
-      <c r="K18">
-        <v>13.270868593361518</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>28307</v>
       </c>
@@ -24787,26 +24559,13 @@
         <v>272.99794832058399</v>
       </c>
       <c r="G19">
-        <v>1593.0396480000002</v>
+        <v>181.66603189843974</v>
       </c>
       <c r="H19">
         <v>20.649110502945412</v>
       </c>
-      <c r="I19">
-        <v>0.98905968203127004</v>
-      </c>
-      <c r="J19">
-        <v>0.8</v>
-      </c>
-      <c r="K19">
-        <v>20.649110502945412</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>28672</v>
       </c>
@@ -24826,26 +24585,13 @@
         <v>208.34709112157037</v>
       </c>
       <c r="G20">
-        <v>1809.0771620000003</v>
+        <v>221.65734463148809</v>
       </c>
       <c r="H20">
         <v>33.67899583495138</v>
       </c>
-      <c r="I20">
-        <v>1.4815691261691126</v>
-      </c>
-      <c r="J20">
-        <v>1.97</v>
-      </c>
-      <c r="K20">
-        <v>33.67899583495138</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>29037</v>
       </c>
@@ -24865,26 +24611,13 @@
         <v>196.61647884443153</v>
       </c>
       <c r="G21">
-        <v>2046.05</v>
+        <v>261.20598365653893</v>
       </c>
       <c r="H21">
         <v>17.286021155568488</v>
       </c>
-      <c r="I21">
-        <v>2.0675203899015684</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>-17.286021155568488</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>34.572042311136975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>29403</v>
       </c>
@@ -24904,26 +24637,13 @@
         <v>37.324276848304081</v>
       </c>
       <c r="G22">
-        <v>2304.7890419999999</v>
+        <v>298.35389649600023</v>
       </c>
       <c r="H22">
         <v>87.136723151695918</v>
       </c>
-      <c r="I22">
-        <v>2.7266320624393576</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>-87.136723151695918</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>174.27344630339184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>29768</v>
       </c>
@@ -24949,21 +24669,8 @@
       <c r="H23">
         <v>342.31830259454443</v>
       </c>
-      <c r="I23">
-        <v>3.4179475290941856</v>
-      </c>
-      <c r="J23">
-        <v>-2.3625572045533882</v>
-      </c>
-      <c r="K23">
-        <v>-342.31830259454443</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>684.63660518908887</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>30133</v>
       </c>
@@ -24988,21 +24695,8 @@
       <c r="H24">
         <v>263.90413510722169</v>
       </c>
-      <c r="I24">
-        <v>4.0732438545533647</v>
-      </c>
-      <c r="J24">
-        <v>2.02</v>
-      </c>
-      <c r="K24">
-        <v>-263.90413510722169</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>527.80827021444338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>30498</v>
       </c>
@@ -25028,21 +24722,8 @@
       <c r="H25">
         <v>397.54983049507683</v>
       </c>
-      <c r="I25">
-        <v>4.5901186282132667</v>
-      </c>
-      <c r="J25">
-        <v>-4.0216204623069256</v>
-      </c>
-      <c r="K25">
-        <v>-397.54983049507683</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>795.09966099015367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>30864</v>
       </c>
@@ -25068,21 +24749,8 @@
       <c r="H26">
         <v>374.49014313936448</v>
       </c>
-      <c r="I26">
-        <v>4.8254370009247296</v>
-      </c>
-      <c r="J26">
-        <v>-4.5194269129036027</v>
-      </c>
-      <c r="K26">
-        <v>-374.49014313936448</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>748.98028627872895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>31229</v>
       </c>
@@ -25107,21 +24775,8 @@
       <c r="H27">
         <v>568.23740927342146</v>
       </c>
-      <c r="I27">
-        <v>4.5901629372564603</v>
-      </c>
-      <c r="J27">
-        <v>-4</v>
-      </c>
-      <c r="K27">
-        <v>-568.23740927342146</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>1136.4748185468429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>31594</v>
       </c>
@@ -25147,21 +24802,8 @@
       <c r="H28">
         <v>213.19151878</v>
       </c>
-      <c r="I28">
-        <v>3.6470060317679205</v>
-      </c>
-      <c r="J28">
-        <v>-3.7751828242117442</v>
-      </c>
-      <c r="K28">
-        <v>-213.19151878</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>426.38303755999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>31959</v>
       </c>
@@ -25188,21 +24830,8 @@
         <f>0.0325*B2^3 - 0.6805*B2^2 - 5.269*B2 + 97.316</f>
         <v>91.399000000000001</v>
       </c>
-      <c r="I29">
-        <v>1.7127742496460057</v>
-      </c>
-      <c r="J29">
-        <v>-2.0089345755258172</v>
-      </c>
-      <c r="K29">
-        <v>-203.77784497913109</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>295.17684497913109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>32325</v>
       </c>
@@ -25225,24 +24854,11 @@
         <v>470.09228354012299</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H33" si="1">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
+        <f t="shared" ref="H30:H33" si="0">0.0325*B3^3 - 0.6805*B3^2 - 5.269*B3 + 97.316</f>
         <v>84.316000000000003</v>
       </c>
-      <c r="I30">
-        <v>-1.5321945042400689</v>
-      </c>
-      <c r="J30">
-        <v>4.7</v>
-      </c>
-      <c r="K30">
-        <v>-176.26671707326352</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>260.58271707326355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>32690</v>
       </c>
@@ -25265,24 +24881,11 @@
         <v>384.99517293613701</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76.262</v>
       </c>
-      <c r="I31">
-        <v>-6.4246900675175471</v>
-      </c>
-      <c r="J31">
-        <v>-1.76</v>
-      </c>
-      <c r="K31">
-        <v>-146.56426549245859</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>222.82626549245859</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>33055</v>
       </c>
@@ -25305,24 +24908,11 @@
         <v>244.39075838208399</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67.432000000000002</v>
       </c>
-      <c r="I32">
-        <v>-13.286180332771274</v>
-      </c>
-      <c r="J32">
-        <v>-5.91</v>
-      </c>
-      <c r="K32">
-        <v>-114.54800799931076</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>181.98000799931077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>33420</v>
       </c>
@@ -25345,24 +24935,11 @@
         <v>179.474769912619</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58.021000000000001</v>
       </c>
-      <c r="I33">
-        <v>-1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>-78.629819701489922</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>136.65081970148992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33786</v>
       </c>
@@ -25387,21 +24964,8 @@
       <c r="H34">
         <v>214.35482162591128</v>
       </c>
-      <c r="I34">
-        <v>-3</v>
-      </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>-214.35482162591128</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>428.70964325182257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34151</v>
       </c>
@@ -25426,21 +24990,8 @@
       <c r="H35">
         <v>87.422554597516736</v>
       </c>
-      <c r="I35">
-        <v>-54.6</v>
-      </c>
-      <c r="J35">
-        <v>54.6</v>
-      </c>
-      <c r="K35">
-        <v>-87.422554597516736</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>174.84510919503347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34516</v>
       </c>
@@ -25465,21 +25016,8 @@
       <c r="H36">
         <v>65.293135678460231</v>
       </c>
-      <c r="I36">
-        <v>-88.2</v>
-      </c>
-      <c r="J36">
-        <v>88.2</v>
-      </c>
-      <c r="K36">
-        <v>65.293135678460231</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>34881</v>
       </c>
@@ -25504,21 +25042,8 @@
       <c r="H37">
         <v>182.32500339069813</v>
       </c>
-      <c r="I37">
-        <v>-121.2</v>
-      </c>
-      <c r="J37">
-        <v>121.2</v>
-      </c>
-      <c r="K37">
-        <v>182.32500339069813</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>35247</v>
       </c>
@@ -25543,21 +25068,8 @@
       <c r="H38">
         <v>241.21297186049603</v>
       </c>
-      <c r="I38">
-        <v>-121</v>
-      </c>
-      <c r="J38">
-        <v>121</v>
-      </c>
-      <c r="K38">
-        <v>241.21297186049603</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>35612</v>
       </c>
@@ -25582,21 +25094,8 @@
       <c r="H39">
         <v>361.62493976521836</v>
       </c>
-      <c r="I39">
-        <v>-175</v>
-      </c>
-      <c r="J39">
-        <v>175</v>
-      </c>
-      <c r="K39">
-        <v>361.62493976521836</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>35977</v>
       </c>
@@ -25621,21 +25120,8 @@
       <c r="H40">
         <v>527.84147259869701</v>
       </c>
-      <c r="I40">
-        <v>-210</v>
-      </c>
-      <c r="J40">
-        <v>210</v>
-      </c>
-      <c r="K40">
-        <v>527.84147259869701</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>36342</v>
       </c>
@@ -25660,21 +25146,8 @@
       <c r="H41">
         <v>543.14241943915977</v>
       </c>
-      <c r="I41">
-        <v>-140.19999999999999</v>
-      </c>
-      <c r="J41">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="K41">
-        <v>543.14241943915977</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>36708</v>
       </c>
@@ -25699,21 +25172,8 @@
       <c r="H42">
         <v>727.67381694210826</v>
       </c>
-      <c r="I42">
-        <v>-160.69999999999999</v>
-      </c>
-      <c r="J42">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="K42">
-        <v>727.67381694210826</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>37073</v>
       </c>
@@ -25738,21 +25198,8 @@
       <c r="H43">
         <v>819.99764401627601</v>
       </c>
-      <c r="I43">
-        <v>-151.496150651927</v>
-      </c>
-      <c r="J43">
-        <v>151.496150651927</v>
-      </c>
-      <c r="K43">
-        <v>819.99764401627601</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>37438</v>
       </c>
@@ -25777,21 +25224,8 @@
       <c r="H44">
         <v>819.02642710593102</v>
       </c>
-      <c r="I44">
-        <v>-184.6480591975</v>
-      </c>
-      <c r="J44">
-        <v>184.6480591975</v>
-      </c>
-      <c r="K44">
-        <v>819.02642710593102</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>37803</v>
       </c>
@@ -25816,21 +25250,8 @@
       <c r="H45">
         <v>1129.6618112019482</v>
       </c>
-      <c r="I45">
-        <v>-202.19259361849998</v>
-      </c>
-      <c r="J45">
-        <v>202.19259361849998</v>
-      </c>
-      <c r="K45">
-        <v>1129.6618112019482</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>38169</v>
       </c>
@@ -25855,21 +25276,8 @@
       <c r="H46">
         <v>1386.6590746619283</v>
       </c>
-      <c r="I46">
-        <v>-295.416479800692</v>
-      </c>
-      <c r="J46">
-        <v>295.416479800692</v>
-      </c>
-      <c r="K46">
-        <v>1386.6590746619283</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>38534</v>
       </c>
@@ -25894,21 +25302,8 @@
       <c r="H47">
         <v>1504.8398081482399</v>
       </c>
-      <c r="I47">
-        <v>-379.80834066706097</v>
-      </c>
-      <c r="J47">
-        <v>379.80834066706097</v>
-      </c>
-      <c r="K47">
-        <v>1504.8398081482399</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>38899</v>
       </c>
@@ -25933,21 +25328,8 @@
       <c r="H48">
         <v>2066.6625559455038</v>
       </c>
-      <c r="I48">
-        <v>-644.26249994651198</v>
-      </c>
-      <c r="J48">
-        <v>644.26249994651198</v>
-      </c>
-      <c r="K48">
-        <v>2066.6625559455038</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>39264</v>
       </c>
@@ -25972,21 +25354,8 @@
       <c r="H49">
         <v>2867.6783537252095</v>
       </c>
-      <c r="I49">
-        <v>-792.30578089124401</v>
-      </c>
-      <c r="J49">
-        <v>792.30578089124401</v>
-      </c>
-      <c r="K49">
-        <v>2867.6783537252095</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>39630</v>
       </c>
@@ -26011,21 +25380,8 @@
       <c r="H50">
         <v>2914.6018480916368</v>
       </c>
-      <c r="I50">
-        <v>-728.86090065240796</v>
-      </c>
-      <c r="J50">
-        <v>728.86090065240796</v>
-      </c>
-      <c r="K50">
-        <v>2914.6018480916368</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>39995</v>
       </c>
@@ -26050,21 +25406,8 @@
       <c r="H51">
         <v>2568.892539421769</v>
       </c>
-      <c r="I51">
-        <v>-812.72032169957606</v>
-      </c>
-      <c r="J51">
-        <v>841.57080274763598</v>
-      </c>
-      <c r="K51">
-        <v>2568.892539421769</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>40360</v>
       </c>
@@ -26089,21 +25432,8 @@
       <c r="H52">
         <v>2834.0475590769793</v>
       </c>
-      <c r="I52">
-        <v>-506.65842345964001</v>
-      </c>
-      <c r="J52">
-        <v>543.87272727272796</v>
-      </c>
-      <c r="K52">
-        <v>2834.0475590769793</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>40725</v>
       </c>
@@ -26128,21 +25458,8 @@
       <c r="H53">
         <v>2502.1606729999462</v>
       </c>
-      <c r="I53">
-        <v>-906.14042758727601</v>
-      </c>
-      <c r="J53">
-        <v>894.293858</v>
-      </c>
-      <c r="K53">
-        <v>2502.1606729999462</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>41091</v>
       </c>
@@ -26167,21 +25484,8 @@
       <c r="H54">
         <v>3375.6187214940119</v>
       </c>
-      <c r="I54">
-        <v>-1159.0514597205299</v>
-      </c>
-      <c r="J54">
-        <v>1205.3884877937401</v>
-      </c>
-      <c r="K54">
-        <v>3375.6187214940119</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>41456</v>
       </c>
@@ -26206,21 +25510,8 @@
       <c r="H55">
         <v>3289.6659093899993</v>
       </c>
-      <c r="I55">
-        <v>-1051.62292249344</v>
-      </c>
-      <c r="J55">
-        <v>1096</v>
-      </c>
-      <c r="K55">
-        <v>3289.6659093899993</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>41821</v>
       </c>
@@ -26245,21 +25536,8 @@
       <c r="H56">
         <v>3318.1651743066823</v>
       </c>
-      <c r="I56">
-        <v>-1031.54624299492</v>
-      </c>
-      <c r="J56">
-        <v>1058.56454034685</v>
-      </c>
-      <c r="K56">
-        <v>3318.1651743066823</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>42186</v>
       </c>
@@ -26284,21 +25562,8 @@
       <c r="H57">
         <v>3164.6486587574968</v>
       </c>
-      <c r="I57">
-        <v>-737.36952105303396</v>
-      </c>
-      <c r="J57">
-        <v>737.65214015142794</v>
-      </c>
-      <c r="K57">
-        <v>3164.6486587574968</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>42552</v>
       </c>
@@ -26323,21 +25588,8 @@
       <c r="H58">
         <v>3542.4617599501257</v>
       </c>
-      <c r="I58">
-        <v>-625.55896416211999</v>
-      </c>
-      <c r="J58">
-        <v>625.70436186706809</v>
-      </c>
-      <c r="K58">
-        <v>3542.4617599501257</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>42917</v>
       </c>
@@ -26362,21 +25614,8 @@
       <c r="H59">
         <v>3828.4870351917939</v>
       </c>
-      <c r="I59">
-        <v>-802.40000875549993</v>
-      </c>
-      <c r="J59">
-        <v>802.70414100856806</v>
-      </c>
-      <c r="K59">
-        <v>3828.4870351917939</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>43282</v>
       </c>
@@ -26401,21 +25640,8 @@
       <c r="H60">
         <v>3740.2685995106867</v>
       </c>
-      <c r="I60">
-        <v>-1055.03170652842</v>
-      </c>
-      <c r="J60">
-        <v>1055.3533526303299</v>
-      </c>
-      <c r="K60">
-        <v>3740.2685995106867</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>43647</v>
       </c>
@@ -26440,21 +25666,8 @@
       <c r="H61">
         <v>3800.0748889234869</v>
       </c>
-      <c r="I61">
-        <v>-1273.5599490392899</v>
-      </c>
-      <c r="J61">
-        <v>1273.8855862508599</v>
-      </c>
-      <c r="K61">
-        <v>3800.0748889234869</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44013</v>
       </c>
@@ -26478,19 +25691,6 @@
       </c>
       <c r="H62">
         <v>4304.7722521639125</v>
-      </c>
-      <c r="I62">
-        <v>-873.46822523084199</v>
-      </c>
-      <c r="J62">
-        <v>873.79283455531709</v>
-      </c>
-      <c r="K62">
-        <v>4304.7722521639125</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
